--- a/public/excel/cbosexcel.xlsx
+++ b/public/excel/cbosexcel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\delaccomis\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\accomisfinal\public\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{946F5ACB-6FD4-4517-A199-9305797AE192}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14358F44-506C-4043-8AF5-99E086D68949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cbosexcel" sheetId="1" r:id="rId1"/>
@@ -892,9 +892,6 @@
     <t>Community Aid Initiative Empowerment</t>
   </si>
   <si>
-    <t>Communityaidinitiative14</t>
-  </si>
-  <si>
     <t>3784528277</t>
   </si>
   <si>
@@ -1132,9 +1129,6 @@
     <t>Justice Development And Peace Makers Centre</t>
   </si>
   <si>
-    <t>Jdpmc2009@gmail.com</t>
-  </si>
-  <si>
     <t>2599098425</t>
   </si>
   <si>
@@ -1150,9 +1144,6 @@
     <t>Cleannation Foundation</t>
   </si>
   <si>
-    <t>Cleannation29@gmail.com</t>
-  </si>
-  <si>
     <t>2500312604</t>
   </si>
   <si>
@@ -1189,9 +1180,6 @@
     <t>Save Our Land</t>
   </si>
   <si>
-    <t>Saveourlandsol2017@gmail.com</t>
-  </si>
-  <si>
     <t>2302740962</t>
   </si>
   <si>
@@ -1348,9 +1336,6 @@
     <t>Lautai Youth Association</t>
   </si>
   <si>
-    <t>Barko.ibrahim@yahoo.com</t>
-  </si>
-  <si>
     <t>1512454394</t>
   </si>
   <si>
@@ -1387,9 +1372,6 @@
     <t>Society for Community Health Awareness and Mobilization (SOCHAM)</t>
   </si>
   <si>
-    <t>Abualiyu30@gmail.com</t>
-  </si>
-  <si>
     <t>1314882752</t>
   </si>
   <si>
@@ -1465,9 +1447,6 @@
     <t>Public Health Awareness Group</t>
   </si>
   <si>
-    <t>Zakaraliyu745@gmail.com</t>
-  </si>
-  <si>
     <t>919739468.2</t>
   </si>
   <si>
@@ -2212,9 +2191,6 @@
     <t>Nasara Almadaf Foundation</t>
   </si>
   <si>
-    <t>Dardau58@gmail.com</t>
-  </si>
-  <si>
     <t>-2834121730</t>
   </si>
   <si>
@@ -2275,9 +2251,6 @@
     <t>Bako Youth Development Foundation</t>
   </si>
   <si>
-    <t>Andybako.60@gmail.com</t>
-  </si>
-  <si>
     <t>-3130479193</t>
   </si>
   <si>
@@ -2293,9 +2266,6 @@
     <t>Child Protection and Survival Foundation</t>
   </si>
   <si>
-    <t>Protectionsurvival@gmail.com</t>
-  </si>
-  <si>
     <t>-3229265014</t>
   </si>
   <si>
@@ -2353,9 +2323,6 @@
     <t>Rural Mothers and Gender Care Initiative</t>
   </si>
   <si>
-    <t>Mothercareforum1@gmail.com</t>
-  </si>
-  <si>
     <t>-3525622477</t>
   </si>
   <si>
@@ -3076,9 +3043,6 @@
     <t>Horn of Hope Vision for Peace and Community Development</t>
   </si>
   <si>
-    <t>Hornofhope66@gmail.com</t>
-  </si>
-  <si>
     <t>-7180697854</t>
   </si>
   <si>
@@ -3193,9 +3157,6 @@
     <t>United Methodise Church in Nigeria</t>
   </si>
   <si>
-    <t>Unclejay22@yahoo.com</t>
-  </si>
-  <si>
     <t>-7773412780</t>
   </si>
   <si>
@@ -3217,9 +3178,6 @@
     <t>Rural Integrated Development Initiative</t>
   </si>
   <si>
-    <t>Rural2009@gmail.com</t>
-  </si>
-  <si>
     <t>-7872198601</t>
   </si>
   <si>
@@ -3469,9 +3427,6 @@
     <t>Ferdinand Patrick Nyameh Memorial Foundation</t>
   </si>
   <si>
-    <t>Fpnyameh1@yahoo.com</t>
-  </si>
-  <si>
     <t>-9156414274</t>
   </si>
   <si>
@@ -3508,9 +3463,6 @@
     <t>Kanem Borno Human Development Association</t>
   </si>
   <si>
-    <t>Kasimbala69@gmail.com</t>
-  </si>
-  <si>
     <t>-9353985916</t>
   </si>
   <si>
@@ -3532,9 +3484,6 @@
     <t>Communal Support Foundation</t>
   </si>
   <si>
-    <t>Cosfon2005@yahoo.com</t>
-  </si>
-  <si>
     <t>-9452771737</t>
   </si>
   <si>
@@ -3649,9 +3598,6 @@
     <t>Hope Interactive</t>
   </si>
   <si>
-    <t>Msheliawayutabirma34@gmail.com</t>
-  </si>
-  <si>
     <t>-10045486662</t>
   </si>
   <si>
@@ -3688,9 +3634,6 @@
     <t>Waka Rural Development Initiative</t>
   </si>
   <si>
-    <t>Wakasociety2004@gmail.com</t>
-  </si>
-  <si>
     <t>-10243058304</t>
   </si>
   <si>
@@ -3784,9 +3727,6 @@
     <t>Community Initiative For Peace And Development Foundation</t>
   </si>
   <si>
-    <t xml:space="preserve">Mohdmara0@gmail.com </t>
-  </si>
-  <si>
     <t>-10736987409</t>
   </si>
   <si>
@@ -4136,13 +4076,73 @@
   </si>
   <si>
     <t>Obafemi Owode</t>
+  </si>
+  <si>
+    <t>edimeh.lucy2018@gmail.com</t>
+  </si>
+  <si>
+    <t>unclejay22@yahoo.com</t>
+  </si>
+  <si>
+    <t>rural2009@gmail.com</t>
+  </si>
+  <si>
+    <t>hornofhope66@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mohdmara0@gmail.com </t>
+  </si>
+  <si>
+    <t>msheliawayutabirma34@gmail.com</t>
+  </si>
+  <si>
+    <t>wakasociety2004@gmail.com</t>
+  </si>
+  <si>
+    <t>barko.ibrahim@yahoo.com</t>
+  </si>
+  <si>
+    <t>abualiyu30@gmail.com</t>
+  </si>
+  <si>
+    <t>zakaraliyu745@gmail.com</t>
+  </si>
+  <si>
+    <t>saveourlandsol2017@gmail.com</t>
+  </si>
+  <si>
+    <t>cleannation29@gmail.com</t>
+  </si>
+  <si>
+    <t>jdpmc2009@gmail.com</t>
+  </si>
+  <si>
+    <t>dardau58@gmail.com</t>
+  </si>
+  <si>
+    <t>andybako.60@gmail.com</t>
+  </si>
+  <si>
+    <t>protectionsurvival@gmail.com</t>
+  </si>
+  <si>
+    <t>mothercareforum1@gmail.com</t>
+  </si>
+  <si>
+    <t>fpnyameh1@yahoo.com</t>
+  </si>
+  <si>
+    <t>kasimbala69@gmail.com</t>
+  </si>
+  <si>
+    <t>cosfon2005@yahoo.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4155,6 +4155,14 @@
       <color theme="1"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -4174,17 +4182,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4525,16 +4537,15 @@
   <dimension ref="A1:L209"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C179" sqref="C179"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="26.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="12" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="26.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4572,7 +4583,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>12</v>
       </c>
@@ -4601,7 +4612,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>20</v>
       </c>
@@ -4630,7 +4641,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>25</v>
       </c>
@@ -4644,7 +4655,7 @@
         <v>15</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>1371</v>
+        <v>1351</v>
       </c>
       <c r="G4" t="s">
         <v>27</v>
@@ -4659,7 +4670,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>30</v>
       </c>
@@ -4673,7 +4684,7 @@
         <v>15</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>1371</v>
+        <v>1351</v>
       </c>
       <c r="G5" t="s">
         <v>32</v>
@@ -4688,7 +4699,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>35</v>
       </c>
@@ -4717,7 +4728,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>41</v>
       </c>
@@ -4746,7 +4757,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>46</v>
       </c>
@@ -4775,7 +4786,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>52</v>
       </c>
@@ -4804,7 +4815,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>58</v>
       </c>
@@ -4833,7 +4844,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>65</v>
       </c>
@@ -4862,7 +4873,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>71</v>
       </c>
@@ -4891,7 +4902,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>78</v>
       </c>
@@ -4920,7 +4931,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>84</v>
       </c>
@@ -4949,7 +4960,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>91</v>
       </c>
@@ -4978,7 +4989,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>97</v>
       </c>
@@ -5007,7 +5018,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="17" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>104</v>
       </c>
@@ -5036,7 +5047,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="18" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>110</v>
       </c>
@@ -5065,7 +5076,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="19" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>118</v>
       </c>
@@ -5094,7 +5105,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>124</v>
       </c>
@@ -5123,7 +5134,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="21" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>131</v>
       </c>
@@ -5152,7 +5163,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="22" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>137</v>
       </c>
@@ -5181,7 +5192,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>144</v>
       </c>
@@ -5210,7 +5221,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="24" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>150</v>
       </c>
@@ -5239,7 +5250,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="25" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>157</v>
       </c>
@@ -5268,7 +5279,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>163</v>
       </c>
@@ -5297,7 +5308,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>170</v>
       </c>
@@ -5326,7 +5337,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>176</v>
       </c>
@@ -5355,7 +5366,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>183</v>
       </c>
@@ -5384,7 +5395,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="30" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>189</v>
       </c>
@@ -5413,7 +5424,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="31" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>196</v>
       </c>
@@ -5442,7 +5453,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="32" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>202</v>
       </c>
@@ -5471,7 +5482,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="33" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>209</v>
       </c>
@@ -5500,7 +5511,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="34" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>216</v>
       </c>
@@ -5529,7 +5540,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="35" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>224</v>
       </c>
@@ -5558,7 +5569,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="36" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>230</v>
       </c>
@@ -5587,7 +5598,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="37" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>237</v>
       </c>
@@ -5616,7 +5627,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="38" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>243</v>
       </c>
@@ -5645,7 +5656,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="39" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>250</v>
       </c>
@@ -5674,7 +5685,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="40" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>256</v>
       </c>
@@ -5703,7 +5714,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="41" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>263</v>
       </c>
@@ -5732,7 +5743,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="42" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>269</v>
       </c>
@@ -5761,7 +5772,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="43" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>276</v>
       </c>
@@ -5790,7 +5801,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="44" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>282</v>
       </c>
@@ -5819,4796 +5830,4817 @@
         <v>288</v>
       </c>
     </row>
-    <row r="45" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>289</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="3" t="s">
+        <v>1352</v>
+      </c>
+      <c r="D45" t="s">
         <v>290</v>
-      </c>
-      <c r="D45" t="s">
-        <v>291</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>219</v>
       </c>
       <c r="F45" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="G45" t="s">
         <v>292</v>
       </c>
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>293</v>
       </c>
-      <c r="H45" t="s">
+      <c r="I45" t="s">
+        <v>293</v>
+      </c>
+      <c r="J45" t="s">
         <v>294</v>
       </c>
-      <c r="I45" t="s">
-        <v>294</v>
-      </c>
-      <c r="J45" t="s">
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="46" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>296</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>297</v>
-      </c>
-      <c r="D46" t="s">
-        <v>298</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>219</v>
       </c>
       <c r="F46" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="G46" t="s">
         <v>299</v>
       </c>
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>300</v>
       </c>
-      <c r="H46" t="s">
+      <c r="I46" t="s">
+        <v>300</v>
+      </c>
+      <c r="J46" t="s">
         <v>301</v>
       </c>
-      <c r="I46" t="s">
-        <v>301</v>
-      </c>
-      <c r="J46" t="s">
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="47" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>303</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>304</v>
-      </c>
-      <c r="D47" t="s">
-        <v>305</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>219</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G47" t="s">
+        <v>305</v>
+      </c>
+      <c r="H47" t="s">
         <v>306</v>
       </c>
-      <c r="H47" t="s">
+      <c r="I47" t="s">
+        <v>306</v>
+      </c>
+      <c r="J47" t="s">
         <v>307</v>
       </c>
-      <c r="I47" t="s">
-        <v>307</v>
-      </c>
-      <c r="J47" t="s">
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="48" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>309</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>310</v>
-      </c>
-      <c r="D48" t="s">
-        <v>311</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>219</v>
       </c>
       <c r="F48" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="G48" t="s">
         <v>312</v>
       </c>
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>313</v>
       </c>
-      <c r="H48" t="s">
+      <c r="I48" t="s">
+        <v>313</v>
+      </c>
+      <c r="J48" t="s">
         <v>314</v>
       </c>
-      <c r="I48" t="s">
-        <v>314</v>
-      </c>
-      <c r="J48" t="s">
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="49" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
+      <c r="C49" t="s">
         <v>316</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>317</v>
-      </c>
-      <c r="D49" t="s">
-        <v>318</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>219</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G49" t="s">
+        <v>318</v>
+      </c>
+      <c r="H49" t="s">
         <v>319</v>
       </c>
-      <c r="H49" t="s">
+      <c r="I49" t="s">
+        <v>319</v>
+      </c>
+      <c r="J49" t="s">
         <v>320</v>
       </c>
-      <c r="I49" t="s">
-        <v>320</v>
-      </c>
-      <c r="J49" t="s">
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="50" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
+      <c r="C50" t="s">
         <v>322</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>323</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E50" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="F50" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="F50" s="1" t="s">
+      <c r="G50" t="s">
         <v>326</v>
       </c>
-      <c r="G50" t="s">
+      <c r="H50" t="s">
         <v>327</v>
       </c>
-      <c r="H50" t="s">
+      <c r="I50" t="s">
+        <v>327</v>
+      </c>
+      <c r="J50" t="s">
         <v>328</v>
       </c>
-      <c r="I50" t="s">
-        <v>328</v>
-      </c>
-      <c r="J50" t="s">
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="51" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
+      <c r="C51" t="s">
         <v>330</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>331</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E51" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="G51" t="s">
         <v>332</v>
       </c>
-      <c r="E51" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="G51" t="s">
+      <c r="H51" t="s">
         <v>333</v>
       </c>
-      <c r="H51" t="s">
+      <c r="I51" t="s">
+        <v>333</v>
+      </c>
+      <c r="J51" t="s">
         <v>334</v>
       </c>
-      <c r="I51" t="s">
-        <v>334</v>
-      </c>
-      <c r="J51" t="s">
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="52" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
+      <c r="C52" t="s">
         <v>336</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>337</v>
       </c>
-      <c r="D52" t="s">
+      <c r="E52" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="F52" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="E52" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="F52" s="1" t="s">
+      <c r="G52" t="s">
         <v>339</v>
       </c>
-      <c r="G52" t="s">
+      <c r="H52" t="s">
         <v>340</v>
       </c>
-      <c r="H52" t="s">
+      <c r="I52" t="s">
+        <v>340</v>
+      </c>
+      <c r="J52" t="s">
         <v>341</v>
       </c>
-      <c r="I52" t="s">
-        <v>341</v>
-      </c>
-      <c r="J52" t="s">
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="53" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
+      <c r="C53" t="s">
         <v>343</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>344</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E53" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="G53" t="s">
         <v>345</v>
       </c>
-      <c r="E53" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="G53" t="s">
+      <c r="H53" t="s">
         <v>346</v>
       </c>
-      <c r="H53" t="s">
+      <c r="I53" t="s">
+        <v>346</v>
+      </c>
+      <c r="J53" t="s">
         <v>347</v>
       </c>
-      <c r="I53" t="s">
-        <v>347</v>
-      </c>
-      <c r="J53" t="s">
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="54" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
+      <c r="C54" t="s">
         <v>349</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>350</v>
       </c>
-      <c r="D54" t="s">
+      <c r="E54" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="F54" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="E54" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="F54" s="1" t="s">
+      <c r="G54" t="s">
         <v>352</v>
       </c>
-      <c r="G54" t="s">
+      <c r="H54" t="s">
         <v>353</v>
       </c>
-      <c r="H54" t="s">
+      <c r="I54" t="s">
+        <v>353</v>
+      </c>
+      <c r="J54" t="s">
         <v>354</v>
       </c>
-      <c r="I54" t="s">
-        <v>354</v>
-      </c>
-      <c r="J54" t="s">
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="55" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
+      <c r="C55" t="s">
         <v>356</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>357</v>
       </c>
-      <c r="D55" t="s">
+      <c r="E55" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G55" t="s">
         <v>358</v>
       </c>
-      <c r="E55" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="G55" t="s">
+      <c r="H55" t="s">
         <v>359</v>
       </c>
-      <c r="H55" t="s">
+      <c r="I55" t="s">
+        <v>359</v>
+      </c>
+      <c r="J55" t="s">
         <v>360</v>
       </c>
-      <c r="I55" t="s">
-        <v>360</v>
-      </c>
-      <c r="J55" t="s">
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="56" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
+      <c r="C56" t="s">
         <v>362</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
         <v>363</v>
       </c>
-      <c r="D56" t="s">
+      <c r="E56" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="F56" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="E56" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="F56" s="1" t="s">
+      <c r="G56" t="s">
         <v>365</v>
       </c>
-      <c r="G56" t="s">
+      <c r="H56" t="s">
         <v>366</v>
       </c>
-      <c r="H56" t="s">
+      <c r="I56" t="s">
+        <v>366</v>
+      </c>
+      <c r="J56" t="s">
         <v>367</v>
       </c>
-      <c r="I56" t="s">
-        <v>367</v>
-      </c>
-      <c r="J56" t="s">
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="57" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
+      <c r="C57" s="4" t="s">
+        <v>1364</v>
+      </c>
+      <c r="D57" t="s">
         <v>369</v>
       </c>
-      <c r="C57" t="s">
+      <c r="E57" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="G57" t="s">
         <v>370</v>
       </c>
-      <c r="D57" t="s">
+      <c r="H57" t="s">
         <v>371</v>
       </c>
-      <c r="E57" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="G57" t="s">
+      <c r="I57" t="s">
+        <v>371</v>
+      </c>
+      <c r="J57" t="s">
         <v>372</v>
       </c>
-      <c r="H57" t="s">
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
         <v>373</v>
       </c>
-      <c r="I57" t="s">
-        <v>373</v>
-      </c>
-      <c r="J57" t="s">
+      <c r="C58" s="4" t="s">
+        <v>1363</v>
+      </c>
+      <c r="D58" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="58" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
+      <c r="E58" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="F58" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="C58" t="s">
+      <c r="G58" t="s">
         <v>376</v>
       </c>
-      <c r="D58" t="s">
+      <c r="H58" t="s">
         <v>377</v>
       </c>
-      <c r="E58" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="F58" s="1" t="s">
+      <c r="I58" t="s">
+        <v>377</v>
+      </c>
+      <c r="J58" t="s">
         <v>378</v>
       </c>
-      <c r="G58" t="s">
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
         <v>379</v>
       </c>
-      <c r="H58" t="s">
+      <c r="C59" t="s">
         <v>380</v>
       </c>
-      <c r="I58" t="s">
-        <v>380</v>
-      </c>
-      <c r="J58" t="s">
+      <c r="D59" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="59" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
+      <c r="E59" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="G59" t="s">
         <v>382</v>
       </c>
-      <c r="C59" t="s">
+      <c r="H59" t="s">
         <v>383</v>
       </c>
-      <c r="D59" t="s">
+      <c r="I59" t="s">
+        <v>383</v>
+      </c>
+      <c r="J59" t="s">
         <v>384</v>
       </c>
-      <c r="E59" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="G59" t="s">
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
         <v>385</v>
       </c>
-      <c r="H59" t="s">
+      <c r="C60" s="4" t="s">
+        <v>1362</v>
+      </c>
+      <c r="D60" t="s">
         <v>386</v>
       </c>
-      <c r="I59" t="s">
-        <v>386</v>
-      </c>
-      <c r="J59" t="s">
+      <c r="E60" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="F60" s="1" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="60" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
+      <c r="G60" t="s">
         <v>388</v>
       </c>
-      <c r="C60" t="s">
+      <c r="H60" t="s">
         <v>389</v>
       </c>
-      <c r="D60" t="s">
+      <c r="I60" t="s">
+        <v>389</v>
+      </c>
+      <c r="J60" t="s">
         <v>390</v>
       </c>
-      <c r="E60" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="F60" s="1" t="s">
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
         <v>391</v>
       </c>
-      <c r="G60" t="s">
+      <c r="C61" t="s">
         <v>392</v>
       </c>
-      <c r="H60" t="s">
+      <c r="D61" t="s">
         <v>393</v>
       </c>
-      <c r="I60" t="s">
-        <v>393</v>
-      </c>
-      <c r="J60" t="s">
+      <c r="E61" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="G61" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="61" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
+      <c r="H61" t="s">
         <v>395</v>
       </c>
-      <c r="C61" t="s">
+      <c r="I61" t="s">
+        <v>395</v>
+      </c>
+      <c r="J61" t="s">
         <v>396</v>
       </c>
-      <c r="D61" t="s">
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
         <v>397</v>
       </c>
-      <c r="E61" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="G61" t="s">
+      <c r="C62" t="s">
         <v>398</v>
       </c>
-      <c r="H61" t="s">
+      <c r="D62" t="s">
         <v>399</v>
       </c>
-      <c r="I61" t="s">
-        <v>399</v>
-      </c>
-      <c r="J61" t="s">
+      <c r="E62" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="F62" s="1" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="62" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
+      <c r="G62" t="s">
         <v>401</v>
       </c>
-      <c r="C62" t="s">
+      <c r="H62" t="s">
         <v>402</v>
       </c>
-      <c r="D62" t="s">
+      <c r="I62" t="s">
+        <v>402</v>
+      </c>
+      <c r="J62" t="s">
         <v>403</v>
       </c>
-      <c r="E62" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="F62" s="1" t="s">
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
         <v>404</v>
       </c>
-      <c r="G62" t="s">
+      <c r="C63" t="s">
         <v>405</v>
       </c>
-      <c r="H62" t="s">
+      <c r="D63" t="s">
         <v>406</v>
       </c>
-      <c r="I62" t="s">
-        <v>406</v>
-      </c>
-      <c r="J62" t="s">
+      <c r="E63" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="G63" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="63" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
+      <c r="H63" t="s">
         <v>408</v>
       </c>
-      <c r="C63" t="s">
+      <c r="I63" t="s">
+        <v>408</v>
+      </c>
+      <c r="J63" t="s">
         <v>409</v>
       </c>
-      <c r="D63" t="s">
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
         <v>410</v>
       </c>
-      <c r="E63" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="G63" t="s">
+      <c r="C64" t="s">
         <v>411</v>
       </c>
-      <c r="H63" t="s">
+      <c r="D64" t="s">
         <v>412</v>
       </c>
-      <c r="I63" t="s">
-        <v>412</v>
-      </c>
-      <c r="J63" t="s">
+      <c r="E64" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="F64" s="1" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="64" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
+      <c r="G64" t="s">
         <v>414</v>
       </c>
-      <c r="C64" t="s">
+      <c r="H64" t="s">
         <v>415</v>
       </c>
-      <c r="D64" t="s">
+      <c r="I64" t="s">
+        <v>415</v>
+      </c>
+      <c r="J64" t="s">
         <v>416</v>
       </c>
-      <c r="E64" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="F64" s="1" t="s">
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
         <v>417</v>
       </c>
-      <c r="G64" t="s">
+      <c r="C65" t="s">
         <v>418</v>
       </c>
-      <c r="H64" t="s">
+      <c r="D65" t="s">
         <v>419</v>
       </c>
-      <c r="I64" t="s">
-        <v>419</v>
-      </c>
-      <c r="J64" t="s">
+      <c r="E65" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="G65" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="65" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
+      <c r="H65" t="s">
         <v>421</v>
       </c>
-      <c r="C65" t="s">
+      <c r="I65" t="s">
+        <v>421</v>
+      </c>
+      <c r="J65" t="s">
         <v>422</v>
       </c>
-      <c r="D65" t="s">
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
         <v>423</v>
       </c>
-      <c r="E65" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="G65" t="s">
+      <c r="C66" t="s">
         <v>424</v>
       </c>
-      <c r="H65" t="s">
+      <c r="D66" t="s">
         <v>425</v>
       </c>
-      <c r="I65" t="s">
-        <v>425</v>
-      </c>
-      <c r="J65" t="s">
+      <c r="E66" s="1" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="66" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
+      <c r="F66" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="C66" t="s">
+      <c r="G66" t="s">
         <v>428</v>
       </c>
-      <c r="D66" t="s">
+      <c r="H66" t="s">
         <v>429</v>
       </c>
-      <c r="E66" s="1" t="s">
+      <c r="I66" t="s">
+        <v>429</v>
+      </c>
+      <c r="J66" t="s">
         <v>430</v>
       </c>
-      <c r="F66" s="1" t="s">
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
         <v>431</v>
       </c>
-      <c r="G66" t="s">
+      <c r="C67" t="s">
         <v>432</v>
       </c>
-      <c r="H66" t="s">
+      <c r="D67" t="s">
         <v>433</v>
       </c>
-      <c r="I66" t="s">
-        <v>433</v>
-      </c>
-      <c r="J66" t="s">
+      <c r="E67" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="G67" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="67" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
+      <c r="H67" t="s">
         <v>435</v>
       </c>
-      <c r="C67" t="s">
+      <c r="I67" t="s">
+        <v>435</v>
+      </c>
+      <c r="J67" t="s">
         <v>436</v>
       </c>
-      <c r="D67" t="s">
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
         <v>437</v>
       </c>
-      <c r="E67" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="G67" t="s">
+      <c r="C68" s="4" t="s">
+        <v>1359</v>
+      </c>
+      <c r="D68" t="s">
         <v>438</v>
       </c>
-      <c r="H67" t="s">
+      <c r="E68" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="F68" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="I67" t="s">
+      <c r="G68" t="s">
+        <v>440</v>
+      </c>
+      <c r="H68" t="s">
+        <v>441</v>
+      </c>
+      <c r="I68" t="s">
+        <v>441</v>
+      </c>
+      <c r="J68" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>443</v>
+      </c>
+      <c r="C69" t="s">
+        <v>444</v>
+      </c>
+      <c r="D69" t="s">
+        <v>445</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="F69" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="J67" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="68" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
-        <v>441</v>
-      </c>
-      <c r="C68" t="s">
-        <v>442</v>
-      </c>
-      <c r="D68" t="s">
-        <v>443</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="G68" t="s">
-        <v>445</v>
-      </c>
-      <c r="H68" t="s">
+      <c r="G69" t="s">
         <v>446</v>
       </c>
-      <c r="I68" t="s">
-        <v>446</v>
-      </c>
-      <c r="J68" t="s">
+      <c r="H69" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="69" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
+      <c r="I69" t="s">
+        <v>447</v>
+      </c>
+      <c r="J69" t="s">
         <v>448</v>
       </c>
-      <c r="C69" t="s">
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
         <v>449</v>
       </c>
-      <c r="D69" t="s">
+      <c r="C70" s="4" t="s">
+        <v>1360</v>
+      </c>
+      <c r="D70" t="s">
         <v>450</v>
       </c>
-      <c r="E69" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="G69" t="s">
+      <c r="E70" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="F70" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="H69" t="s">
+      <c r="G70" t="s">
         <v>452</v>
       </c>
-      <c r="I69" t="s">
-        <v>452</v>
-      </c>
-      <c r="J69" t="s">
+      <c r="H70" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="70" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
+      <c r="I70" t="s">
+        <v>453</v>
+      </c>
+      <c r="J70" t="s">
         <v>454</v>
       </c>
-      <c r="C70" t="s">
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
         <v>455</v>
       </c>
-      <c r="D70" t="s">
+      <c r="C71" t="s">
         <v>456</v>
       </c>
-      <c r="E70" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="F70" s="1" t="s">
+      <c r="D71" t="s">
         <v>457</v>
       </c>
-      <c r="G70" t="s">
+      <c r="E71" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="G71" t="s">
         <v>458</v>
       </c>
-      <c r="H70" t="s">
+      <c r="H71" t="s">
         <v>459</v>
       </c>
-      <c r="I70" t="s">
+      <c r="I71" t="s">
         <v>459</v>
       </c>
-      <c r="J70" t="s">
+      <c r="J71" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="71" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B71" t="s">
+    <row r="72" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
         <v>461</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C72" t="s">
         <v>462</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D72" t="s">
         <v>463</v>
       </c>
-      <c r="E71" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="G71" t="s">
+      <c r="E72" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="F72" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="H71" t="s">
+      <c r="G72" t="s">
         <v>465</v>
       </c>
-      <c r="I71" t="s">
-        <v>465</v>
-      </c>
-      <c r="J71" t="s">
+      <c r="H72" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="72" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B72" t="s">
+      <c r="I72" t="s">
+        <v>466</v>
+      </c>
+      <c r="J72" t="s">
         <v>467</v>
       </c>
-      <c r="C72" t="s">
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
         <v>468</v>
       </c>
-      <c r="D72" t="s">
+      <c r="C73" t="s">
         <v>469</v>
       </c>
-      <c r="E72" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="F72" s="1" t="s">
+      <c r="D73" t="s">
         <v>470</v>
       </c>
-      <c r="G72" t="s">
+      <c r="E73" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="G73" t="s">
         <v>471</v>
       </c>
-      <c r="H72" t="s">
+      <c r="H73" t="s">
         <v>472</v>
       </c>
-      <c r="I72" t="s">
+      <c r="I73" t="s">
         <v>472</v>
       </c>
-      <c r="J72" t="s">
+      <c r="J73" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="73" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B73" t="s">
+    <row r="74" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
         <v>474</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C74" s="4" t="s">
+        <v>1361</v>
+      </c>
+      <c r="D74" t="s">
         <v>475</v>
       </c>
-      <c r="D73" t="s">
+      <c r="E74" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="F74" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="E73" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="G73" t="s">
+      <c r="G74" t="s">
         <v>477</v>
       </c>
-      <c r="H73" t="s">
+      <c r="H74" t="s">
         <v>478</v>
       </c>
-      <c r="I73" t="s">
+      <c r="I74" t="s">
         <v>478</v>
       </c>
-      <c r="J73" t="s">
+      <c r="J74" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="74" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B74" t="s">
+    <row r="75" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
         <v>480</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C75" t="s">
         <v>481</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D75" t="s">
         <v>482</v>
       </c>
-      <c r="E74" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="F74" s="1" t="s">
+      <c r="E75" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="G75" t="s">
         <v>483</v>
       </c>
-      <c r="G74" t="s">
+      <c r="H75" t="s">
         <v>484</v>
       </c>
-      <c r="H74" t="s">
+      <c r="I75" t="s">
+        <v>484</v>
+      </c>
+      <c r="J75" t="s">
         <v>485</v>
       </c>
-      <c r="I74" t="s">
-        <v>485</v>
-      </c>
-      <c r="J74" t="s">
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="75" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B75" t="s">
+      <c r="C76" t="s">
         <v>487</v>
       </c>
-      <c r="C75" t="s">
+      <c r="D76" t="s">
         <v>488</v>
       </c>
-      <c r="D75" t="s">
+      <c r="E76" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="F76" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="E75" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="G75" t="s">
+      <c r="G76" t="s">
         <v>490</v>
       </c>
-      <c r="H75" t="s">
+      <c r="H76" t="s">
         <v>491</v>
       </c>
-      <c r="I75" t="s">
+      <c r="I76" t="s">
         <v>491</v>
       </c>
-      <c r="J75" t="s">
+      <c r="J76" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="76" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B76" t="s">
+    <row r="77" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
         <v>493</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C77" t="s">
         <v>494</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D77" t="s">
         <v>495</v>
       </c>
-      <c r="E76" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="F76" s="1" t="s">
+      <c r="E77" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="G77" t="s">
         <v>496</v>
       </c>
-      <c r="G76" t="s">
+      <c r="H77" t="s">
         <v>497</v>
       </c>
-      <c r="H76" t="s">
+      <c r="I77" t="s">
+        <v>497</v>
+      </c>
+      <c r="J77" t="s">
         <v>498</v>
       </c>
-      <c r="I76" t="s">
-        <v>498</v>
-      </c>
-      <c r="J76" t="s">
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="77" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B77" t="s">
+      <c r="C78" t="s">
         <v>500</v>
       </c>
-      <c r="C77" t="s">
+      <c r="D78" t="s">
         <v>501</v>
       </c>
-      <c r="D77" t="s">
+      <c r="E78" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="F78" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="E77" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="G77" t="s">
+      <c r="G78" t="s">
         <v>503</v>
       </c>
-      <c r="H77" t="s">
+      <c r="H78" t="s">
         <v>504</v>
       </c>
-      <c r="I77" t="s">
+      <c r="I78" t="s">
         <v>504</v>
       </c>
-      <c r="J77" t="s">
+      <c r="J78" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="78" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B78" t="s">
+    <row r="79" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
         <v>506</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C79" t="s">
         <v>507</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D79" t="s">
         <v>508</v>
       </c>
-      <c r="E78" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="F78" s="1" t="s">
+      <c r="E79" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="G79" t="s">
         <v>509</v>
       </c>
-      <c r="G78" t="s">
+      <c r="H79" t="s">
         <v>510</v>
       </c>
-      <c r="H78" t="s">
+      <c r="I79" t="s">
+        <v>510</v>
+      </c>
+      <c r="J79" t="s">
         <v>511</v>
       </c>
-      <c r="I78" t="s">
-        <v>511</v>
-      </c>
-      <c r="J78" t="s">
+    </row>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="79" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B79" t="s">
+      <c r="C80" t="s">
         <v>513</v>
       </c>
-      <c r="C79" t="s">
+      <c r="D80" t="s">
         <v>514</v>
       </c>
-      <c r="D79" t="s">
+      <c r="E80" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="F80" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="E79" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="G79" t="s">
+      <c r="G80" t="s">
         <v>516</v>
       </c>
-      <c r="H79" t="s">
+      <c r="H80" t="s">
         <v>517</v>
       </c>
-      <c r="I79" t="s">
+      <c r="I80" t="s">
         <v>517</v>
       </c>
-      <c r="J79" t="s">
+      <c r="J80" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="80" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B80" t="s">
+    <row r="81" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
         <v>519</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C81" t="s">
         <v>520</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D81" t="s">
         <v>521</v>
       </c>
-      <c r="E80" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="F80" s="1" t="s">
+      <c r="E81" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="G81" t="s">
         <v>522</v>
       </c>
-      <c r="G80" t="s">
+      <c r="H81" t="s">
         <v>523</v>
       </c>
-      <c r="H80" t="s">
+      <c r="I81" t="s">
+        <v>523</v>
+      </c>
+      <c r="J81" t="s">
         <v>524</v>
       </c>
-      <c r="I80" t="s">
-        <v>524</v>
-      </c>
-      <c r="J80" t="s">
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="81" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B81" t="s">
+      <c r="C82" t="s">
         <v>526</v>
       </c>
-      <c r="C81" t="s">
+      <c r="D82" t="s">
         <v>527</v>
       </c>
-      <c r="D81" t="s">
+      <c r="E82" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="E81" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="G81" t="s">
+      <c r="F82" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="H81" t="s">
+      <c r="G82" t="s">
         <v>530</v>
       </c>
-      <c r="I81" t="s">
-        <v>530</v>
-      </c>
-      <c r="J81" t="s">
+      <c r="H82" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="82" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B82" t="s">
+      <c r="I82" t="s">
+        <v>531</v>
+      </c>
+      <c r="J82" t="s">
         <v>532</v>
       </c>
-      <c r="C82" t="s">
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
         <v>533</v>
       </c>
-      <c r="D82" t="s">
+      <c r="C83" t="s">
         <v>534</v>
       </c>
-      <c r="E82" s="1" t="s">
+      <c r="D83" t="s">
         <v>535</v>
       </c>
-      <c r="F82" s="1" t="s">
+      <c r="E83" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="G83" t="s">
         <v>536</v>
       </c>
-      <c r="G82" t="s">
+      <c r="H83" t="s">
         <v>537</v>
       </c>
-      <c r="H82" t="s">
+      <c r="I83" t="s">
+        <v>537</v>
+      </c>
+      <c r="J83" t="s">
         <v>538</v>
       </c>
-      <c r="I82" t="s">
-        <v>538</v>
-      </c>
-      <c r="J82" t="s">
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="83" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B83" t="s">
+      <c r="C84" t="s">
         <v>540</v>
       </c>
-      <c r="C83" t="s">
+      <c r="D84" t="s">
         <v>541</v>
       </c>
-      <c r="D83" t="s">
+      <c r="E84" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="F84" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="E83" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="G83" t="s">
+      <c r="G84" t="s">
         <v>543</v>
       </c>
-      <c r="H83" t="s">
+      <c r="H84" t="s">
         <v>544</v>
       </c>
-      <c r="I83" t="s">
+      <c r="I84" t="s">
         <v>544</v>
       </c>
-      <c r="J83" t="s">
+      <c r="J84" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="84" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B84" t="s">
+    <row r="85" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
         <v>546</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C85" t="s">
         <v>547</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D85" t="s">
         <v>548</v>
       </c>
-      <c r="E84" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="F84" s="1" t="s">
+      <c r="E85" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="G85" t="s">
         <v>549</v>
       </c>
-      <c r="G84" t="s">
+      <c r="H85" t="s">
         <v>550</v>
       </c>
-      <c r="H84" t="s">
+      <c r="I85" t="s">
+        <v>550</v>
+      </c>
+      <c r="J85" t="s">
         <v>551</v>
       </c>
-      <c r="I84" t="s">
-        <v>551</v>
-      </c>
-      <c r="J84" t="s">
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="85" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B85" t="s">
+      <c r="C86" t="s">
         <v>553</v>
       </c>
-      <c r="C85" t="s">
+      <c r="D86" t="s">
         <v>554</v>
       </c>
-      <c r="D85" t="s">
+      <c r="E86" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="F86" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="E85" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="G85" t="s">
+      <c r="G86" t="s">
         <v>556</v>
       </c>
-      <c r="H85" t="s">
+      <c r="H86" t="s">
         <v>557</v>
       </c>
-      <c r="I85" t="s">
+      <c r="I86" t="s">
         <v>557</v>
       </c>
-      <c r="J85" t="s">
+      <c r="J86" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="86" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B86" t="s">
+    <row r="87" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
         <v>559</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C87" t="s">
         <v>560</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D87" t="s">
         <v>561</v>
       </c>
-      <c r="E86" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="F86" s="1" t="s">
+      <c r="E87" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="G87" t="s">
         <v>562</v>
       </c>
-      <c r="G86" t="s">
+      <c r="H87" t="s">
         <v>563</v>
       </c>
-      <c r="H86" t="s">
+      <c r="I87" t="s">
+        <v>563</v>
+      </c>
+      <c r="J87" t="s">
         <v>564</v>
       </c>
-      <c r="I86" t="s">
-        <v>564</v>
-      </c>
-      <c r="J86" t="s">
+    </row>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="87" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B87" t="s">
+      <c r="C88" t="s">
         <v>566</v>
       </c>
-      <c r="C87" t="s">
+      <c r="D88" t="s">
         <v>567</v>
       </c>
-      <c r="D87" t="s">
+      <c r="E88" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="F88" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="E87" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="G87" t="s">
+      <c r="G88" t="s">
         <v>569</v>
       </c>
-      <c r="H87" t="s">
+      <c r="H88" t="s">
         <v>570</v>
       </c>
-      <c r="I87" t="s">
+      <c r="I88" t="s">
         <v>570</v>
       </c>
-      <c r="J87" t="s">
+      <c r="J88" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="88" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B88" t="s">
+    <row r="89" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
         <v>572</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C89" t="s">
         <v>573</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D89" t="s">
         <v>574</v>
       </c>
-      <c r="E88" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="F88" s="1" t="s">
+      <c r="E89" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="G89" t="s">
         <v>575</v>
       </c>
-      <c r="G88" t="s">
+      <c r="H89" t="s">
         <v>576</v>
       </c>
-      <c r="H88" t="s">
+      <c r="I89" t="s">
+        <v>576</v>
+      </c>
+      <c r="J89" t="s">
         <v>577</v>
       </c>
-      <c r="I88" t="s">
-        <v>577</v>
-      </c>
-      <c r="J88" t="s">
+    </row>
+    <row r="90" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="89" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B89" t="s">
+      <c r="C90" t="s">
         <v>579</v>
       </c>
-      <c r="C89" t="s">
+      <c r="D90" t="s">
         <v>580</v>
       </c>
-      <c r="D89" t="s">
+      <c r="E90" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="F90" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="E89" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="G89" t="s">
+      <c r="G90" t="s">
         <v>582</v>
       </c>
-      <c r="H89" t="s">
+      <c r="H90" t="s">
         <v>583</v>
       </c>
-      <c r="I89" t="s">
+      <c r="I90" t="s">
         <v>583</v>
       </c>
-      <c r="J89" t="s">
+      <c r="J90" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="90" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B90" t="s">
+    <row r="91" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
         <v>585</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C91" t="s">
         <v>586</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D91" t="s">
         <v>587</v>
       </c>
-      <c r="E90" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="F90" s="1" t="s">
+      <c r="E91" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="G91" t="s">
         <v>588</v>
       </c>
-      <c r="G90" t="s">
+      <c r="H91" t="s">
         <v>589</v>
       </c>
-      <c r="H90" t="s">
+      <c r="I91" t="s">
+        <v>589</v>
+      </c>
+      <c r="J91" t="s">
         <v>590</v>
       </c>
-      <c r="I90" t="s">
-        <v>590</v>
-      </c>
-      <c r="J90" t="s">
+    </row>
+    <row r="92" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="91" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B91" t="s">
+      <c r="C92" t="s">
         <v>592</v>
       </c>
-      <c r="C91" t="s">
+      <c r="D92" t="s">
         <v>593</v>
       </c>
-      <c r="D91" t="s">
+      <c r="E92" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="F92" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="E91" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="G91" t="s">
+      <c r="G92" t="s">
         <v>595</v>
       </c>
-      <c r="H91" t="s">
+      <c r="H92" t="s">
         <v>596</v>
       </c>
-      <c r="I91" t="s">
+      <c r="I92" t="s">
         <v>596</v>
       </c>
-      <c r="J91" t="s">
+      <c r="J92" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="92" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B92" t="s">
+    <row r="93" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
         <v>598</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C93" t="s">
         <v>599</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D93" t="s">
         <v>600</v>
       </c>
-      <c r="E92" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="F92" s="1" t="s">
+      <c r="E93" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="G93" t="s">
         <v>601</v>
       </c>
-      <c r="G92" t="s">
+      <c r="H93" t="s">
         <v>602</v>
       </c>
-      <c r="H92" t="s">
+      <c r="I93" t="s">
+        <v>602</v>
+      </c>
+      <c r="J93" t="s">
         <v>603</v>
       </c>
-      <c r="I92" t="s">
-        <v>603</v>
-      </c>
-      <c r="J92" t="s">
+    </row>
+    <row r="94" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="93" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B93" t="s">
+      <c r="C94" t="s">
         <v>605</v>
       </c>
-      <c r="C93" t="s">
+      <c r="D94" t="s">
         <v>606</v>
       </c>
-      <c r="D93" t="s">
+      <c r="E94" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="F94" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="E93" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="G93" t="s">
+      <c r="G94" t="s">
         <v>608</v>
       </c>
-      <c r="H93" t="s">
+      <c r="H94" t="s">
         <v>609</v>
       </c>
-      <c r="I93" t="s">
+      <c r="I94" t="s">
         <v>609</v>
       </c>
-      <c r="J93" t="s">
+      <c r="J94" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="94" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B94" t="s">
+    <row r="95" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
         <v>611</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C95" t="s">
         <v>612</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D95" t="s">
         <v>613</v>
       </c>
-      <c r="E94" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="F94" s="1" t="s">
+      <c r="E95" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="G95" t="s">
         <v>614</v>
       </c>
-      <c r="G94" t="s">
+      <c r="H95" t="s">
         <v>615</v>
       </c>
-      <c r="H94" t="s">
+      <c r="I95" t="s">
+        <v>615</v>
+      </c>
+      <c r="J95" t="s">
         <v>616</v>
       </c>
-      <c r="I94" t="s">
-        <v>616</v>
-      </c>
-      <c r="J94" t="s">
+    </row>
+    <row r="96" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="95" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B95" t="s">
+      <c r="C96" t="s">
         <v>618</v>
       </c>
-      <c r="C95" t="s">
+      <c r="D96" t="s">
         <v>619</v>
       </c>
-      <c r="D95" t="s">
+      <c r="E96" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="F96" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="E95" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="G95" t="s">
+      <c r="G96" t="s">
         <v>621</v>
       </c>
-      <c r="H95" t="s">
+      <c r="H96" t="s">
         <v>622</v>
       </c>
-      <c r="I95" t="s">
+      <c r="I96" t="s">
         <v>622</v>
       </c>
-      <c r="J95" t="s">
+      <c r="J96" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="96" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B96" t="s">
+    <row r="97" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
         <v>624</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C97" t="s">
         <v>625</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D97" t="s">
         <v>626</v>
       </c>
-      <c r="E96" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="F96" s="1" t="s">
+      <c r="E97" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="G97" t="s">
         <v>627</v>
       </c>
-      <c r="G96" t="s">
+      <c r="H97" t="s">
         <v>628</v>
       </c>
-      <c r="H96" t="s">
+      <c r="I97" t="s">
+        <v>628</v>
+      </c>
+      <c r="J97" t="s">
         <v>629</v>
       </c>
-      <c r="I96" t="s">
-        <v>629</v>
-      </c>
-      <c r="J96" t="s">
+    </row>
+    <row r="98" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
         <v>630</v>
       </c>
-    </row>
-    <row r="97" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B97" t="s">
+      <c r="C98" t="s">
         <v>631</v>
       </c>
-      <c r="C97" t="s">
+      <c r="D98" t="s">
         <v>632</v>
       </c>
-      <c r="D97" t="s">
+      <c r="E98" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="E97" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="G97" t="s">
+      <c r="F98" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="H97" t="s">
+      <c r="G98" t="s">
         <v>635</v>
       </c>
-      <c r="I97" t="s">
-        <v>635</v>
-      </c>
-      <c r="J97" t="s">
+      <c r="H98" t="s">
         <v>636</v>
       </c>
-    </row>
-    <row r="98" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B98" t="s">
+      <c r="I98" t="s">
+        <v>636</v>
+      </c>
+      <c r="J98" t="s">
         <v>637</v>
       </c>
-      <c r="C98" t="s">
+    </row>
+    <row r="99" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
         <v>638</v>
       </c>
-      <c r="D98" t="s">
+      <c r="C99" t="s">
         <v>639</v>
       </c>
-      <c r="E98" s="1" t="s">
+      <c r="D99" t="s">
         <v>640</v>
       </c>
-      <c r="F98" s="1" t="s">
+      <c r="E99" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="G99" t="s">
         <v>641</v>
       </c>
-      <c r="G98" t="s">
+      <c r="H99" t="s">
         <v>642</v>
       </c>
-      <c r="H98" t="s">
+      <c r="I99" t="s">
+        <v>642</v>
+      </c>
+      <c r="J99" t="s">
         <v>643</v>
       </c>
-      <c r="I98" t="s">
-        <v>643</v>
-      </c>
-      <c r="J98" t="s">
+    </row>
+    <row r="100" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="99" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B99" t="s">
+      <c r="C100" t="s">
         <v>645</v>
       </c>
-      <c r="C99" t="s">
+      <c r="D100" t="s">
         <v>646</v>
       </c>
-      <c r="D99" t="s">
+      <c r="E100" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="F100" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="E99" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="G99" t="s">
+      <c r="G100" t="s">
         <v>648</v>
       </c>
-      <c r="H99" t="s">
+      <c r="H100" t="s">
         <v>649</v>
       </c>
-      <c r="I99" t="s">
+      <c r="I100" t="s">
         <v>649</v>
       </c>
-      <c r="J99" t="s">
+      <c r="J100" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="100" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B100" t="s">
+    <row r="101" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
         <v>651</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C101" t="s">
         <v>652</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D101" t="s">
         <v>653</v>
       </c>
-      <c r="E100" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="F100" s="1" t="s">
+      <c r="E101" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="G101" t="s">
         <v>654</v>
       </c>
-      <c r="G100" t="s">
+      <c r="H101" t="s">
         <v>655</v>
       </c>
-      <c r="H100" t="s">
+      <c r="I101" t="s">
+        <v>655</v>
+      </c>
+      <c r="J101" t="s">
         <v>656</v>
       </c>
-      <c r="I100" t="s">
-        <v>656</v>
-      </c>
-      <c r="J100" t="s">
+    </row>
+    <row r="102" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="101" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B101" t="s">
+      <c r="C102" t="s">
         <v>658</v>
       </c>
-      <c r="C101" t="s">
+      <c r="D102" t="s">
         <v>659</v>
       </c>
-      <c r="D101" t="s">
+      <c r="E102" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="F102" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="E101" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="G101" t="s">
+      <c r="G102" t="s">
         <v>661</v>
       </c>
-      <c r="H101" t="s">
+      <c r="H102" t="s">
         <v>662</v>
       </c>
-      <c r="I101" t="s">
+      <c r="I102" t="s">
         <v>662</v>
       </c>
-      <c r="J101" t="s">
+      <c r="J102" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="102" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B102" t="s">
+    <row r="103" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
         <v>664</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C103" t="s">
         <v>665</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D103" t="s">
         <v>666</v>
       </c>
-      <c r="E102" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="F102" s="1" t="s">
+      <c r="E103" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="G103" t="s">
         <v>667</v>
       </c>
-      <c r="G102" t="s">
+      <c r="H103" t="s">
         <v>668</v>
       </c>
-      <c r="H102" t="s">
+      <c r="I103" t="s">
+        <v>668</v>
+      </c>
+      <c r="J103" t="s">
         <v>669</v>
       </c>
-      <c r="I102" t="s">
-        <v>669</v>
-      </c>
-      <c r="J102" t="s">
+    </row>
+    <row r="104" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="103" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B103" t="s">
+      <c r="C104" t="s">
         <v>671</v>
       </c>
-      <c r="C103" t="s">
+      <c r="D104" t="s">
         <v>672</v>
       </c>
-      <c r="D103" t="s">
+      <c r="E104" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="F104" s="1" t="s">
         <v>673</v>
       </c>
-      <c r="E103" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>667</v>
-      </c>
-      <c r="G103" t="s">
+      <c r="G104" t="s">
         <v>674</v>
       </c>
-      <c r="H103" t="s">
+      <c r="H104" t="s">
         <v>675</v>
       </c>
-      <c r="I103" t="s">
+      <c r="I104" t="s">
         <v>675</v>
       </c>
-      <c r="J103" t="s">
+      <c r="J104" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="104" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B104" t="s">
+    <row r="105" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
         <v>677</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C105" t="s">
         <v>678</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D105" t="s">
         <v>679</v>
       </c>
-      <c r="E104" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="F104" s="1" t="s">
+      <c r="E105" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="G105" t="s">
         <v>680</v>
       </c>
-      <c r="G104" t="s">
+      <c r="H105" t="s">
         <v>681</v>
       </c>
-      <c r="H104" t="s">
+      <c r="I105" t="s">
+        <v>681</v>
+      </c>
+      <c r="J105" t="s">
         <v>682</v>
       </c>
-      <c r="I104" t="s">
-        <v>682</v>
-      </c>
-      <c r="J104" t="s">
+    </row>
+    <row r="106" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B106" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="105" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B105" t="s">
+      <c r="C106" t="s">
         <v>684</v>
       </c>
-      <c r="C105" t="s">
+      <c r="D106" t="s">
         <v>685</v>
       </c>
-      <c r="D105" t="s">
+      <c r="E106" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="F106" s="1" t="s">
         <v>686</v>
       </c>
-      <c r="E105" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>680</v>
-      </c>
-      <c r="G105" t="s">
+      <c r="G106" t="s">
         <v>687</v>
       </c>
-      <c r="H105" t="s">
+      <c r="H106" t="s">
         <v>688</v>
       </c>
-      <c r="I105" t="s">
+      <c r="I106" t="s">
         <v>688</v>
       </c>
-      <c r="J105" t="s">
+      <c r="J106" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="106" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B106" t="s">
+    <row r="107" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B107" t="s">
         <v>690</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C107" t="s">
         <v>691</v>
       </c>
-      <c r="D106" t="s">
+      <c r="D107" t="s">
         <v>692</v>
       </c>
-      <c r="E106" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="F106" s="1" t="s">
+      <c r="E107" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="G107" t="s">
         <v>693</v>
       </c>
-      <c r="G106" t="s">
+      <c r="H107" t="s">
         <v>694</v>
       </c>
-      <c r="H106" t="s">
+      <c r="I107" t="s">
+        <v>694</v>
+      </c>
+      <c r="J107" t="s">
         <v>695</v>
       </c>
-      <c r="I106" t="s">
-        <v>695</v>
-      </c>
-      <c r="J106" t="s">
+    </row>
+    <row r="108" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
         <v>696</v>
       </c>
-    </row>
-    <row r="107" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B107" t="s">
+      <c r="C108" t="s">
         <v>697</v>
       </c>
-      <c r="C107" t="s">
+      <c r="D108" t="s">
         <v>698</v>
       </c>
-      <c r="D107" t="s">
+      <c r="E108" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="F108" s="1" t="s">
         <v>699</v>
       </c>
-      <c r="E107" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="F107" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="G107" t="s">
+      <c r="G108" t="s">
         <v>700</v>
       </c>
-      <c r="H107" t="s">
+      <c r="H108" t="s">
         <v>701</v>
       </c>
-      <c r="I107" t="s">
+      <c r="I108" t="s">
         <v>701</v>
       </c>
-      <c r="J107" t="s">
+      <c r="J108" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="108" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B108" t="s">
+    <row r="109" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
         <v>703</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C109" t="s">
         <v>704</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D109" t="s">
         <v>705</v>
       </c>
-      <c r="E108" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="F108" s="1" t="s">
+      <c r="E109" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="G109" t="s">
         <v>706</v>
       </c>
-      <c r="G108" t="s">
+      <c r="H109" t="s">
         <v>707</v>
       </c>
-      <c r="H108" t="s">
+      <c r="I109" t="s">
+        <v>707</v>
+      </c>
+      <c r="J109" t="s">
         <v>708</v>
       </c>
-      <c r="I108" t="s">
-        <v>708</v>
-      </c>
-      <c r="J108" t="s">
+    </row>
+    <row r="110" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B110" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="109" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B109" t="s">
+      <c r="C110" t="s">
         <v>710</v>
       </c>
-      <c r="C109" t="s">
+      <c r="D110" t="s">
         <v>711</v>
       </c>
-      <c r="D109" t="s">
+      <c r="E110" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="F110" s="1" t="s">
         <v>712</v>
       </c>
-      <c r="E109" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="F109" s="1" t="s">
-        <v>706</v>
-      </c>
-      <c r="G109" t="s">
+      <c r="G110" t="s">
         <v>713</v>
       </c>
-      <c r="H109" t="s">
+      <c r="H110" t="s">
         <v>714</v>
       </c>
-      <c r="I109" t="s">
+      <c r="I110" t="s">
         <v>714</v>
       </c>
-      <c r="J109" t="s">
+      <c r="J110" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="110" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B110" t="s">
+    <row r="111" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B111" t="s">
         <v>716</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C111" t="s">
         <v>717</v>
       </c>
-      <c r="D110" t="s">
+      <c r="D111" t="s">
         <v>718</v>
       </c>
-      <c r="E110" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="F110" s="1" t="s">
+      <c r="E111" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="G111" t="s">
         <v>719</v>
       </c>
-      <c r="G110" t="s">
+      <c r="H111" t="s">
         <v>720</v>
       </c>
-      <c r="H110" t="s">
+      <c r="I111" t="s">
+        <v>720</v>
+      </c>
+      <c r="J111" t="s">
         <v>721</v>
       </c>
-      <c r="I110" t="s">
-        <v>721</v>
-      </c>
-      <c r="J110" t="s">
+    </row>
+    <row r="112" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B112" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="111" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B111" t="s">
+      <c r="C112" s="4" t="s">
+        <v>1365</v>
+      </c>
+      <c r="D112" t="s">
         <v>723</v>
       </c>
-      <c r="C111" t="s">
+      <c r="E112" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="F112" s="1" t="s">
         <v>724</v>
       </c>
-      <c r="D111" t="s">
+      <c r="G112" t="s">
         <v>725</v>
       </c>
-      <c r="E111" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="F111" s="1" t="s">
-        <v>719</v>
-      </c>
-      <c r="G111" t="s">
+      <c r="H112" t="s">
         <v>726</v>
       </c>
-      <c r="H111" t="s">
+      <c r="I112" t="s">
+        <v>726</v>
+      </c>
+      <c r="J112" t="s">
         <v>727</v>
       </c>
-      <c r="I111" t="s">
-        <v>727</v>
-      </c>
-      <c r="J111" t="s">
+    </row>
+    <row r="113" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B113" t="s">
         <v>728</v>
       </c>
-    </row>
-    <row r="112" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B112" t="s">
+      <c r="C113" t="s">
         <v>729</v>
       </c>
-      <c r="C112" t="s">
+      <c r="D113" t="s">
         <v>730</v>
       </c>
-      <c r="D112" t="s">
+      <c r="E113" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="G113" t="s">
         <v>731</v>
       </c>
-      <c r="E112" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="F112" s="1" t="s">
+      <c r="H113" t="s">
         <v>732</v>
       </c>
-      <c r="G112" t="s">
+      <c r="I113" t="s">
+        <v>732</v>
+      </c>
+      <c r="J113" t="s">
         <v>733</v>
       </c>
-      <c r="H112" t="s">
+    </row>
+    <row r="114" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B114" t="s">
         <v>734</v>
       </c>
-      <c r="I112" t="s">
-        <v>734</v>
-      </c>
-      <c r="J112" t="s">
+      <c r="C114" t="s">
         <v>735</v>
       </c>
-    </row>
-    <row r="113" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B113" t="s">
+      <c r="D114" t="s">
         <v>736</v>
       </c>
-      <c r="C113" t="s">
+      <c r="E114" s="1" t="s">
         <v>737</v>
       </c>
-      <c r="D113" t="s">
+      <c r="F114" s="1" t="s">
         <v>738</v>
       </c>
-      <c r="E113" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="F113" s="1" t="s">
-        <v>732</v>
-      </c>
-      <c r="G113" t="s">
+      <c r="G114" t="s">
         <v>739</v>
       </c>
-      <c r="H113" t="s">
+      <c r="H114" t="s">
         <v>740</v>
       </c>
-      <c r="I113" t="s">
+      <c r="I114" t="s">
         <v>740</v>
       </c>
-      <c r="J113" t="s">
+      <c r="J114" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="114" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B114" t="s">
+    <row r="115" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B115" t="s">
         <v>742</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C115" s="4" t="s">
+        <v>1366</v>
+      </c>
+      <c r="D115" t="s">
         <v>743</v>
       </c>
-      <c r="D114" t="s">
+      <c r="E115" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="G115" t="s">
         <v>744</v>
       </c>
-      <c r="E114" s="1" t="s">
+      <c r="H115" t="s">
         <v>745</v>
       </c>
-      <c r="F114" s="1" t="s">
+      <c r="I115" t="s">
+        <v>745</v>
+      </c>
+      <c r="J115" t="s">
         <v>746</v>
       </c>
-      <c r="G114" t="s">
+    </row>
+    <row r="116" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B116" t="s">
         <v>747</v>
       </c>
-      <c r="H114" t="s">
+      <c r="C116" s="4" t="s">
+        <v>1367</v>
+      </c>
+      <c r="D116" t="s">
         <v>748</v>
       </c>
-      <c r="I114" t="s">
-        <v>748</v>
-      </c>
-      <c r="J114" t="s">
+      <c r="E116" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="F116" s="1" t="s">
         <v>749</v>
       </c>
-    </row>
-    <row r="115" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B115" t="s">
+      <c r="G116" t="s">
         <v>750</v>
       </c>
-      <c r="C115" t="s">
+      <c r="H116" t="s">
         <v>751</v>
       </c>
-      <c r="D115" t="s">
+      <c r="I116" t="s">
+        <v>751</v>
+      </c>
+      <c r="J116" t="s">
         <v>752</v>
       </c>
-      <c r="E115" s="1" t="s">
-        <v>745</v>
-      </c>
-      <c r="F115" s="1" t="s">
-        <v>746</v>
-      </c>
-      <c r="G115" t="s">
+    </row>
+    <row r="117" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B117" t="s">
         <v>753</v>
       </c>
-      <c r="H115" t="s">
+      <c r="C117" t="s">
         <v>754</v>
       </c>
-      <c r="I115" t="s">
-        <v>754</v>
-      </c>
-      <c r="J115" t="s">
+      <c r="D117" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="116" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B116" t="s">
+      <c r="E117" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="G117" t="s">
         <v>756</v>
       </c>
-      <c r="C116" t="s">
+      <c r="H117" t="s">
         <v>757</v>
       </c>
-      <c r="D116" t="s">
+      <c r="I117" t="s">
+        <v>757</v>
+      </c>
+      <c r="J117" t="s">
         <v>758</v>
       </c>
-      <c r="E116" s="1" t="s">
-        <v>745</v>
-      </c>
-      <c r="F116" s="1" t="s">
+    </row>
+    <row r="118" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B118" t="s">
         <v>759</v>
       </c>
-      <c r="G116" t="s">
+      <c r="C118" t="s">
         <v>760</v>
       </c>
-      <c r="H116" t="s">
+      <c r="D118" t="s">
         <v>761</v>
       </c>
-      <c r="I116" t="s">
-        <v>761</v>
-      </c>
-      <c r="J116" t="s">
+      <c r="E118" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="F118" s="1" t="s">
         <v>762</v>
       </c>
-    </row>
-    <row r="117" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B117" t="s">
+      <c r="G118" t="s">
         <v>763</v>
       </c>
-      <c r="C117" t="s">
+      <c r="H118" t="s">
         <v>764</v>
       </c>
-      <c r="D117" t="s">
+      <c r="I118" t="s">
+        <v>764</v>
+      </c>
+      <c r="J118" t="s">
         <v>765</v>
       </c>
-      <c r="E117" s="1" t="s">
-        <v>745</v>
-      </c>
-      <c r="F117" s="1" t="s">
-        <v>759</v>
-      </c>
-      <c r="G117" t="s">
+    </row>
+    <row r="119" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B119" t="s">
         <v>766</v>
       </c>
-      <c r="H117" t="s">
+      <c r="C119" s="4" t="s">
+        <v>1368</v>
+      </c>
+      <c r="D119" t="s">
         <v>767</v>
       </c>
-      <c r="I117" t="s">
-        <v>767</v>
-      </c>
-      <c r="J117" t="s">
+      <c r="E119" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G119" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="118" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B118" t="s">
+      <c r="H119" t="s">
         <v>769</v>
       </c>
-      <c r="C118" t="s">
+      <c r="I119" t="s">
+        <v>769</v>
+      </c>
+      <c r="J119" t="s">
         <v>770</v>
       </c>
-      <c r="D118" t="s">
+    </row>
+    <row r="120" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B120" t="s">
         <v>771</v>
       </c>
-      <c r="E118" s="1" t="s">
-        <v>745</v>
-      </c>
-      <c r="F118" s="1" t="s">
+      <c r="C120" t="s">
         <v>772</v>
       </c>
-      <c r="G118" t="s">
+      <c r="D120" t="s">
         <v>773</v>
       </c>
-      <c r="H118" t="s">
+      <c r="E120" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="F120" s="1" t="s">
         <v>774</v>
       </c>
-      <c r="I118" t="s">
+      <c r="G120" t="s">
+        <v>775</v>
+      </c>
+      <c r="H120" t="s">
+        <v>776</v>
+      </c>
+      <c r="I120" t="s">
+        <v>776</v>
+      </c>
+      <c r="J120" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="121" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B121" t="s">
+        <v>778</v>
+      </c>
+      <c r="C121" t="s">
+        <v>779</v>
+      </c>
+      <c r="D121" t="s">
+        <v>780</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="F121" s="1" t="s">
         <v>774</v>
       </c>
-      <c r="J118" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="119" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B119" t="s">
-        <v>776</v>
-      </c>
-      <c r="C119" t="s">
-        <v>777</v>
-      </c>
-      <c r="D119" t="s">
-        <v>778</v>
-      </c>
-      <c r="E119" s="1" t="s">
-        <v>745</v>
-      </c>
-      <c r="F119" s="1" t="s">
-        <v>772</v>
-      </c>
-      <c r="G119" t="s">
-        <v>779</v>
-      </c>
-      <c r="H119" t="s">
-        <v>780</v>
-      </c>
-      <c r="I119" t="s">
-        <v>780</v>
-      </c>
-      <c r="J119" t="s">
+      <c r="G121" t="s">
         <v>781</v>
       </c>
-    </row>
-    <row r="120" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B120" t="s">
+      <c r="H121" t="s">
         <v>782</v>
       </c>
-      <c r="C120" t="s">
+      <c r="I121" t="s">
+        <v>782</v>
+      </c>
+      <c r="J121" t="s">
         <v>783</v>
       </c>
-      <c r="D120" t="s">
+    </row>
+    <row r="122" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B122" t="s">
         <v>784</v>
       </c>
-      <c r="E120" s="1" t="s">
-        <v>745</v>
-      </c>
-      <c r="F120" s="1" t="s">
+      <c r="C122" t="s">
         <v>785</v>
       </c>
-      <c r="G120" t="s">
+      <c r="D122" t="s">
         <v>786</v>
       </c>
-      <c r="H120" t="s">
+      <c r="E122" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="F122" s="1" t="s">
         <v>787</v>
       </c>
-      <c r="I120" t="s">
+      <c r="G122" t="s">
+        <v>788</v>
+      </c>
+      <c r="H122" t="s">
+        <v>789</v>
+      </c>
+      <c r="I122" t="s">
+        <v>789</v>
+      </c>
+      <c r="J122" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="123" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B123" t="s">
+        <v>791</v>
+      </c>
+      <c r="C123" t="s">
+        <v>792</v>
+      </c>
+      <c r="D123" t="s">
+        <v>793</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="F123" s="1" t="s">
         <v>787</v>
       </c>
-      <c r="J120" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="121" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B121" t="s">
-        <v>789</v>
-      </c>
-      <c r="C121" t="s">
-        <v>790</v>
-      </c>
-      <c r="D121" t="s">
-        <v>791</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>745</v>
-      </c>
-      <c r="F121" s="1" t="s">
-        <v>785</v>
-      </c>
-      <c r="G121" t="s">
-        <v>792</v>
-      </c>
-      <c r="H121" t="s">
-        <v>793</v>
-      </c>
-      <c r="I121" t="s">
-        <v>793</v>
-      </c>
-      <c r="J121" t="s">
+      <c r="G123" t="s">
         <v>794</v>
       </c>
-    </row>
-    <row r="122" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B122" t="s">
+      <c r="H123" t="s">
         <v>795</v>
       </c>
-      <c r="C122" t="s">
+      <c r="I123" t="s">
+        <v>795</v>
+      </c>
+      <c r="J123" t="s">
         <v>796</v>
       </c>
-      <c r="D122" t="s">
+    </row>
+    <row r="124" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B124" t="s">
         <v>797</v>
       </c>
-      <c r="E122" s="1" t="s">
-        <v>745</v>
-      </c>
-      <c r="F122" s="1" t="s">
+      <c r="C124" t="s">
         <v>798</v>
       </c>
-      <c r="G122" t="s">
+      <c r="D124" t="s">
         <v>799</v>
       </c>
-      <c r="H122" t="s">
+      <c r="E124" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="F124" s="1" t="s">
         <v>800</v>
       </c>
-      <c r="I122" t="s">
+      <c r="G124" t="s">
+        <v>801</v>
+      </c>
+      <c r="H124" t="s">
+        <v>802</v>
+      </c>
+      <c r="I124" t="s">
+        <v>802</v>
+      </c>
+      <c r="J124" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="125" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B125" t="s">
+        <v>804</v>
+      </c>
+      <c r="C125" t="s">
+        <v>805</v>
+      </c>
+      <c r="D125" t="s">
+        <v>806</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="F125" s="1" t="s">
         <v>800</v>
       </c>
-      <c r="J122" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="123" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B123" t="s">
-        <v>802</v>
-      </c>
-      <c r="C123" t="s">
-        <v>803</v>
-      </c>
-      <c r="D123" t="s">
-        <v>804</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>745</v>
-      </c>
-      <c r="F123" s="1" t="s">
-        <v>798</v>
-      </c>
-      <c r="G123" t="s">
-        <v>805</v>
-      </c>
-      <c r="H123" t="s">
-        <v>806</v>
-      </c>
-      <c r="I123" t="s">
-        <v>806</v>
-      </c>
-      <c r="J123" t="s">
+      <c r="G125" t="s">
         <v>807</v>
       </c>
-    </row>
-    <row r="124" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B124" t="s">
+      <c r="H125" t="s">
         <v>808</v>
       </c>
-      <c r="C124" t="s">
+      <c r="I125" t="s">
+        <v>808</v>
+      </c>
+      <c r="J125" t="s">
         <v>809</v>
       </c>
-      <c r="D124" t="s">
+    </row>
+    <row r="126" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B126" t="s">
         <v>810</v>
       </c>
-      <c r="E124" s="1" t="s">
-        <v>745</v>
-      </c>
-      <c r="F124" s="1" t="s">
+      <c r="C126" t="s">
         <v>811</v>
       </c>
-      <c r="G124" t="s">
+      <c r="D126" t="s">
         <v>812</v>
       </c>
-      <c r="H124" t="s">
+      <c r="E126" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="F126" s="1" t="s">
         <v>813</v>
       </c>
-      <c r="I124" t="s">
+      <c r="G126" t="s">
+        <v>814</v>
+      </c>
+      <c r="H126" t="s">
+        <v>815</v>
+      </c>
+      <c r="I126" t="s">
+        <v>815</v>
+      </c>
+      <c r="J126" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="127" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B127" t="s">
+        <v>817</v>
+      </c>
+      <c r="C127" t="s">
+        <v>818</v>
+      </c>
+      <c r="D127" t="s">
+        <v>819</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="F127" s="1" t="s">
         <v>813</v>
       </c>
-      <c r="J124" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="125" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B125" t="s">
-        <v>815</v>
-      </c>
-      <c r="C125" t="s">
-        <v>816</v>
-      </c>
-      <c r="D125" t="s">
-        <v>817</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>745</v>
-      </c>
-      <c r="F125" s="1" t="s">
-        <v>811</v>
-      </c>
-      <c r="G125" t="s">
-        <v>818</v>
-      </c>
-      <c r="H125" t="s">
-        <v>819</v>
-      </c>
-      <c r="I125" t="s">
-        <v>819</v>
-      </c>
-      <c r="J125" t="s">
+      <c r="G127" t="s">
         <v>820</v>
       </c>
-    </row>
-    <row r="126" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B126" t="s">
+      <c r="H127" t="s">
         <v>821</v>
       </c>
-      <c r="C126" t="s">
+      <c r="I127" t="s">
+        <v>821</v>
+      </c>
+      <c r="J127" t="s">
         <v>822</v>
       </c>
-      <c r="D126" t="s">
+    </row>
+    <row r="128" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B128" t="s">
         <v>823</v>
       </c>
-      <c r="E126" s="1" t="s">
-        <v>745</v>
-      </c>
-      <c r="F126" s="1" t="s">
+      <c r="C128" t="s">
         <v>824</v>
       </c>
-      <c r="G126" t="s">
+      <c r="D128" t="s">
         <v>825</v>
       </c>
-      <c r="H126" t="s">
+      <c r="E128" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="F128" s="1" t="s">
         <v>826</v>
       </c>
-      <c r="I126" t="s">
+      <c r="G128" t="s">
+        <v>827</v>
+      </c>
+      <c r="H128" t="s">
+        <v>828</v>
+      </c>
+      <c r="I128" t="s">
+        <v>828</v>
+      </c>
+      <c r="J128" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="129" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B129" t="s">
+        <v>830</v>
+      </c>
+      <c r="C129" t="s">
+        <v>831</v>
+      </c>
+      <c r="D129" t="s">
+        <v>832</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="F129" s="1" t="s">
         <v>826</v>
       </c>
-      <c r="J126" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="127" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B127" t="s">
-        <v>828</v>
-      </c>
-      <c r="C127" t="s">
-        <v>829</v>
-      </c>
-      <c r="D127" t="s">
-        <v>830</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>745</v>
-      </c>
-      <c r="F127" s="1" t="s">
-        <v>824</v>
-      </c>
-      <c r="G127" t="s">
-        <v>831</v>
-      </c>
-      <c r="H127" t="s">
-        <v>832</v>
-      </c>
-      <c r="I127" t="s">
-        <v>832</v>
-      </c>
-      <c r="J127" t="s">
+      <c r="G129" t="s">
         <v>833</v>
       </c>
-    </row>
-    <row r="128" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B128" t="s">
+      <c r="H129" t="s">
         <v>834</v>
       </c>
-      <c r="C128" t="s">
+      <c r="I129" t="s">
+        <v>834</v>
+      </c>
+      <c r="J129" t="s">
         <v>835</v>
       </c>
-      <c r="D128" t="s">
+    </row>
+    <row r="130" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B130" t="s">
         <v>836</v>
       </c>
-      <c r="E128" s="1" t="s">
-        <v>745</v>
-      </c>
-      <c r="F128" s="1" t="s">
+      <c r="C130" t="s">
         <v>837</v>
       </c>
-      <c r="G128" t="s">
+      <c r="D130" t="s">
         <v>838</v>
       </c>
-      <c r="H128" t="s">
+      <c r="E130" s="1" t="s">
         <v>839</v>
       </c>
-      <c r="I128" t="s">
+      <c r="F130" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="G130" t="s">
+        <v>841</v>
+      </c>
+      <c r="H130" t="s">
+        <v>842</v>
+      </c>
+      <c r="I130" t="s">
+        <v>842</v>
+      </c>
+      <c r="J130" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="131" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B131" t="s">
+        <v>844</v>
+      </c>
+      <c r="C131" t="s">
+        <v>845</v>
+      </c>
+      <c r="D131" t="s">
+        <v>846</v>
+      </c>
+      <c r="E131" s="1" t="s">
         <v>839</v>
       </c>
-      <c r="J128" t="s">
+      <c r="F131" s="1" t="s">
         <v>840</v>
       </c>
-    </row>
-    <row r="129" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B129" t="s">
-        <v>841</v>
-      </c>
-      <c r="C129" t="s">
-        <v>842</v>
-      </c>
-      <c r="D129" t="s">
-        <v>843</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>745</v>
-      </c>
-      <c r="F129" s="1" t="s">
-        <v>837</v>
-      </c>
-      <c r="G129" t="s">
-        <v>844</v>
-      </c>
-      <c r="H129" t="s">
-        <v>845</v>
-      </c>
-      <c r="I129" t="s">
-        <v>845</v>
-      </c>
-      <c r="J129" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="130" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B130" t="s">
+      <c r="G131" t="s">
         <v>847</v>
       </c>
-      <c r="C130" t="s">
+      <c r="H131" t="s">
         <v>848</v>
       </c>
-      <c r="D130" t="s">
+      <c r="I131" t="s">
+        <v>848</v>
+      </c>
+      <c r="J131" t="s">
         <v>849</v>
       </c>
-      <c r="E130" s="1" t="s">
+    </row>
+    <row r="132" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B132" t="s">
         <v>850</v>
       </c>
-      <c r="F130" s="1" t="s">
+      <c r="C132" t="s">
         <v>851</v>
       </c>
-      <c r="G130" t="s">
+      <c r="D132" t="s">
         <v>852</v>
       </c>
-      <c r="H130" t="s">
+      <c r="E132" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="F132" s="1" t="s">
         <v>853</v>
       </c>
-      <c r="I130" t="s">
+      <c r="G132" t="s">
+        <v>854</v>
+      </c>
+      <c r="H132" t="s">
+        <v>855</v>
+      </c>
+      <c r="I132" t="s">
+        <v>855</v>
+      </c>
+      <c r="J132" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="133" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B133" t="s">
+        <v>857</v>
+      </c>
+      <c r="C133" t="s">
+        <v>858</v>
+      </c>
+      <c r="D133" t="s">
+        <v>859</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="F133" s="1" t="s">
         <v>853</v>
       </c>
-      <c r="J130" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="131" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B131" t="s">
-        <v>855</v>
-      </c>
-      <c r="C131" t="s">
-        <v>856</v>
-      </c>
-      <c r="D131" t="s">
-        <v>857</v>
-      </c>
-      <c r="E131" s="1" t="s">
-        <v>850</v>
-      </c>
-      <c r="F131" s="1" t="s">
-        <v>851</v>
-      </c>
-      <c r="G131" t="s">
-        <v>858</v>
-      </c>
-      <c r="H131" t="s">
-        <v>859</v>
-      </c>
-      <c r="I131" t="s">
-        <v>859</v>
-      </c>
-      <c r="J131" t="s">
+      <c r="G133" t="s">
         <v>860</v>
       </c>
-    </row>
-    <row r="132" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B132" t="s">
+      <c r="H133" t="s">
         <v>861</v>
       </c>
-      <c r="C132" t="s">
+      <c r="I133" t="s">
+        <v>861</v>
+      </c>
+      <c r="J133" t="s">
         <v>862</v>
       </c>
-      <c r="D132" t="s">
+    </row>
+    <row r="134" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B134" t="s">
         <v>863</v>
       </c>
-      <c r="E132" s="1" t="s">
-        <v>850</v>
-      </c>
-      <c r="F132" s="1" t="s">
+      <c r="C134" t="s">
         <v>864</v>
       </c>
-      <c r="G132" t="s">
+      <c r="D134" t="s">
         <v>865</v>
       </c>
-      <c r="H132" t="s">
+      <c r="E134" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="F134" s="1" t="s">
         <v>866</v>
       </c>
-      <c r="I132" t="s">
+      <c r="G134" t="s">
+        <v>867</v>
+      </c>
+      <c r="H134" t="s">
+        <v>868</v>
+      </c>
+      <c r="I134" t="s">
+        <v>868</v>
+      </c>
+      <c r="J134" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="135" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B135" t="s">
+        <v>870</v>
+      </c>
+      <c r="C135" t="s">
+        <v>871</v>
+      </c>
+      <c r="D135" t="s">
+        <v>872</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="F135" s="1" t="s">
         <v>866</v>
       </c>
-      <c r="J132" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="133" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B133" t="s">
-        <v>868</v>
-      </c>
-      <c r="C133" t="s">
-        <v>869</v>
-      </c>
-      <c r="D133" t="s">
-        <v>870</v>
-      </c>
-      <c r="E133" s="1" t="s">
-        <v>850</v>
-      </c>
-      <c r="F133" s="1" t="s">
-        <v>864</v>
-      </c>
-      <c r="G133" t="s">
-        <v>871</v>
-      </c>
-      <c r="H133" t="s">
-        <v>872</v>
-      </c>
-      <c r="I133" t="s">
-        <v>872</v>
-      </c>
-      <c r="J133" t="s">
+      <c r="G135" t="s">
         <v>873</v>
       </c>
-    </row>
-    <row r="134" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B134" t="s">
+      <c r="H135" t="s">
         <v>874</v>
       </c>
-      <c r="C134" t="s">
+      <c r="I135" t="s">
+        <v>874</v>
+      </c>
+      <c r="J135" t="s">
         <v>875</v>
       </c>
-      <c r="D134" t="s">
+    </row>
+    <row r="136" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B136" t="s">
         <v>876</v>
       </c>
-      <c r="E134" s="1" t="s">
-        <v>850</v>
-      </c>
-      <c r="F134" s="1" t="s">
+      <c r="C136" t="s">
         <v>877</v>
       </c>
-      <c r="G134" t="s">
+      <c r="D136" t="s">
         <v>878</v>
       </c>
-      <c r="H134" t="s">
+      <c r="E136" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="F136" s="1" t="s">
         <v>879</v>
       </c>
-      <c r="I134" t="s">
+      <c r="G136" t="s">
+        <v>880</v>
+      </c>
+      <c r="H136" t="s">
+        <v>881</v>
+      </c>
+      <c r="I136" t="s">
+        <v>881</v>
+      </c>
+      <c r="J136" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="137" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B137" t="s">
+        <v>883</v>
+      </c>
+      <c r="C137" t="s">
+        <v>884</v>
+      </c>
+      <c r="D137" t="s">
+        <v>885</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="F137" s="1" t="s">
         <v>879</v>
       </c>
-      <c r="J134" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="135" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B135" t="s">
-        <v>881</v>
-      </c>
-      <c r="C135" t="s">
-        <v>882</v>
-      </c>
-      <c r="D135" t="s">
-        <v>883</v>
-      </c>
-      <c r="E135" s="1" t="s">
-        <v>850</v>
-      </c>
-      <c r="F135" s="1" t="s">
-        <v>877</v>
-      </c>
-      <c r="G135" t="s">
-        <v>884</v>
-      </c>
-      <c r="H135" t="s">
-        <v>885</v>
-      </c>
-      <c r="I135" t="s">
-        <v>885</v>
-      </c>
-      <c r="J135" t="s">
+      <c r="G137" t="s">
         <v>886</v>
       </c>
-    </row>
-    <row r="136" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B136" t="s">
+      <c r="H137" t="s">
         <v>887</v>
       </c>
-      <c r="C136" t="s">
+      <c r="I137" t="s">
+        <v>887</v>
+      </c>
+      <c r="J137" t="s">
         <v>888</v>
       </c>
-      <c r="D136" t="s">
+    </row>
+    <row r="138" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B138" t="s">
         <v>889</v>
       </c>
-      <c r="E136" s="1" t="s">
-        <v>850</v>
-      </c>
-      <c r="F136" s="1" t="s">
+      <c r="C138" t="s">
         <v>890</v>
       </c>
-      <c r="G136" t="s">
+      <c r="D138" t="s">
         <v>891</v>
       </c>
-      <c r="H136" t="s">
+      <c r="E138" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="F138" s="1" t="s">
         <v>892</v>
       </c>
-      <c r="I136" t="s">
+      <c r="G138" t="s">
+        <v>893</v>
+      </c>
+      <c r="H138" t="s">
+        <v>894</v>
+      </c>
+      <c r="I138" t="s">
+        <v>894</v>
+      </c>
+      <c r="J138" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="139" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B139" t="s">
+        <v>896</v>
+      </c>
+      <c r="C139" t="s">
+        <v>897</v>
+      </c>
+      <c r="D139" t="s">
+        <v>898</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="F139" s="1" t="s">
         <v>892</v>
       </c>
-      <c r="J136" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="137" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B137" t="s">
-        <v>894</v>
-      </c>
-      <c r="C137" t="s">
-        <v>895</v>
-      </c>
-      <c r="D137" t="s">
-        <v>896</v>
-      </c>
-      <c r="E137" s="1" t="s">
-        <v>850</v>
-      </c>
-      <c r="F137" s="1" t="s">
-        <v>890</v>
-      </c>
-      <c r="G137" t="s">
-        <v>897</v>
-      </c>
-      <c r="H137" t="s">
-        <v>898</v>
-      </c>
-      <c r="I137" t="s">
-        <v>898</v>
-      </c>
-      <c r="J137" t="s">
+      <c r="G139" t="s">
         <v>899</v>
       </c>
-    </row>
-    <row r="138" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B138" t="s">
+      <c r="H139" t="s">
         <v>900</v>
       </c>
-      <c r="C138" t="s">
+      <c r="I139" t="s">
+        <v>900</v>
+      </c>
+      <c r="J139" t="s">
         <v>901</v>
       </c>
-      <c r="D138" t="s">
+    </row>
+    <row r="140" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B140" t="s">
         <v>902</v>
       </c>
-      <c r="E138" s="1" t="s">
-        <v>850</v>
-      </c>
-      <c r="F138" s="1" t="s">
+      <c r="C140" t="s">
         <v>903</v>
       </c>
-      <c r="G138" t="s">
+      <c r="D140" t="s">
         <v>904</v>
       </c>
-      <c r="H138" t="s">
+      <c r="E140" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="F140" s="1" t="s">
         <v>905</v>
       </c>
-      <c r="I138" t="s">
+      <c r="G140" t="s">
+        <v>906</v>
+      </c>
+      <c r="H140" t="s">
+        <v>907</v>
+      </c>
+      <c r="I140" t="s">
+        <v>907</v>
+      </c>
+      <c r="J140" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="141" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B141" t="s">
+        <v>909</v>
+      </c>
+      <c r="C141" t="s">
+        <v>910</v>
+      </c>
+      <c r="D141" t="s">
+        <v>911</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="F141" s="1" t="s">
         <v>905</v>
       </c>
-      <c r="J138" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="139" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B139" t="s">
-        <v>907</v>
-      </c>
-      <c r="C139" t="s">
-        <v>908</v>
-      </c>
-      <c r="D139" t="s">
-        <v>909</v>
-      </c>
-      <c r="E139" s="1" t="s">
-        <v>850</v>
-      </c>
-      <c r="F139" s="1" t="s">
-        <v>903</v>
-      </c>
-      <c r="G139" t="s">
-        <v>910</v>
-      </c>
-      <c r="H139" t="s">
-        <v>911</v>
-      </c>
-      <c r="I139" t="s">
-        <v>911</v>
-      </c>
-      <c r="J139" t="s">
+      <c r="G141" t="s">
         <v>912</v>
       </c>
-    </row>
-    <row r="140" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B140" t="s">
+      <c r="H141" t="s">
         <v>913</v>
       </c>
-      <c r="C140" t="s">
+      <c r="I141" t="s">
+        <v>913</v>
+      </c>
+      <c r="J141" t="s">
         <v>914</v>
       </c>
-      <c r="D140" t="s">
+    </row>
+    <row r="142" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B142" t="s">
         <v>915</v>
       </c>
-      <c r="E140" s="1" t="s">
-        <v>850</v>
-      </c>
-      <c r="F140" s="1" t="s">
+      <c r="C142" t="s">
         <v>916</v>
       </c>
-      <c r="G140" t="s">
+      <c r="D142" t="s">
         <v>917</v>
       </c>
-      <c r="H140" t="s">
+      <c r="E142" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="F142" s="1" t="s">
         <v>918</v>
       </c>
-      <c r="I140" t="s">
+      <c r="G142" t="s">
+        <v>919</v>
+      </c>
+      <c r="H142" t="s">
+        <v>920</v>
+      </c>
+      <c r="I142" t="s">
+        <v>920</v>
+      </c>
+      <c r="J142" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="143" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B143" t="s">
+        <v>922</v>
+      </c>
+      <c r="C143" t="s">
+        <v>923</v>
+      </c>
+      <c r="D143" t="s">
+        <v>924</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="F143" s="1" t="s">
         <v>918</v>
       </c>
-      <c r="J140" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="141" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B141" t="s">
-        <v>920</v>
-      </c>
-      <c r="C141" t="s">
-        <v>921</v>
-      </c>
-      <c r="D141" t="s">
-        <v>922</v>
-      </c>
-      <c r="E141" s="1" t="s">
-        <v>850</v>
-      </c>
-      <c r="F141" s="1" t="s">
-        <v>916</v>
-      </c>
-      <c r="G141" t="s">
-        <v>923</v>
-      </c>
-      <c r="H141" t="s">
-        <v>924</v>
-      </c>
-      <c r="I141" t="s">
-        <v>924</v>
-      </c>
-      <c r="J141" t="s">
+      <c r="G143" t="s">
         <v>925</v>
       </c>
-    </row>
-    <row r="142" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B142" t="s">
+      <c r="H143" t="s">
         <v>926</v>
       </c>
-      <c r="C142" t="s">
+      <c r="I143" t="s">
+        <v>926</v>
+      </c>
+      <c r="J143" t="s">
         <v>927</v>
       </c>
-      <c r="D142" t="s">
+    </row>
+    <row r="144" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B144" t="s">
         <v>928</v>
       </c>
-      <c r="E142" s="1" t="s">
-        <v>850</v>
-      </c>
-      <c r="F142" s="1" t="s">
+      <c r="C144" t="s">
         <v>929</v>
       </c>
-      <c r="G142" t="s">
+      <c r="D144" t="s">
         <v>930</v>
       </c>
-      <c r="H142" t="s">
+      <c r="E144" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="F144" s="1" t="s">
         <v>931</v>
       </c>
-      <c r="I142" t="s">
+      <c r="G144" t="s">
+        <v>932</v>
+      </c>
+      <c r="H144" t="s">
+        <v>933</v>
+      </c>
+      <c r="I144" t="s">
+        <v>933</v>
+      </c>
+      <c r="J144" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="145" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B145" t="s">
+        <v>935</v>
+      </c>
+      <c r="C145" t="s">
+        <v>936</v>
+      </c>
+      <c r="D145" t="s">
+        <v>937</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="F145" s="1" t="s">
         <v>931</v>
       </c>
-      <c r="J142" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="143" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B143" t="s">
-        <v>933</v>
-      </c>
-      <c r="C143" t="s">
-        <v>934</v>
-      </c>
-      <c r="D143" t="s">
-        <v>935</v>
-      </c>
-      <c r="E143" s="1" t="s">
-        <v>850</v>
-      </c>
-      <c r="F143" s="1" t="s">
-        <v>929</v>
-      </c>
-      <c r="G143" t="s">
-        <v>936</v>
-      </c>
-      <c r="H143" t="s">
-        <v>937</v>
-      </c>
-      <c r="I143" t="s">
-        <v>937</v>
-      </c>
-      <c r="J143" t="s">
+      <c r="G145" t="s">
         <v>938</v>
       </c>
-    </row>
-    <row r="144" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B144" t="s">
+      <c r="H145" t="s">
         <v>939</v>
       </c>
-      <c r="C144" t="s">
+      <c r="I145" t="s">
+        <v>939</v>
+      </c>
+      <c r="J145" t="s">
         <v>940</v>
       </c>
-      <c r="D144" t="s">
+    </row>
+    <row r="146" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B146" t="s">
         <v>941</v>
       </c>
-      <c r="E144" s="1" t="s">
-        <v>850</v>
-      </c>
-      <c r="F144" s="1" t="s">
+      <c r="C146" t="s">
         <v>942</v>
       </c>
-      <c r="G144" t="s">
+      <c r="D146" t="s">
         <v>943</v>
       </c>
-      <c r="H144" t="s">
+      <c r="E146" s="1" t="s">
         <v>944</v>
       </c>
-      <c r="I144" t="s">
+      <c r="F146" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="G146" t="s">
+        <v>946</v>
+      </c>
+      <c r="H146" t="s">
+        <v>947</v>
+      </c>
+      <c r="I146" t="s">
+        <v>947</v>
+      </c>
+      <c r="J146" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="147" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B147" t="s">
+        <v>949</v>
+      </c>
+      <c r="C147" t="s">
+        <v>950</v>
+      </c>
+      <c r="D147" t="s">
+        <v>951</v>
+      </c>
+      <c r="E147" s="1" t="s">
         <v>944</v>
       </c>
-      <c r="J144" t="s">
+      <c r="F147" s="1" t="s">
         <v>945</v>
       </c>
-    </row>
-    <row r="145" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B145" t="s">
-        <v>946</v>
-      </c>
-      <c r="C145" t="s">
-        <v>947</v>
-      </c>
-      <c r="D145" t="s">
-        <v>948</v>
-      </c>
-      <c r="E145" s="1" t="s">
-        <v>850</v>
-      </c>
-      <c r="F145" s="1" t="s">
-        <v>942</v>
-      </c>
-      <c r="G145" t="s">
-        <v>949</v>
-      </c>
-      <c r="H145" t="s">
-        <v>950</v>
-      </c>
-      <c r="I145" t="s">
-        <v>950</v>
-      </c>
-      <c r="J145" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="146" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B146" t="s">
+      <c r="G147" t="s">
         <v>952</v>
       </c>
-      <c r="C146" t="s">
+      <c r="H147" t="s">
         <v>953</v>
       </c>
-      <c r="D146" t="s">
+      <c r="I147" t="s">
+        <v>953</v>
+      </c>
+      <c r="J147" t="s">
         <v>954</v>
       </c>
-      <c r="E146" s="1" t="s">
+    </row>
+    <row r="148" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B148" t="s">
         <v>955</v>
       </c>
-      <c r="F146" s="1" t="s">
+      <c r="C148" t="s">
         <v>956</v>
       </c>
-      <c r="G146" t="s">
+      <c r="D148" t="s">
         <v>957</v>
       </c>
-      <c r="H146" t="s">
+      <c r="E148" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="F148" s="1" t="s">
         <v>958</v>
       </c>
-      <c r="I146" t="s">
+      <c r="G148" t="s">
+        <v>959</v>
+      </c>
+      <c r="H148" t="s">
+        <v>960</v>
+      </c>
+      <c r="I148" t="s">
+        <v>960</v>
+      </c>
+      <c r="J148" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="149" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B149" t="s">
+        <v>962</v>
+      </c>
+      <c r="C149" t="s">
+        <v>963</v>
+      </c>
+      <c r="D149" t="s">
+        <v>964</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="F149" s="1" t="s">
         <v>958</v>
       </c>
-      <c r="J146" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="147" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B147" t="s">
-        <v>960</v>
-      </c>
-      <c r="C147" t="s">
-        <v>961</v>
-      </c>
-      <c r="D147" t="s">
-        <v>962</v>
-      </c>
-      <c r="E147" s="1" t="s">
-        <v>955</v>
-      </c>
-      <c r="F147" s="1" t="s">
-        <v>956</v>
-      </c>
-      <c r="G147" t="s">
-        <v>963</v>
-      </c>
-      <c r="H147" t="s">
-        <v>964</v>
-      </c>
-      <c r="I147" t="s">
-        <v>964</v>
-      </c>
-      <c r="J147" t="s">
+      <c r="G149" t="s">
         <v>965</v>
       </c>
-    </row>
-    <row r="148" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B148" t="s">
+      <c r="H149" t="s">
         <v>966</v>
       </c>
-      <c r="C148" t="s">
+      <c r="I149" t="s">
+        <v>966</v>
+      </c>
+      <c r="J149" t="s">
         <v>967</v>
       </c>
-      <c r="D148" t="s">
+    </row>
+    <row r="150" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B150" t="s">
         <v>968</v>
       </c>
-      <c r="E148" s="1" t="s">
-        <v>955</v>
-      </c>
-      <c r="F148" s="1" t="s">
+      <c r="C150" t="s">
         <v>969</v>
       </c>
-      <c r="G148" t="s">
+      <c r="D150" t="s">
         <v>970</v>
       </c>
-      <c r="H148" t="s">
+      <c r="E150" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>1350</v>
+      </c>
+      <c r="G150" t="s">
         <v>971</v>
       </c>
-      <c r="I148" t="s">
-        <v>971</v>
-      </c>
-      <c r="J148" t="s">
+      <c r="H150" t="s">
         <v>972</v>
       </c>
-    </row>
-    <row r="149" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B149" t="s">
+      <c r="I150" t="s">
+        <v>972</v>
+      </c>
+      <c r="J150" t="s">
         <v>973</v>
       </c>
-      <c r="C149" t="s">
+    </row>
+    <row r="151" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B151" t="s">
         <v>974</v>
       </c>
-      <c r="D149" t="s">
+      <c r="C151" t="s">
         <v>975</v>
       </c>
-      <c r="E149" s="1" t="s">
-        <v>955</v>
-      </c>
-      <c r="F149" s="1" t="s">
-        <v>969</v>
-      </c>
-      <c r="G149" t="s">
+      <c r="D151" t="s">
         <v>976</v>
       </c>
-      <c r="H149" t="s">
+      <c r="E151" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>1350</v>
+      </c>
+      <c r="G151" t="s">
         <v>977</v>
       </c>
-      <c r="I149" t="s">
-        <v>977</v>
-      </c>
-      <c r="J149" t="s">
+      <c r="H151" t="s">
         <v>978</v>
       </c>
-    </row>
-    <row r="150" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B150" t="s">
+      <c r="I151" t="s">
+        <v>978</v>
+      </c>
+      <c r="J151" t="s">
         <v>979</v>
       </c>
-      <c r="C150" t="s">
+    </row>
+    <row r="152" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B152" t="s">
         <v>980</v>
       </c>
-      <c r="D150" t="s">
+      <c r="C152" t="s">
         <v>981</v>
       </c>
-      <c r="E150" s="1" t="s">
-        <v>955</v>
-      </c>
-      <c r="F150" s="1" t="s">
-        <v>1370</v>
-      </c>
-      <c r="G150" t="s">
+      <c r="D152" t="s">
         <v>982</v>
       </c>
-      <c r="H150" t="s">
+      <c r="E152" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="F152" s="1" t="s">
         <v>983</v>
       </c>
-      <c r="I150" t="s">
+      <c r="G152" t="s">
+        <v>984</v>
+      </c>
+      <c r="H152" t="s">
+        <v>985</v>
+      </c>
+      <c r="I152" t="s">
+        <v>985</v>
+      </c>
+      <c r="J152" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="153" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B153" t="s">
+        <v>987</v>
+      </c>
+      <c r="C153" t="s">
+        <v>988</v>
+      </c>
+      <c r="D153" t="s">
+        <v>989</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="F153" s="1" t="s">
         <v>983</v>
       </c>
-      <c r="J150" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="151" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B151" t="s">
-        <v>985</v>
-      </c>
-      <c r="C151" t="s">
-        <v>986</v>
-      </c>
-      <c r="D151" t="s">
-        <v>987</v>
-      </c>
-      <c r="E151" s="1" t="s">
-        <v>955</v>
-      </c>
-      <c r="F151" s="1" t="s">
-        <v>1370</v>
-      </c>
-      <c r="G151" t="s">
-        <v>988</v>
-      </c>
-      <c r="H151" t="s">
-        <v>989</v>
-      </c>
-      <c r="I151" t="s">
-        <v>989</v>
-      </c>
-      <c r="J151" t="s">
+      <c r="G153" t="s">
         <v>990</v>
       </c>
-    </row>
-    <row r="152" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B152" t="s">
+      <c r="H153" t="s">
         <v>991</v>
       </c>
-      <c r="C152" t="s">
+      <c r="I153" t="s">
+        <v>991</v>
+      </c>
+      <c r="J153" t="s">
         <v>992</v>
       </c>
-      <c r="D152" t="s">
+    </row>
+    <row r="154" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B154" t="s">
         <v>993</v>
       </c>
-      <c r="E152" s="1" t="s">
-        <v>955</v>
-      </c>
-      <c r="F152" s="1" t="s">
+      <c r="C154" t="s">
         <v>994</v>
       </c>
-      <c r="G152" t="s">
+      <c r="D154" t="s">
         <v>995</v>
       </c>
-      <c r="H152" t="s">
+      <c r="E154" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="F154" s="1" t="s">
         <v>996</v>
       </c>
-      <c r="I152" t="s">
+      <c r="G154" t="s">
+        <v>997</v>
+      </c>
+      <c r="H154" t="s">
+        <v>998</v>
+      </c>
+      <c r="I154" t="s">
+        <v>998</v>
+      </c>
+      <c r="J154" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="155" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B155" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C155" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D155" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="F155" s="1" t="s">
         <v>996</v>
       </c>
-      <c r="J152" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="153" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B153" t="s">
-        <v>998</v>
-      </c>
-      <c r="C153" t="s">
-        <v>999</v>
-      </c>
-      <c r="D153" t="s">
-        <v>1000</v>
-      </c>
-      <c r="E153" s="1" t="s">
-        <v>955</v>
-      </c>
-      <c r="F153" s="1" t="s">
-        <v>994</v>
-      </c>
-      <c r="G153" t="s">
-        <v>1001</v>
-      </c>
-      <c r="H153" t="s">
-        <v>1002</v>
-      </c>
-      <c r="I153" t="s">
-        <v>1002</v>
-      </c>
-      <c r="J153" t="s">
+      <c r="G155" t="s">
         <v>1003</v>
       </c>
-    </row>
-    <row r="154" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B154" t="s">
+      <c r="H155" t="s">
         <v>1004</v>
       </c>
-      <c r="C154" t="s">
+      <c r="I155" t="s">
+        <v>1004</v>
+      </c>
+      <c r="J155" t="s">
         <v>1005</v>
       </c>
-      <c r="D154" t="s">
+    </row>
+    <row r="156" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B156" t="s">
         <v>1006</v>
       </c>
-      <c r="E154" s="1" t="s">
-        <v>955</v>
-      </c>
-      <c r="F154" s="1" t="s">
+      <c r="C156" s="4" t="s">
+        <v>1355</v>
+      </c>
+      <c r="D156" t="s">
         <v>1007</v>
       </c>
-      <c r="G154" t="s">
+      <c r="E156" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="F156" s="1" t="s">
         <v>1008</v>
       </c>
-      <c r="H154" t="s">
+      <c r="G156" t="s">
         <v>1009</v>
       </c>
-      <c r="I154" t="s">
-        <v>1009</v>
-      </c>
-      <c r="J154" t="s">
+      <c r="H156" t="s">
         <v>1010</v>
       </c>
-    </row>
-    <row r="155" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B155" t="s">
+      <c r="I156" t="s">
+        <v>1010</v>
+      </c>
+      <c r="J156" t="s">
         <v>1011</v>
       </c>
-      <c r="C155" t="s">
+    </row>
+    <row r="157" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B157" t="s">
         <v>1012</v>
       </c>
-      <c r="D155" t="s">
+      <c r="C157" t="s">
         <v>1013</v>
       </c>
-      <c r="E155" s="1" t="s">
-        <v>955</v>
-      </c>
-      <c r="F155" s="1" t="s">
-        <v>1007</v>
-      </c>
-      <c r="G155" t="s">
+      <c r="D157" t="s">
         <v>1014</v>
       </c>
-      <c r="H155" t="s">
+      <c r="E157" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="G157" t="s">
         <v>1015</v>
       </c>
-      <c r="I155" t="s">
-        <v>1015</v>
-      </c>
-      <c r="J155" t="s">
+      <c r="H157" t="s">
         <v>1016</v>
       </c>
-    </row>
-    <row r="156" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B156" t="s">
+      <c r="I157" t="s">
+        <v>1016</v>
+      </c>
+      <c r="J157" t="s">
         <v>1017</v>
       </c>
-      <c r="C156" t="s">
+    </row>
+    <row r="158" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B158" t="s">
         <v>1018</v>
       </c>
-      <c r="D156" t="s">
+      <c r="C158" t="s">
         <v>1019</v>
       </c>
-      <c r="E156" s="1" t="s">
-        <v>955</v>
-      </c>
-      <c r="F156" s="1" t="s">
+      <c r="D158" t="s">
         <v>1020</v>
       </c>
-      <c r="G156" t="s">
+      <c r="E158" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="F158" s="1" t="s">
         <v>1021</v>
       </c>
-      <c r="H156" t="s">
+      <c r="G158" t="s">
         <v>1022</v>
       </c>
-      <c r="I156" t="s">
-        <v>1022</v>
-      </c>
-      <c r="J156" t="s">
+      <c r="H158" t="s">
         <v>1023</v>
       </c>
-    </row>
-    <row r="157" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B157" t="s">
+      <c r="I158" t="s">
+        <v>1023</v>
+      </c>
+      <c r="J158" t="s">
         <v>1024</v>
       </c>
-      <c r="C157" t="s">
+    </row>
+    <row r="159" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B159" t="s">
         <v>1025</v>
       </c>
-      <c r="D157" t="s">
+      <c r="C159" t="s">
         <v>1026</v>
       </c>
-      <c r="E157" s="1" t="s">
-        <v>955</v>
-      </c>
-      <c r="F157" s="1" t="s">
-        <v>1020</v>
-      </c>
-      <c r="G157" t="s">
+      <c r="D159" t="s">
         <v>1027</v>
       </c>
-      <c r="H157" t="s">
+      <c r="E159" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="G159" t="s">
         <v>1028</v>
       </c>
-      <c r="I157" t="s">
-        <v>1028</v>
-      </c>
-      <c r="J157" t="s">
+      <c r="H159" t="s">
         <v>1029</v>
       </c>
-    </row>
-    <row r="158" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B158" t="s">
+      <c r="I159" t="s">
+        <v>1029</v>
+      </c>
+      <c r="J159" t="s">
         <v>1030</v>
       </c>
-      <c r="C158" t="s">
+    </row>
+    <row r="160" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B160" t="s">
         <v>1031</v>
       </c>
-      <c r="D158" t="s">
+      <c r="C160" t="s">
         <v>1032</v>
       </c>
-      <c r="E158" s="1" t="s">
-        <v>955</v>
-      </c>
-      <c r="F158" s="1" t="s">
+      <c r="D160" t="s">
         <v>1033</v>
       </c>
-      <c r="G158" t="s">
+      <c r="E160" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="F160" s="1" t="s">
         <v>1034</v>
       </c>
-      <c r="H158" t="s">
+      <c r="G160" t="s">
         <v>1035</v>
       </c>
-      <c r="I158" t="s">
-        <v>1035</v>
-      </c>
-      <c r="J158" t="s">
+      <c r="H160" t="s">
         <v>1036</v>
       </c>
-    </row>
-    <row r="159" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B159" t="s">
+      <c r="I160" t="s">
+        <v>1036</v>
+      </c>
+      <c r="J160" t="s">
         <v>1037</v>
       </c>
-      <c r="C159" t="s">
+    </row>
+    <row r="161" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B161" t="s">
         <v>1038</v>
       </c>
-      <c r="D159" t="s">
+      <c r="C161" t="s">
         <v>1039</v>
       </c>
-      <c r="E159" s="1" t="s">
-        <v>955</v>
-      </c>
-      <c r="F159" s="1" t="s">
-        <v>1033</v>
-      </c>
-      <c r="G159" t="s">
+      <c r="D161" t="s">
         <v>1040</v>
       </c>
-      <c r="H159" t="s">
+      <c r="E161" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="G161" t="s">
         <v>1041</v>
       </c>
-      <c r="I159" t="s">
-        <v>1041</v>
-      </c>
-      <c r="J159" t="s">
+      <c r="H161" t="s">
         <v>1042</v>
       </c>
-    </row>
-    <row r="160" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B160" t="s">
+      <c r="I161" t="s">
+        <v>1042</v>
+      </c>
+      <c r="J161" t="s">
         <v>1043</v>
       </c>
-      <c r="C160" t="s">
+    </row>
+    <row r="162" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B162" t="s">
         <v>1044</v>
       </c>
-      <c r="D160" t="s">
+      <c r="C162" s="4" t="s">
+        <v>1353</v>
+      </c>
+      <c r="D162" t="s">
         <v>1045</v>
       </c>
-      <c r="E160" s="1" t="s">
-        <v>955</v>
-      </c>
-      <c r="F160" s="1" t="s">
+      <c r="E162" s="1" t="s">
         <v>1046</v>
       </c>
-      <c r="G160" t="s">
+      <c r="F162" s="1" t="s">
         <v>1047</v>
       </c>
-      <c r="H160" t="s">
+      <c r="G162" t="s">
         <v>1048</v>
       </c>
-      <c r="I160" t="s">
-        <v>1048</v>
-      </c>
-      <c r="J160" t="s">
+      <c r="H162" t="s">
         <v>1049</v>
       </c>
-    </row>
-    <row r="161" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B161" t="s">
+      <c r="I162" t="s">
+        <v>1049</v>
+      </c>
+      <c r="J162" t="s">
         <v>1050</v>
       </c>
-      <c r="C161" t="s">
+    </row>
+    <row r="163" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B163" t="s">
         <v>1051</v>
       </c>
-      <c r="D161" t="s">
+      <c r="C163" s="4" t="s">
+        <v>1354</v>
+      </c>
+      <c r="D163" t="s">
         <v>1052</v>
       </c>
-      <c r="E161" s="1" t="s">
-        <v>955</v>
-      </c>
-      <c r="F161" s="1" t="s">
+      <c r="E163" s="1" t="s">
         <v>1046</v>
       </c>
-      <c r="G161" t="s">
+      <c r="F163" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G163" t="s">
         <v>1053</v>
       </c>
-      <c r="H161" t="s">
+      <c r="H163" t="s">
         <v>1054</v>
       </c>
-      <c r="I161" t="s">
+      <c r="I163" t="s">
         <v>1054</v>
       </c>
-      <c r="J161" t="s">
+      <c r="J163" t="s">
         <v>1055</v>
       </c>
     </row>
-    <row r="162" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B162" t="s">
+    <row r="164" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B164" t="s">
         <v>1056</v>
       </c>
-      <c r="C162" t="s">
+      <c r="C164" t="s">
         <v>1057</v>
       </c>
-      <c r="D162" t="s">
+      <c r="D164" t="s">
         <v>1058</v>
       </c>
-      <c r="E162" s="1" t="s">
+      <c r="E164" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="F164" s="1" t="s">
         <v>1059</v>
       </c>
-      <c r="F162" s="1" t="s">
+      <c r="G164" t="s">
         <v>1060</v>
       </c>
-      <c r="G162" t="s">
+      <c r="H164" t="s">
         <v>1061</v>
       </c>
-      <c r="H162" t="s">
+      <c r="I164" t="s">
+        <v>1061</v>
+      </c>
+      <c r="J164" t="s">
         <v>1062</v>
       </c>
-      <c r="I162" t="s">
-        <v>1062</v>
-      </c>
-      <c r="J162" t="s">
+    </row>
+    <row r="165" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B165" t="s">
+        <v>968</v>
+      </c>
+      <c r="C165" t="s">
         <v>1063</v>
       </c>
-    </row>
-    <row r="163" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B163" t="s">
+      <c r="D165" t="s">
         <v>1064</v>
       </c>
-      <c r="C163" t="s">
+      <c r="E165" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="F165" s="1" t="s">
         <v>1065</v>
       </c>
-      <c r="D163" t="s">
+      <c r="G165" t="s">
         <v>1066</v>
       </c>
-      <c r="E163" s="1" t="s">
-        <v>1059</v>
-      </c>
-      <c r="F163" s="1" t="s">
-        <v>1060</v>
-      </c>
-      <c r="G163" t="s">
+      <c r="H165" t="s">
         <v>1067</v>
       </c>
-      <c r="H163" t="s">
+      <c r="I165" t="s">
+        <v>1067</v>
+      </c>
+      <c r="J165" t="s">
         <v>1068</v>
       </c>
-      <c r="I163" t="s">
-        <v>1068</v>
-      </c>
-      <c r="J163" t="s">
+    </row>
+    <row r="166" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B166" t="s">
         <v>1069</v>
       </c>
-    </row>
-    <row r="164" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B164" t="s">
+      <c r="C166" t="s">
         <v>1070</v>
       </c>
-      <c r="C164" t="s">
+      <c r="D166" t="s">
         <v>1071</v>
       </c>
-      <c r="D164" t="s">
+      <c r="E166" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="F166" s="1" t="s">
         <v>1072</v>
       </c>
-      <c r="E164" s="1" t="s">
-        <v>1059</v>
-      </c>
-      <c r="F164" s="1" t="s">
+      <c r="G166" t="s">
         <v>1073</v>
       </c>
-      <c r="G164" t="s">
+      <c r="H166" t="s">
         <v>1074</v>
       </c>
-      <c r="H164" t="s">
+      <c r="I166" t="s">
+        <v>1074</v>
+      </c>
+      <c r="J166" t="s">
         <v>1075</v>
       </c>
-      <c r="I164" t="s">
-        <v>1075</v>
-      </c>
-      <c r="J164" t="s">
+    </row>
+    <row r="167" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B167" t="s">
         <v>1076</v>
       </c>
-    </row>
-    <row r="165" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B165" t="s">
-        <v>979</v>
-      </c>
-      <c r="C165" t="s">
+      <c r="C167" t="s">
         <v>1077</v>
       </c>
-      <c r="D165" t="s">
+      <c r="D167" t="s">
         <v>1078</v>
       </c>
-      <c r="E165" s="1" t="s">
-        <v>1059</v>
-      </c>
-      <c r="F165" s="1" t="s">
+      <c r="E167" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="F167" s="1" t="s">
         <v>1079</v>
       </c>
-      <c r="G165" t="s">
+      <c r="G167" t="s">
         <v>1080</v>
       </c>
-      <c r="H165" t="s">
+      <c r="H167" t="s">
         <v>1081</v>
       </c>
-      <c r="I165" t="s">
+      <c r="I167" t="s">
         <v>1081</v>
       </c>
-      <c r="J165" t="s">
+      <c r="J167" t="s">
         <v>1082</v>
       </c>
     </row>
-    <row r="166" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B166" t="s">
+    <row r="168" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B168" t="s">
         <v>1083</v>
       </c>
-      <c r="C166" t="s">
+      <c r="C168" t="s">
         <v>1084</v>
       </c>
-      <c r="D166" t="s">
+      <c r="D168" t="s">
         <v>1085</v>
       </c>
-      <c r="E166" s="1" t="s">
-        <v>1059</v>
-      </c>
-      <c r="F166" s="1" t="s">
+      <c r="E168" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="F168" s="1" t="s">
         <v>1086</v>
       </c>
-      <c r="G166" t="s">
+      <c r="G168" t="s">
         <v>1087</v>
       </c>
-      <c r="H166" t="s">
+      <c r="H168" t="s">
         <v>1088</v>
       </c>
-      <c r="I166" t="s">
+      <c r="I168" t="s">
         <v>1088</v>
       </c>
-      <c r="J166" t="s">
+      <c r="J168" t="s">
         <v>1089</v>
       </c>
     </row>
-    <row r="167" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B167" t="s">
+    <row r="169" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B169" t="s">
         <v>1090</v>
       </c>
-      <c r="C167" t="s">
+      <c r="C169" t="s">
         <v>1091</v>
       </c>
-      <c r="D167" t="s">
+      <c r="D169" t="s">
         <v>1092</v>
       </c>
-      <c r="E167" s="1" t="s">
-        <v>1059</v>
-      </c>
-      <c r="F167" s="1" t="s">
+      <c r="E169" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="F169" s="1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="G169" t="s">
         <v>1093</v>
       </c>
-      <c r="G167" t="s">
+      <c r="H169" t="s">
         <v>1094</v>
       </c>
-      <c r="H167" t="s">
+      <c r="I169" t="s">
+        <v>1094</v>
+      </c>
+      <c r="J169" t="s">
         <v>1095</v>
       </c>
-      <c r="I167" t="s">
-        <v>1095</v>
-      </c>
-      <c r="J167" t="s">
+    </row>
+    <row r="170" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B170" t="s">
         <v>1096</v>
       </c>
-    </row>
-    <row r="168" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B168" t="s">
+      <c r="C170" t="s">
         <v>1097</v>
       </c>
-      <c r="C168" t="s">
+      <c r="D170" t="s">
         <v>1098</v>
       </c>
-      <c r="D168" t="s">
+      <c r="E170" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="F170" s="1" t="s">
         <v>1099</v>
       </c>
-      <c r="E168" s="1" t="s">
-        <v>1059</v>
-      </c>
-      <c r="F168" s="1" t="s">
+      <c r="G170" t="s">
         <v>1100</v>
       </c>
-      <c r="G168" t="s">
+      <c r="H170" t="s">
         <v>1101</v>
       </c>
-      <c r="H168" t="s">
+      <c r="I170" t="s">
+        <v>1101</v>
+      </c>
+      <c r="J170" t="s">
         <v>1102</v>
       </c>
-      <c r="I168" t="s">
-        <v>1102</v>
-      </c>
-      <c r="J168" t="s">
+    </row>
+    <row r="171" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B171" t="s">
         <v>1103</v>
       </c>
-    </row>
-    <row r="169" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B169" t="s">
+      <c r="C171" t="s">
         <v>1104</v>
       </c>
-      <c r="C169" t="s">
+      <c r="D171" t="s">
         <v>1105</v>
       </c>
-      <c r="D169" t="s">
+      <c r="E171" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="F171" s="1" t="s">
+        <v>1099</v>
+      </c>
+      <c r="G171" t="s">
         <v>1106</v>
       </c>
-      <c r="E169" s="1" t="s">
-        <v>1059</v>
-      </c>
-      <c r="F169" s="1" t="s">
-        <v>1100</v>
-      </c>
-      <c r="G169" t="s">
+      <c r="H171" t="s">
         <v>1107</v>
       </c>
-      <c r="H169" t="s">
+      <c r="I171" t="s">
+        <v>1107</v>
+      </c>
+      <c r="J171" t="s">
         <v>1108</v>
       </c>
-      <c r="I169" t="s">
-        <v>1108</v>
-      </c>
-      <c r="J169" t="s">
+    </row>
+    <row r="172" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B172" t="s">
         <v>1109</v>
       </c>
-    </row>
-    <row r="170" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B170" t="s">
+      <c r="C172" t="s">
         <v>1110</v>
       </c>
-      <c r="C170" t="s">
+      <c r="D172" t="s">
         <v>1111</v>
       </c>
-      <c r="D170" t="s">
+      <c r="E172" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="F172" s="1" t="s">
         <v>1112</v>
       </c>
-      <c r="E170" s="1" t="s">
-        <v>1059</v>
-      </c>
-      <c r="F170" s="1" t="s">
+      <c r="G172" t="s">
         <v>1113</v>
       </c>
-      <c r="G170" t="s">
+      <c r="H172" t="s">
         <v>1114</v>
       </c>
-      <c r="H170" t="s">
+      <c r="I172" t="s">
+        <v>1114</v>
+      </c>
+      <c r="J172" t="s">
         <v>1115</v>
       </c>
-      <c r="I170" t="s">
-        <v>1115</v>
-      </c>
-      <c r="J170" t="s">
+    </row>
+    <row r="173" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B173" t="s">
         <v>1116</v>
       </c>
-    </row>
-    <row r="171" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B171" t="s">
+      <c r="C173" t="s">
         <v>1117</v>
       </c>
-      <c r="C171" t="s">
+      <c r="D173" t="s">
         <v>1118</v>
       </c>
-      <c r="D171" t="s">
+      <c r="E173" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>1112</v>
+      </c>
+      <c r="G173" t="s">
         <v>1119</v>
       </c>
-      <c r="E171" s="1" t="s">
-        <v>1059</v>
-      </c>
-      <c r="F171" s="1" t="s">
-        <v>1113</v>
-      </c>
-      <c r="G171" t="s">
+      <c r="H173" t="s">
         <v>1120</v>
       </c>
-      <c r="H171" t="s">
+      <c r="I173" t="s">
+        <v>1120</v>
+      </c>
+      <c r="J173" t="s">
         <v>1121</v>
       </c>
-      <c r="I171" t="s">
-        <v>1121</v>
-      </c>
-      <c r="J171" t="s">
-        <v>1122</v>
-      </c>
-    </row>
-    <row r="172" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B172" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C172" t="s">
-        <v>1124</v>
-      </c>
-      <c r="D172" t="s">
-        <v>1125</v>
-      </c>
-      <c r="E172" s="1" t="s">
-        <v>1059</v>
-      </c>
-      <c r="F172" s="1" t="s">
-        <v>1126</v>
-      </c>
-      <c r="G172" t="s">
-        <v>1127</v>
-      </c>
-      <c r="H172" t="s">
-        <v>1128</v>
-      </c>
-      <c r="I172" t="s">
-        <v>1128</v>
-      </c>
-      <c r="J172" t="s">
-        <v>1129</v>
-      </c>
-    </row>
-    <row r="173" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B173" t="s">
-        <v>1130</v>
-      </c>
-      <c r="C173" t="s">
-        <v>1131</v>
-      </c>
-      <c r="D173" t="s">
-        <v>1132</v>
-      </c>
-      <c r="E173" s="1" t="s">
-        <v>1059</v>
-      </c>
-      <c r="F173" s="1" t="s">
-        <v>1126</v>
-      </c>
-      <c r="G173" t="s">
-        <v>1133</v>
-      </c>
-      <c r="H173" t="s">
-        <v>1134</v>
-      </c>
-      <c r="I173" t="s">
-        <v>1134</v>
-      </c>
-      <c r="J173" t="s">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="174" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="174" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B174" t="s">
         <v>276</v>
       </c>
       <c r="C174" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D174" t="s">
+        <v>1123</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="F174" s="1" t="s">
+        <v>1124</v>
+      </c>
+      <c r="G174" t="s">
+        <v>1125</v>
+      </c>
+      <c r="H174" t="s">
+        <v>1126</v>
+      </c>
+      <c r="I174" t="s">
+        <v>1126</v>
+      </c>
+      <c r="J174" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="175" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B175" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C175" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D175" t="s">
+        <v>1130</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="F175" s="1" t="s">
+        <v>1124</v>
+      </c>
+      <c r="G175" t="s">
+        <v>1131</v>
+      </c>
+      <c r="H175" t="s">
+        <v>1132</v>
+      </c>
+      <c r="I175" t="s">
+        <v>1132</v>
+      </c>
+      <c r="J175" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="176" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B176" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C176" s="4" t="s">
+        <v>1369</v>
+      </c>
+      <c r="D176" t="s">
+        <v>1135</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="F176" s="1" t="s">
         <v>1136</v>
       </c>
-      <c r="D174" t="s">
+      <c r="G176" t="s">
         <v>1137</v>
       </c>
-      <c r="E174" s="1" t="s">
-        <v>1059</v>
-      </c>
-      <c r="F174" s="1" t="s">
+      <c r="H176" t="s">
         <v>1138</v>
       </c>
-      <c r="G174" t="s">
+      <c r="I176" t="s">
+        <v>1138</v>
+      </c>
+      <c r="J176" t="s">
         <v>1139</v>
       </c>
-      <c r="H174" t="s">
+    </row>
+    <row r="177" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B177" t="s">
         <v>1140</v>
       </c>
-      <c r="I174" t="s">
-        <v>1140</v>
-      </c>
-      <c r="J174" t="s">
+      <c r="C177" t="s">
         <v>1141</v>
       </c>
-    </row>
-    <row r="175" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B175" t="s">
+      <c r="D177" t="s">
         <v>1142</v>
       </c>
-      <c r="C175" t="s">
+      <c r="E177" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="F177" s="1" t="s">
+        <v>1136</v>
+      </c>
+      <c r="G177" t="s">
         <v>1143</v>
       </c>
-      <c r="D175" t="s">
+      <c r="H177" t="s">
         <v>1144</v>
       </c>
-      <c r="E175" s="1" t="s">
-        <v>1059</v>
-      </c>
-      <c r="F175" s="1" t="s">
-        <v>1138</v>
-      </c>
-      <c r="G175" t="s">
+      <c r="I177" t="s">
+        <v>1144</v>
+      </c>
+      <c r="J177" t="s">
         <v>1145</v>
       </c>
-      <c r="H175" t="s">
+    </row>
+    <row r="178" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B178" t="s">
         <v>1146</v>
       </c>
-      <c r="I175" t="s">
-        <v>1146</v>
-      </c>
-      <c r="J175" t="s">
+      <c r="C178" s="4" t="s">
+        <v>1370</v>
+      </c>
+      <c r="D178" t="s">
         <v>1147</v>
       </c>
-    </row>
-    <row r="176" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B176" t="s">
+      <c r="E178" s="1" t="s">
         <v>1148</v>
       </c>
-      <c r="C176" t="s">
+      <c r="F178" s="1" t="s">
         <v>1149</v>
       </c>
-      <c r="D176" t="s">
+      <c r="G178" t="s">
         <v>1150</v>
       </c>
-      <c r="E176" s="1" t="s">
-        <v>1059</v>
-      </c>
-      <c r="F176" s="1" t="s">
+      <c r="H178" t="s">
         <v>1151</v>
       </c>
-      <c r="G176" t="s">
+      <c r="I178" t="s">
+        <v>1151</v>
+      </c>
+      <c r="J178" t="s">
         <v>1152</v>
       </c>
-      <c r="H176" t="s">
+    </row>
+    <row r="179" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B179" t="s">
         <v>1153</v>
       </c>
-      <c r="I176" t="s">
-        <v>1153</v>
-      </c>
-      <c r="J176" t="s">
+      <c r="C179" s="4" t="s">
+        <v>1371</v>
+      </c>
+      <c r="D179" t="s">
         <v>1154</v>
       </c>
-    </row>
-    <row r="177" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B177" t="s">
+      <c r="E179" s="1" t="s">
+        <v>1148</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>1149</v>
+      </c>
+      <c r="G179" t="s">
         <v>1155</v>
       </c>
-      <c r="C177" t="s">
+      <c r="H179" t="s">
         <v>1156</v>
       </c>
-      <c r="D177" t="s">
+      <c r="I179" t="s">
+        <v>1156</v>
+      </c>
+      <c r="J179" t="s">
         <v>1157</v>
       </c>
-      <c r="E177" s="1" t="s">
-        <v>1059</v>
-      </c>
-      <c r="F177" s="1" t="s">
-        <v>1151</v>
-      </c>
-      <c r="G177" t="s">
+    </row>
+    <row r="180" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B180" t="s">
         <v>1158</v>
       </c>
-      <c r="H177" t="s">
+      <c r="C180" t="s">
         <v>1159</v>
       </c>
-      <c r="I177" t="s">
-        <v>1159</v>
-      </c>
-      <c r="J177" t="s">
+      <c r="D180" t="s">
         <v>1160</v>
       </c>
-    </row>
-    <row r="178" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B178" t="s">
+      <c r="E180" s="1" t="s">
+        <v>1148</v>
+      </c>
+      <c r="F180" s="1" t="s">
         <v>1161</v>
       </c>
-      <c r="C178" t="s">
+      <c r="G180" t="s">
         <v>1162</v>
       </c>
-      <c r="D178" t="s">
+      <c r="H180" t="s">
         <v>1163</v>
       </c>
-      <c r="E178" s="1" t="s">
+      <c r="I180" t="s">
+        <v>1163</v>
+      </c>
+      <c r="J180" t="s">
         <v>1164</v>
       </c>
-      <c r="F178" s="1" t="s">
+    </row>
+    <row r="181" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B181" t="s">
         <v>1165</v>
       </c>
-      <c r="G178" t="s">
+      <c r="C181" t="s">
         <v>1166</v>
       </c>
-      <c r="H178" t="s">
+      <c r="D181" t="s">
         <v>1167</v>
       </c>
-      <c r="I178" t="s">
-        <v>1167</v>
-      </c>
-      <c r="J178" t="s">
+      <c r="E181" s="1" t="s">
+        <v>1148</v>
+      </c>
+      <c r="F181" s="1" t="s">
+        <v>1161</v>
+      </c>
+      <c r="G181" t="s">
         <v>1168</v>
       </c>
-    </row>
-    <row r="179" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B179" t="s">
+      <c r="H181" t="s">
         <v>1169</v>
       </c>
-      <c r="C179" t="s">
+      <c r="I181" t="s">
+        <v>1169</v>
+      </c>
+      <c r="J181" t="s">
         <v>1170</v>
       </c>
-      <c r="D179" t="s">
+    </row>
+    <row r="182" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B182" t="s">
         <v>1171</v>
       </c>
-      <c r="E179" s="1" t="s">
-        <v>1164</v>
-      </c>
-      <c r="F179" s="1" t="s">
-        <v>1165</v>
-      </c>
-      <c r="G179" t="s">
+      <c r="C182" t="s">
         <v>1172</v>
       </c>
-      <c r="H179" t="s">
+      <c r="D182" t="s">
         <v>1173</v>
       </c>
-      <c r="I179" t="s">
-        <v>1173</v>
-      </c>
-      <c r="J179" t="s">
+      <c r="E182" s="1" t="s">
+        <v>1148</v>
+      </c>
+      <c r="F182" s="1" t="s">
         <v>1174</v>
       </c>
-    </row>
-    <row r="180" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B180" t="s">
+      <c r="G182" t="s">
         <v>1175</v>
       </c>
-      <c r="C180" t="s">
+      <c r="H182" t="s">
         <v>1176</v>
       </c>
-      <c r="D180" t="s">
+      <c r="I182" t="s">
+        <v>1176</v>
+      </c>
+      <c r="J182" t="s">
         <v>1177</v>
       </c>
-      <c r="E180" s="1" t="s">
-        <v>1164</v>
-      </c>
-      <c r="F180" s="1" t="s">
+    </row>
+    <row r="183" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B183" t="s">
         <v>1178</v>
       </c>
-      <c r="G180" t="s">
+      <c r="C183" t="s">
         <v>1179</v>
       </c>
-      <c r="H180" t="s">
+      <c r="D183" t="s">
         <v>1180</v>
       </c>
-      <c r="I180" t="s">
-        <v>1180</v>
-      </c>
-      <c r="J180" t="s">
+      <c r="E183" s="1" t="s">
+        <v>1148</v>
+      </c>
+      <c r="F183" s="1" t="s">
+        <v>1174</v>
+      </c>
+      <c r="G183" t="s">
         <v>1181</v>
       </c>
-    </row>
-    <row r="181" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B181" t="s">
+      <c r="H183" t="s">
         <v>1182</v>
       </c>
-      <c r="C181" t="s">
+      <c r="I183" t="s">
+        <v>1182</v>
+      </c>
+      <c r="J183" t="s">
         <v>1183</v>
       </c>
-      <c r="D181" t="s">
+    </row>
+    <row r="184" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B184" t="s">
         <v>1184</v>
       </c>
-      <c r="E181" s="1" t="s">
-        <v>1164</v>
-      </c>
-      <c r="F181" s="1" t="s">
-        <v>1178</v>
-      </c>
-      <c r="G181" t="s">
+      <c r="C184" t="s">
         <v>1185</v>
       </c>
-      <c r="H181" t="s">
+      <c r="D184" t="s">
         <v>1186</v>
       </c>
-      <c r="I181" t="s">
-        <v>1186</v>
-      </c>
-      <c r="J181" t="s">
+      <c r="E184" s="1" t="s">
+        <v>1148</v>
+      </c>
+      <c r="F184" s="1" t="s">
         <v>1187</v>
       </c>
-    </row>
-    <row r="182" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B182" t="s">
+      <c r="G184" t="s">
         <v>1188</v>
       </c>
-      <c r="C182" t="s">
+      <c r="H184" t="s">
         <v>1189</v>
       </c>
-      <c r="D182" t="s">
+      <c r="I184" t="s">
+        <v>1189</v>
+      </c>
+      <c r="J184" t="s">
         <v>1190</v>
       </c>
-      <c r="E182" s="1" t="s">
-        <v>1164</v>
-      </c>
-      <c r="F182" s="1" t="s">
+    </row>
+    <row r="185" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B185" t="s">
         <v>1191</v>
       </c>
-      <c r="G182" t="s">
+      <c r="C185" s="4" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D185" t="s">
         <v>1192</v>
       </c>
-      <c r="H182" t="s">
+      <c r="E185" s="1" t="s">
+        <v>1148</v>
+      </c>
+      <c r="F185" s="1" t="s">
+        <v>1187</v>
+      </c>
+      <c r="G185" t="s">
         <v>1193</v>
       </c>
-      <c r="I182" t="s">
-        <v>1193</v>
-      </c>
-      <c r="J182" t="s">
+      <c r="H185" t="s">
         <v>1194</v>
       </c>
-    </row>
-    <row r="183" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B183" t="s">
+      <c r="I185" t="s">
+        <v>1194</v>
+      </c>
+      <c r="J185" t="s">
         <v>1195</v>
       </c>
-      <c r="C183" t="s">
+    </row>
+    <row r="186" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B186" t="s">
         <v>1196</v>
       </c>
-      <c r="D183" t="s">
+      <c r="C186" t="s">
         <v>1197</v>
       </c>
-      <c r="E183" s="1" t="s">
-        <v>1164</v>
-      </c>
-      <c r="F183" s="1" t="s">
-        <v>1191</v>
-      </c>
-      <c r="G183" t="s">
+      <c r="D186" t="s">
         <v>1198</v>
       </c>
-      <c r="H183" t="s">
+      <c r="E186" s="1" t="s">
+        <v>1148</v>
+      </c>
+      <c r="F186" s="1" t="s">
         <v>1199</v>
       </c>
-      <c r="I183" t="s">
+      <c r="G186" t="s">
+        <v>1200</v>
+      </c>
+      <c r="H186" t="s">
+        <v>1201</v>
+      </c>
+      <c r="I186" t="s">
+        <v>1201</v>
+      </c>
+      <c r="J186" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="187" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B187" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C187" s="4" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D187" t="s">
+        <v>1204</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>1148</v>
+      </c>
+      <c r="F187" s="1" t="s">
         <v>1199</v>
       </c>
-      <c r="J183" t="s">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="184" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B184" t="s">
-        <v>1201</v>
-      </c>
-      <c r="C184" t="s">
-        <v>1202</v>
-      </c>
-      <c r="D184" t="s">
-        <v>1203</v>
-      </c>
-      <c r="E184" s="1" t="s">
-        <v>1164</v>
-      </c>
-      <c r="F184" s="1" t="s">
-        <v>1204</v>
-      </c>
-      <c r="G184" t="s">
+      <c r="G187" t="s">
         <v>1205</v>
       </c>
-      <c r="H184" t="s">
+      <c r="H187" t="s">
         <v>1206</v>
       </c>
-      <c r="I184" t="s">
+      <c r="I187" t="s">
         <v>1206</v>
       </c>
-      <c r="J184" t="s">
+      <c r="J187" t="s">
         <v>1207</v>
       </c>
     </row>
-    <row r="185" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B185" t="s">
+    <row r="188" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B188" t="s">
         <v>1208</v>
       </c>
-      <c r="C185" t="s">
+      <c r="C188" t="s">
         <v>1209</v>
       </c>
-      <c r="D185" t="s">
+      <c r="D188" t="s">
         <v>1210</v>
       </c>
-      <c r="E185" s="1" t="s">
-        <v>1164</v>
-      </c>
-      <c r="F185" s="1" t="s">
-        <v>1204</v>
-      </c>
-      <c r="G185" t="s">
+      <c r="E188" s="1" t="s">
+        <v>1148</v>
+      </c>
+      <c r="F188" s="1" t="s">
         <v>1211</v>
       </c>
-      <c r="H185" t="s">
+      <c r="G188" t="s">
         <v>1212</v>
       </c>
-      <c r="I185" t="s">
-        <v>1212</v>
-      </c>
-      <c r="J185" t="s">
+      <c r="H188" t="s">
         <v>1213</v>
       </c>
-    </row>
-    <row r="186" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B186" t="s">
+      <c r="I188" t="s">
+        <v>1213</v>
+      </c>
+      <c r="J188" t="s">
         <v>1214</v>
       </c>
-      <c r="C186" t="s">
+    </row>
+    <row r="189" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B189" t="s">
         <v>1215</v>
       </c>
-      <c r="D186" t="s">
+      <c r="C189" t="s">
         <v>1216</v>
       </c>
-      <c r="E186" s="1" t="s">
-        <v>1164</v>
-      </c>
-      <c r="F186" s="1" t="s">
+      <c r="D189" t="s">
         <v>1217</v>
       </c>
-      <c r="G186" t="s">
+      <c r="E189" s="1" t="s">
+        <v>1148</v>
+      </c>
+      <c r="F189" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="G189" t="s">
         <v>1218</v>
       </c>
-      <c r="H186" t="s">
+      <c r="H189" t="s">
         <v>1219</v>
       </c>
-      <c r="I186" t="s">
+      <c r="I189" t="s">
         <v>1219</v>
       </c>
-      <c r="J186" t="s">
+      <c r="J189" t="s">
         <v>1220</v>
       </c>
     </row>
-    <row r="187" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B187" t="s">
+    <row r="190" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B190" t="s">
         <v>1221</v>
       </c>
-      <c r="C187" t="s">
+      <c r="C190" t="s">
         <v>1222</v>
       </c>
-      <c r="D187" t="s">
+      <c r="D190" t="s">
         <v>1223</v>
       </c>
-      <c r="E187" s="1" t="s">
-        <v>1164</v>
-      </c>
-      <c r="F187" s="1" t="s">
-        <v>1217</v>
-      </c>
-      <c r="G187" t="s">
+      <c r="E190" s="1" t="s">
+        <v>1148</v>
+      </c>
+      <c r="F190" s="1" t="s">
         <v>1224</v>
       </c>
-      <c r="H187" t="s">
+      <c r="G190" t="s">
         <v>1225</v>
       </c>
-      <c r="I187" t="s">
-        <v>1225</v>
-      </c>
-      <c r="J187" t="s">
+      <c r="H190" t="s">
         <v>1226</v>
       </c>
-    </row>
-    <row r="188" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B188" t="s">
+      <c r="I190" t="s">
+        <v>1226</v>
+      </c>
+      <c r="J190" t="s">
         <v>1227</v>
       </c>
-      <c r="C188" t="s">
+    </row>
+    <row r="191" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B191" t="s">
         <v>1228</v>
       </c>
-      <c r="D188" t="s">
+      <c r="C191" t="s">
         <v>1229</v>
       </c>
-      <c r="E188" s="1" t="s">
-        <v>1164</v>
-      </c>
-      <c r="F188" s="1" t="s">
+      <c r="D191" t="s">
         <v>1230</v>
       </c>
-      <c r="G188" t="s">
+      <c r="E191" s="1" t="s">
+        <v>1148</v>
+      </c>
+      <c r="F191" s="1" t="s">
+        <v>1224</v>
+      </c>
+      <c r="G191" t="s">
         <v>1231</v>
       </c>
-      <c r="H188" t="s">
+      <c r="H191" t="s">
         <v>1232</v>
       </c>
-      <c r="I188" t="s">
+      <c r="I191" t="s">
         <v>1232</v>
       </c>
-      <c r="J188" t="s">
+      <c r="J191" t="s">
         <v>1233</v>
       </c>
     </row>
-    <row r="189" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B189" t="s">
+    <row r="192" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B192" t="s">
         <v>1234</v>
       </c>
-      <c r="C189" t="s">
+      <c r="C192" s="4" t="s">
+        <v>1356</v>
+      </c>
+      <c r="D192" t="s">
         <v>1235</v>
       </c>
-      <c r="D189" t="s">
+      <c r="E192" s="1" t="s">
+        <v>1148</v>
+      </c>
+      <c r="F192" s="1" t="s">
         <v>1236</v>
       </c>
-      <c r="E189" s="1" t="s">
-        <v>1164</v>
-      </c>
-      <c r="F189" s="1" t="s">
-        <v>1230</v>
-      </c>
-      <c r="G189" t="s">
+      <c r="G192" t="s">
         <v>1237</v>
       </c>
-      <c r="H189" t="s">
+      <c r="H192" t="s">
         <v>1238</v>
       </c>
-      <c r="I189" t="s">
+      <c r="I192" t="s">
         <v>1238</v>
       </c>
-      <c r="J189" t="s">
+      <c r="J192" t="s">
         <v>1239</v>
       </c>
     </row>
-    <row r="190" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B190" t="s">
+    <row r="193" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B193" t="s">
         <v>1240</v>
       </c>
-      <c r="C190" t="s">
+      <c r="C193" t="s">
         <v>1241</v>
       </c>
-      <c r="D190" t="s">
+      <c r="D193" t="s">
         <v>1242</v>
       </c>
-      <c r="E190" s="1" t="s">
-        <v>1164</v>
-      </c>
-      <c r="F190" s="1" t="s">
+      <c r="E193" s="1" t="s">
+        <v>1148</v>
+      </c>
+      <c r="F193" s="1" t="s">
+        <v>1236</v>
+      </c>
+      <c r="G193" t="s">
         <v>1243</v>
       </c>
-      <c r="G190" t="s">
+      <c r="H193" t="s">
         <v>1244</v>
       </c>
-      <c r="H190" t="s">
+      <c r="I193" t="s">
+        <v>1244</v>
+      </c>
+      <c r="J193" t="s">
         <v>1245</v>
       </c>
-      <c r="I190" t="s">
-        <v>1245</v>
-      </c>
-      <c r="J190" t="s">
+    </row>
+    <row r="194" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B194" t="s">
         <v>1246</v>
       </c>
-    </row>
-    <row r="191" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B191" t="s">
+      <c r="C194" t="s">
         <v>1247</v>
       </c>
-      <c r="C191" t="s">
+      <c r="D194" t="s">
         <v>1248</v>
       </c>
-      <c r="D191" t="s">
+      <c r="E194" s="1" t="s">
         <v>1249</v>
       </c>
-      <c r="E191" s="1" t="s">
-        <v>1164</v>
-      </c>
-      <c r="F191" s="1" t="s">
-        <v>1243</v>
-      </c>
-      <c r="G191" t="s">
+      <c r="F194" s="1" t="s">
         <v>1250</v>
       </c>
-      <c r="H191" t="s">
+      <c r="G194" t="s">
         <v>1251</v>
       </c>
-      <c r="I191" t="s">
-        <v>1251</v>
-      </c>
-      <c r="J191" t="s">
+      <c r="H194" t="s">
         <v>1252</v>
       </c>
-    </row>
-    <row r="192" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B192" t="s">
+      <c r="I194" t="s">
+        <v>1252</v>
+      </c>
+      <c r="J194" t="s">
         <v>1253</v>
       </c>
-      <c r="C192" t="s">
+    </row>
+    <row r="195" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B195" t="s">
         <v>1254</v>
       </c>
-      <c r="D192" t="s">
+      <c r="C195" t="s">
         <v>1255</v>
       </c>
-      <c r="E192" s="1" t="s">
-        <v>1164</v>
-      </c>
-      <c r="F192" s="1" t="s">
+      <c r="D195" t="s">
         <v>1256</v>
       </c>
-      <c r="G192" t="s">
+      <c r="E195" s="1" t="s">
+        <v>1249</v>
+      </c>
+      <c r="F195" s="1" t="s">
+        <v>1250</v>
+      </c>
+      <c r="G195" t="s">
         <v>1257</v>
       </c>
-      <c r="H192" t="s">
+      <c r="H195" t="s">
         <v>1258</v>
       </c>
-      <c r="I192" t="s">
+      <c r="I195" t="s">
         <v>1258</v>
       </c>
-      <c r="J192" t="s">
+      <c r="J195" t="s">
         <v>1259</v>
       </c>
     </row>
-    <row r="193" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B193" t="s">
+    <row r="196" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B196" t="s">
         <v>1260</v>
       </c>
-      <c r="C193" t="s">
+      <c r="C196" t="s">
         <v>1261</v>
       </c>
-      <c r="D193" t="s">
+      <c r="D196" t="s">
         <v>1262</v>
       </c>
-      <c r="E193" s="1" t="s">
-        <v>1164</v>
-      </c>
-      <c r="F193" s="1" t="s">
-        <v>1256</v>
-      </c>
-      <c r="G193" t="s">
+      <c r="E196" s="1" t="s">
+        <v>1249</v>
+      </c>
+      <c r="F196" s="1" t="s">
         <v>1263</v>
       </c>
-      <c r="H193" t="s">
+      <c r="G196" t="s">
         <v>1264</v>
       </c>
-      <c r="I193" t="s">
-        <v>1264</v>
-      </c>
-      <c r="J193" t="s">
+      <c r="H196" t="s">
         <v>1265</v>
       </c>
-    </row>
-    <row r="194" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B194" t="s">
+      <c r="I196" t="s">
+        <v>1265</v>
+      </c>
+      <c r="J196" t="s">
         <v>1266</v>
       </c>
-      <c r="C194" t="s">
+    </row>
+    <row r="197" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B197" t="s">
         <v>1267</v>
       </c>
-      <c r="D194" t="s">
+      <c r="C197" t="s">
         <v>1268</v>
       </c>
-      <c r="E194" s="1" t="s">
+      <c r="D197" t="s">
         <v>1269</v>
       </c>
-      <c r="F194" s="1" t="s">
+      <c r="E197" s="1" t="s">
+        <v>1249</v>
+      </c>
+      <c r="F197" s="1" t="s">
+        <v>1263</v>
+      </c>
+      <c r="G197" t="s">
         <v>1270</v>
       </c>
-      <c r="G194" t="s">
+      <c r="H197" t="s">
         <v>1271</v>
       </c>
-      <c r="H194" t="s">
+      <c r="I197" t="s">
+        <v>1271</v>
+      </c>
+      <c r="J197" t="s">
         <v>1272</v>
       </c>
-      <c r="I194" t="s">
-        <v>1272</v>
-      </c>
-      <c r="J194" t="s">
+    </row>
+    <row r="198" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B198" t="s">
         <v>1273</v>
       </c>
-    </row>
-    <row r="195" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B195" t="s">
+      <c r="C198" t="s">
         <v>1274</v>
       </c>
-      <c r="C195" t="s">
+      <c r="D198" t="s">
         <v>1275</v>
       </c>
-      <c r="D195" t="s">
+      <c r="E198" s="1" t="s">
+        <v>1249</v>
+      </c>
+      <c r="F198" s="1" t="s">
         <v>1276</v>
       </c>
-      <c r="E195" s="1" t="s">
-        <v>1269</v>
-      </c>
-      <c r="F195" s="1" t="s">
-        <v>1270</v>
-      </c>
-      <c r="G195" t="s">
+      <c r="G198" t="s">
         <v>1277</v>
       </c>
-      <c r="H195" t="s">
+      <c r="H198" t="s">
         <v>1278</v>
       </c>
-      <c r="I195" t="s">
+      <c r="I198" t="s">
         <v>1278</v>
       </c>
-      <c r="J195" t="s">
+      <c r="J198" t="s">
         <v>1279</v>
       </c>
     </row>
-    <row r="196" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B196" t="s">
-        <v>1280</v>
-      </c>
-      <c r="C196" t="s">
-        <v>1281</v>
-      </c>
-      <c r="D196" t="s">
-        <v>1282</v>
-      </c>
-      <c r="E196" s="1" t="s">
-        <v>1269</v>
-      </c>
-      <c r="F196" s="1" t="s">
-        <v>1283</v>
-      </c>
-      <c r="G196" t="s">
-        <v>1284</v>
-      </c>
-      <c r="H196" t="s">
-        <v>1285</v>
-      </c>
-      <c r="I196" t="s">
-        <v>1285</v>
-      </c>
-      <c r="J196" t="s">
-        <v>1286</v>
-      </c>
-    </row>
-    <row r="197" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B197" t="s">
-        <v>1287</v>
-      </c>
-      <c r="C197" t="s">
-        <v>1288</v>
-      </c>
-      <c r="D197" t="s">
-        <v>1289</v>
-      </c>
-      <c r="E197" s="1" t="s">
-        <v>1269</v>
-      </c>
-      <c r="F197" s="1" t="s">
-        <v>1283</v>
-      </c>
-      <c r="G197" t="s">
-        <v>1290</v>
-      </c>
-      <c r="H197" t="s">
-        <v>1291</v>
-      </c>
-      <c r="I197" t="s">
-        <v>1291</v>
-      </c>
-      <c r="J197" t="s">
-        <v>1292</v>
-      </c>
-    </row>
-    <row r="198" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B198" t="s">
-        <v>1293</v>
-      </c>
-      <c r="C198" t="s">
-        <v>1294</v>
-      </c>
-      <c r="D198" t="s">
-        <v>1295</v>
-      </c>
-      <c r="E198" s="1" t="s">
-        <v>1269</v>
-      </c>
-      <c r="F198" s="1" t="s">
-        <v>1296</v>
-      </c>
-      <c r="G198" t="s">
-        <v>1297</v>
-      </c>
-      <c r="H198" t="s">
-        <v>1298</v>
-      </c>
-      <c r="I198" t="s">
-        <v>1298</v>
-      </c>
-      <c r="J198" t="s">
-        <v>1299</v>
-      </c>
-    </row>
-    <row r="199" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B199" t="s">
         <v>276</v>
       </c>
       <c r="C199" t="s">
+        <v>1280</v>
+      </c>
+      <c r="D199" t="s">
+        <v>1281</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>1249</v>
+      </c>
+      <c r="F199" s="1" t="s">
+        <v>1276</v>
+      </c>
+      <c r="G199" t="s">
+        <v>1282</v>
+      </c>
+      <c r="H199" t="s">
+        <v>1283</v>
+      </c>
+      <c r="I199" t="s">
+        <v>1283</v>
+      </c>
+      <c r="J199" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="200" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B200" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C200" t="s">
+        <v>1286</v>
+      </c>
+      <c r="D200" t="s">
+        <v>1287</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>1249</v>
+      </c>
+      <c r="F200" s="1" t="s">
+        <v>1288</v>
+      </c>
+      <c r="G200" t="s">
+        <v>1289</v>
+      </c>
+      <c r="H200" t="s">
+        <v>1290</v>
+      </c>
+      <c r="I200" t="s">
+        <v>1290</v>
+      </c>
+      <c r="J200" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="201" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B201" t="s">
+        <v>1292</v>
+      </c>
+      <c r="C201" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D201" t="s">
+        <v>1294</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>1249</v>
+      </c>
+      <c r="F201" s="1" t="s">
+        <v>1288</v>
+      </c>
+      <c r="G201" t="s">
+        <v>1295</v>
+      </c>
+      <c r="H201" t="s">
+        <v>1296</v>
+      </c>
+      <c r="I201" t="s">
+        <v>1296</v>
+      </c>
+      <c r="J201" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="202" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B202" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C202" t="s">
+        <v>1299</v>
+      </c>
+      <c r="D202" t="s">
         <v>1300</v>
       </c>
-      <c r="D199" t="s">
+      <c r="E202" s="1" t="s">
+        <v>1249</v>
+      </c>
+      <c r="F202" s="1" t="s">
         <v>1301</v>
       </c>
-      <c r="E199" s="1" t="s">
-        <v>1269</v>
-      </c>
-      <c r="F199" s="1" t="s">
-        <v>1296</v>
-      </c>
-      <c r="G199" t="s">
+      <c r="G202" t="s">
         <v>1302</v>
       </c>
-      <c r="H199" t="s">
+      <c r="H202" t="s">
         <v>1303</v>
       </c>
-      <c r="I199" t="s">
+      <c r="I202" t="s">
         <v>1303</v>
       </c>
-      <c r="J199" t="s">
+      <c r="J202" t="s">
         <v>1304</v>
       </c>
     </row>
-    <row r="200" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B200" t="s">
+    <row r="203" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B203" t="s">
         <v>1305</v>
       </c>
-      <c r="C200" t="s">
+      <c r="C203" t="s">
         <v>1306</v>
       </c>
-      <c r="D200" t="s">
+      <c r="D203" t="s">
         <v>1307</v>
       </c>
-      <c r="E200" s="1" t="s">
-        <v>1269</v>
-      </c>
-      <c r="F200" s="1" t="s">
+      <c r="E203" s="1" t="s">
+        <v>1249</v>
+      </c>
+      <c r="F203" s="1" t="s">
+        <v>1301</v>
+      </c>
+      <c r="G203" t="s">
         <v>1308</v>
       </c>
-      <c r="G200" t="s">
+      <c r="H203" t="s">
         <v>1309</v>
       </c>
-      <c r="H200" t="s">
+      <c r="I203" t="s">
+        <v>1309</v>
+      </c>
+      <c r="J203" t="s">
         <v>1310</v>
       </c>
-      <c r="I200" t="s">
-        <v>1310</v>
-      </c>
-      <c r="J200" t="s">
+    </row>
+    <row r="204" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B204" t="s">
         <v>1311</v>
       </c>
-    </row>
-    <row r="201" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B201" t="s">
+      <c r="C204" t="s">
         <v>1312</v>
       </c>
-      <c r="C201" t="s">
+      <c r="D204" t="s">
         <v>1313</v>
       </c>
-      <c r="D201" t="s">
+      <c r="E204" s="1" t="s">
+        <v>1249</v>
+      </c>
+      <c r="F204" s="1" t="s">
         <v>1314</v>
       </c>
-      <c r="E201" s="1" t="s">
-        <v>1269</v>
-      </c>
-      <c r="F201" s="1" t="s">
-        <v>1308</v>
-      </c>
-      <c r="G201" t="s">
+      <c r="G204" t="s">
         <v>1315</v>
       </c>
-      <c r="H201" t="s">
+      <c r="H204" t="s">
         <v>1316</v>
       </c>
-      <c r="I201" t="s">
+      <c r="I204" t="s">
         <v>1316</v>
       </c>
-      <c r="J201" t="s">
+      <c r="J204" t="s">
         <v>1317</v>
       </c>
     </row>
-    <row r="202" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B202" t="s">
+    <row r="205" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B205" t="s">
         <v>1318</v>
       </c>
-      <c r="C202" t="s">
+      <c r="C205" t="s">
         <v>1319</v>
       </c>
-      <c r="D202" t="s">
+      <c r="D205" t="s">
         <v>1320</v>
       </c>
-      <c r="E202" s="1" t="s">
-        <v>1269</v>
-      </c>
-      <c r="F202" s="1" t="s">
+      <c r="E205" s="1" t="s">
+        <v>1249</v>
+      </c>
+      <c r="F205" s="1" t="s">
+        <v>1314</v>
+      </c>
+      <c r="G205" t="s">
         <v>1321</v>
       </c>
-      <c r="G202" t="s">
+      <c r="H205" t="s">
         <v>1322</v>
       </c>
-      <c r="H202" t="s">
+      <c r="I205" t="s">
+        <v>1322</v>
+      </c>
+      <c r="J205" t="s">
         <v>1323</v>
       </c>
-      <c r="I202" t="s">
-        <v>1323</v>
-      </c>
-      <c r="J202" t="s">
+    </row>
+    <row r="206" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B206" t="s">
         <v>1324</v>
       </c>
-    </row>
-    <row r="203" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B203" t="s">
+      <c r="C206" t="s">
         <v>1325</v>
       </c>
-      <c r="C203" t="s">
+      <c r="D206" t="s">
         <v>1326</v>
       </c>
-      <c r="D203" t="s">
+      <c r="E206" s="1" t="s">
+        <v>1249</v>
+      </c>
+      <c r="F206" s="1" t="s">
         <v>1327</v>
       </c>
-      <c r="E203" s="1" t="s">
-        <v>1269</v>
-      </c>
-      <c r="F203" s="1" t="s">
-        <v>1321</v>
-      </c>
-      <c r="G203" t="s">
+      <c r="G206" t="s">
         <v>1328</v>
       </c>
-      <c r="H203" t="s">
+      <c r="H206" t="s">
         <v>1329</v>
       </c>
-      <c r="I203" t="s">
+      <c r="I206" t="s">
         <v>1329</v>
       </c>
-      <c r="J203" t="s">
+      <c r="J206" t="s">
         <v>1330</v>
       </c>
     </row>
-    <row r="204" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B204" t="s">
+    <row r="207" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B207" t="s">
         <v>1331</v>
       </c>
-      <c r="C204" t="s">
+      <c r="C207" t="s">
         <v>1332</v>
       </c>
-      <c r="D204" t="s">
+      <c r="D207" t="s">
         <v>1333</v>
       </c>
-      <c r="E204" s="1" t="s">
-        <v>1269</v>
-      </c>
-      <c r="F204" s="1" t="s">
+      <c r="E207" s="1" t="s">
+        <v>1249</v>
+      </c>
+      <c r="F207" s="1" t="s">
+        <v>1327</v>
+      </c>
+      <c r="G207" t="s">
         <v>1334</v>
       </c>
-      <c r="G204" t="s">
+      <c r="H207" t="s">
         <v>1335</v>
       </c>
-      <c r="H204" t="s">
+      <c r="I207" t="s">
+        <v>1335</v>
+      </c>
+      <c r="J207" t="s">
         <v>1336</v>
       </c>
-      <c r="I204" t="s">
-        <v>1336</v>
-      </c>
-      <c r="J204" t="s">
+    </row>
+    <row r="208" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B208" t="s">
         <v>1337</v>
       </c>
-    </row>
-    <row r="205" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B205" t="s">
+      <c r="C208" t="s">
         <v>1338</v>
       </c>
-      <c r="C205" t="s">
+      <c r="D208" t="s">
         <v>1339</v>
       </c>
-      <c r="D205" t="s">
+      <c r="E208" s="1" t="s">
+        <v>1249</v>
+      </c>
+      <c r="F208" s="1" t="s">
         <v>1340</v>
       </c>
-      <c r="E205" s="1" t="s">
-        <v>1269</v>
-      </c>
-      <c r="F205" s="1" t="s">
-        <v>1334</v>
-      </c>
-      <c r="G205" t="s">
+      <c r="G208" t="s">
         <v>1341</v>
       </c>
-      <c r="H205" t="s">
+      <c r="H208" t="s">
         <v>1342</v>
       </c>
-      <c r="I205" t="s">
+      <c r="I208" t="s">
         <v>1342</v>
       </c>
-      <c r="J205" t="s">
+      <c r="J208" t="s">
         <v>1343</v>
       </c>
     </row>
-    <row r="206" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B206" t="s">
+    <row r="209" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B209" t="s">
         <v>1344</v>
       </c>
-      <c r="C206" t="s">
+      <c r="C209" t="s">
         <v>1345</v>
       </c>
-      <c r="D206" t="s">
+      <c r="D209" t="s">
         <v>1346</v>
       </c>
-      <c r="E206" s="1" t="s">
-        <v>1269</v>
-      </c>
-      <c r="F206" s="1" t="s">
+      <c r="E209" s="1" t="s">
+        <v>1249</v>
+      </c>
+      <c r="F209" s="1" t="s">
+        <v>1340</v>
+      </c>
+      <c r="G209" t="s">
         <v>1347</v>
       </c>
-      <c r="G206" t="s">
+      <c r="H209" t="s">
         <v>1348</v>
       </c>
-      <c r="H206" t="s">
+      <c r="I209" t="s">
+        <v>1348</v>
+      </c>
+      <c r="J209" t="s">
         <v>1349</v>
       </c>
-      <c r="I206" t="s">
-        <v>1349</v>
-      </c>
-      <c r="J206" t="s">
-        <v>1350</v>
-      </c>
-    </row>
-    <row r="207" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B207" t="s">
-        <v>1351</v>
-      </c>
-      <c r="C207" t="s">
-        <v>1352</v>
-      </c>
-      <c r="D207" t="s">
-        <v>1353</v>
-      </c>
-      <c r="E207" s="1" t="s">
-        <v>1269</v>
-      </c>
-      <c r="F207" s="1" t="s">
-        <v>1347</v>
-      </c>
-      <c r="G207" t="s">
-        <v>1354</v>
-      </c>
-      <c r="H207" t="s">
-        <v>1355</v>
-      </c>
-      <c r="I207" t="s">
-        <v>1355</v>
-      </c>
-      <c r="J207" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="208" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B208" t="s">
-        <v>1357</v>
-      </c>
-      <c r="C208" t="s">
-        <v>1358</v>
-      </c>
-      <c r="D208" t="s">
-        <v>1359</v>
-      </c>
-      <c r="E208" s="1" t="s">
-        <v>1269</v>
-      </c>
-      <c r="F208" s="1" t="s">
-        <v>1360</v>
-      </c>
-      <c r="G208" t="s">
-        <v>1361</v>
-      </c>
-      <c r="H208" t="s">
-        <v>1362</v>
-      </c>
-      <c r="I208" t="s">
-        <v>1362</v>
-      </c>
-      <c r="J208" t="s">
-        <v>1363</v>
-      </c>
-    </row>
-    <row r="209" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B209" t="s">
-        <v>1364</v>
-      </c>
-      <c r="C209" t="s">
-        <v>1365</v>
-      </c>
-      <c r="D209" t="s">
-        <v>1366</v>
-      </c>
-      <c r="E209" s="1" t="s">
-        <v>1269</v>
-      </c>
-      <c r="F209" s="1" t="s">
-        <v>1360</v>
-      </c>
-      <c r="G209" t="s">
-        <v>1367</v>
-      </c>
-      <c r="H209" t="s">
-        <v>1368</v>
-      </c>
-      <c r="I209" t="s">
-        <v>1368</v>
-      </c>
-      <c r="J209" t="s">
-        <v>1369</v>
-      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C162" r:id="rId1" xr:uid="{8AE79B23-2EB4-4D45-A92D-BDDD4F6C762A}"/>
+    <hyperlink ref="C163" r:id="rId2" xr:uid="{411C2598-DDD3-4B4C-A106-EE1EA9D2D599}"/>
+    <hyperlink ref="C156" r:id="rId3" xr:uid="{81677797-E4CE-4CE9-9BF5-1993DDD4EAFD}"/>
+    <hyperlink ref="C192" r:id="rId4" xr:uid="{3CDDC43B-AE88-4B36-ACE2-A531879C5E77}"/>
+    <hyperlink ref="C185" r:id="rId5" xr:uid="{44744F01-CA07-4A97-9861-69A856446E0B}"/>
+    <hyperlink ref="C187" r:id="rId6" xr:uid="{758AB693-C33C-486F-B2CA-3C9A3948C9CD}"/>
+    <hyperlink ref="C68" r:id="rId7" xr:uid="{073CC6EC-630C-4D87-BDAC-AE5A2AD22D04}"/>
+    <hyperlink ref="C70" r:id="rId8" xr:uid="{65B269D3-894B-42B2-B411-BB15CB2F56AC}"/>
+    <hyperlink ref="C74" r:id="rId9" xr:uid="{F6D59A00-C6C7-47EB-8977-BAE5FF5B025D}"/>
+    <hyperlink ref="C60" r:id="rId10" xr:uid="{FA7C7F0B-E1DF-444B-9CEE-8E673405961C}"/>
+    <hyperlink ref="C58" r:id="rId11" xr:uid="{A1BA1C01-E787-4D15-A4D6-9D1D591CFA29}"/>
+    <hyperlink ref="C57" r:id="rId12" xr:uid="{485476FA-F6F1-46BF-9248-B880C191D8E4}"/>
+    <hyperlink ref="C112" r:id="rId13" xr:uid="{2E465482-2D58-459D-9190-AA320A617E6F}"/>
+    <hyperlink ref="C115" r:id="rId14" xr:uid="{1214356F-F592-48C0-A6DD-07F55DB7AB91}"/>
+    <hyperlink ref="C116" r:id="rId15" xr:uid="{589F4422-D767-4CDC-BCF8-D4CC7429CFDF}"/>
+    <hyperlink ref="C119" r:id="rId16" xr:uid="{8036D51D-8CF1-4863-963F-C0E4758F9E08}"/>
+    <hyperlink ref="C176" r:id="rId17" xr:uid="{DD544DBE-E6C8-4F5B-B8A3-568FB0A5AF7F}"/>
+    <hyperlink ref="C178" r:id="rId18" xr:uid="{97E2424D-4A17-489D-B4EE-6E03C76D9066}"/>
+    <hyperlink ref="C179" r:id="rId19" xr:uid="{2703CDA3-B6DE-4DA7-8940-FA469FAACEAA}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId20"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:L3 A107:L149 A105:D105 F105:L105 A106:D106 F106:L106 A152:L209 A150:E150 G150:L150 A151:E151 G151:L151 A6:L104 A4:E4 G4:L4 A5:E5 G5:L5" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:L3 A107:L111 A105:D105 F105:L105 A106:D106 F106:L106 A152:L155 A150:E150 G150:L150 A151:E151 G151:L151 A6:L44 A4:E4 G4:L4 A5:E5 G5:L5 A46:L56 A45:B45 D45:L45 A164:L175 A162:B162 D162:L162 A163:B163 D163:L163 A157:L161 A156:B156 D156:L156 A193:L209 A192:B192 D192:L192 A186:L186 A185:B185 D185:L185 A188:L191 A187:B187 D187:L187 A69:L69 A68:B68 D68:L68 A71:L73 A70:B70 D70:L70 A75:L104 A74:B74 D74:L74 A61:L67 A60:B60 D60:L60 A59:L59 A58:B58 D58:L58 A57:B57 D57:L57 A113:L114 A112:B112 D112:L112 A117:L118 A115:B115 D115:L115 A116:B116 D116:L116 A120:L149 A119:B119 D119:L119 A177:L177 A176:B176 D176:L176 A180:L184 A178:B178 D178:L178 A179:B179 D179:L179" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/public/excel/cbosexcel.xlsx
+++ b/public/excel/cbosexcel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\accomisfinal\public\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACOMIN IT SUPPORT\Documents\ACCOMIS\After Training Update\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14358F44-506C-4043-8AF5-99E086D68949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{796CECD9-8709-41A1-A17D-F8734FAD1C49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -397,9 +397,6 @@
     <t>Living Care Community Foundation</t>
   </si>
   <si>
-    <t>Livingcarefoundation@gmail.com</t>
-  </si>
-  <si>
     <t>6254173802</t>
   </si>
   <si>
@@ -496,9 +493,6 @@
     <t xml:space="preserve">Centre For Appropriate Technology For Rural Women </t>
   </si>
   <si>
-    <t>Captec2002@yahoo.com</t>
-  </si>
-  <si>
     <t>5760244697</t>
   </si>
   <si>
@@ -652,9 +646,6 @@
     <t>Save the Feature of Children Initiative (SAFIN)</t>
   </si>
   <si>
-    <t>Safinngo2007@gmail.com</t>
-  </si>
-  <si>
     <t>4969958129</t>
   </si>
   <si>
@@ -754,9 +745,6 @@
     <t>Pearls Care Initiative</t>
   </si>
   <si>
-    <t xml:space="preserve">Tyofittis82@gmail.com </t>
-  </si>
-  <si>
     <t>4476029024</t>
   </si>
   <si>
@@ -949,9 +937,6 @@
     <t>Advocate for Advancement of Economic Growth and Development Initiatives</t>
   </si>
   <si>
-    <t xml:space="preserve">Stephen.adeoye54@gmail.com </t>
-  </si>
-  <si>
     <t>3488170814</t>
   </si>
   <si>
@@ -970,9 +955,6 @@
     <t>Initiative For Social Development</t>
   </si>
   <si>
-    <t>Isodaf4africa@gmail.com</t>
-  </si>
-  <si>
     <t>3389384993</t>
   </si>
   <si>
@@ -1180,6 +1162,9 @@
     <t>Save Our Land</t>
   </si>
   <si>
+    <t>Saveourlandsol2017@gmail.com</t>
+  </si>
+  <si>
     <t>2302740962</t>
   </si>
   <si>
@@ -1429,9 +1414,6 @@
     <t>Initiative for Livelihood Enhancement ( ILE)</t>
   </si>
   <si>
-    <t>Ileeverywhere@gmail.com</t>
-  </si>
-  <si>
     <t>1018525289</t>
   </si>
   <si>
@@ -1582,9 +1564,6 @@
     <t>Reproductive Health Initiative Development</t>
   </si>
   <si>
-    <t>Rhi.s.fawa2020@gmail.com</t>
-  </si>
-  <si>
     <t>228238721.2</t>
   </si>
   <si>
@@ -1702,9 +1681,6 @@
     <t>Coalition of Experts to Fight Against TB, AIDs and Malaria</t>
   </si>
   <si>
-    <t>Cxperts2016@gmail.com,</t>
-  </si>
-  <si>
     <t>-364476204.8</t>
   </si>
   <si>
@@ -1741,9 +1717,6 @@
     <t>Society For Women And Child Health Initiative</t>
   </si>
   <si>
-    <t>Societyforwomenandchild@yahoo.com</t>
-  </si>
-  <si>
     <t>-562047846.8</t>
   </si>
   <si>
@@ -1798,9 +1771,6 @@
     <t>Green pasture and Home Initiative</t>
   </si>
   <si>
-    <t>Pasture2008@yahoo.com</t>
-  </si>
-  <si>
     <t>-858405309.8</t>
   </si>
   <si>
@@ -1837,9 +1807,6 @@
     <t>Health  Development Alternative Initiative</t>
   </si>
   <si>
-    <t>Healthdevelopment2009@gmail.com</t>
-  </si>
-  <si>
     <t>-1055976952</t>
   </si>
   <si>
@@ -1915,9 +1882,6 @@
     <t>Women Economic Empowerment Organization</t>
   </si>
   <si>
-    <t>Jummaigarba2006@yahoo.com</t>
-  </si>
-  <si>
     <t>-1451120236</t>
   </si>
   <si>
@@ -2398,9 +2362,6 @@
     <t>Amrahtu  Baba Memorial Foundation</t>
   </si>
   <si>
-    <t>Subi4me88@gmail.com</t>
-  </si>
-  <si>
     <t>-3920765761</t>
   </si>
   <si>
@@ -2416,9 +2377,6 @@
     <t>Nigeria Red Cross Society Kaduna</t>
   </si>
   <si>
-    <t>Kaduna.kaduna@redcrossnigeria.org</t>
-  </si>
-  <si>
     <t>-4019551582</t>
   </si>
   <si>
@@ -3313,9 +3271,6 @@
     <t>Sister Mary Simon Jatutu Memorial Foundation</t>
   </si>
   <si>
-    <t>Kenlois2005@yahoo.com</t>
-  </si>
-  <si>
     <t>-8563699348</t>
   </si>
   <si>
@@ -4078,71 +4033,116 @@
     <t>Obafemi Owode</t>
   </si>
   <si>
+    <t>livingcarefoundation@gmail.com</t>
+  </si>
+  <si>
+    <t>captec2002@yahoo.com</t>
+  </si>
+  <si>
+    <t>safinngo2007@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tyofittis82@gmail.com </t>
+  </si>
+  <si>
     <t>edimeh.lucy2018@gmail.com</t>
   </si>
   <si>
+    <t xml:space="preserve">stephen.adeoye54@gmail.com </t>
+  </si>
+  <si>
+    <t>isodaf4africa@gmail.com</t>
+  </si>
+  <si>
+    <t>jdpmc2009@gmail.com</t>
+  </si>
+  <si>
+    <t>cleannation29@gmail.com</t>
+  </si>
+  <si>
+    <t>barko.ibrahim@yahoo.com</t>
+  </si>
+  <si>
+    <t>abualiyu30@gmail.com</t>
+  </si>
+  <si>
+    <t>zakaraliyu745@gmail.com</t>
+  </si>
+  <si>
+    <t>ileeverywhere@gmail.com</t>
+  </si>
+  <si>
+    <t>rhi.s.fawa2020@gmail.com</t>
+  </si>
+  <si>
+    <t>cxperts2016@gmail.com,</t>
+  </si>
+  <si>
+    <t>societyforwomenandchild@yahoo.com</t>
+  </si>
+  <si>
+    <t>pasture2008@yahoo.com</t>
+  </si>
+  <si>
+    <t>healthdevelopment2009@gmail.com</t>
+  </si>
+  <si>
+    <t>jummaigarba2006@yahoo.com</t>
+  </si>
+  <si>
+    <t>dardau58@gmail.com</t>
+  </si>
+  <si>
+    <t>andybako.60@gmail.com</t>
+  </si>
+  <si>
+    <t>protectionsurvival@gmail.com</t>
+  </si>
+  <si>
+    <t>mothercareforum1@gmail.com</t>
+  </si>
+  <si>
+    <t>subi4me88@gmail.com</t>
+  </si>
+  <si>
+    <t>kaduna.kaduna@redcrossnigeria.org</t>
+  </si>
+  <si>
+    <t>hornofhope66@gmail.com</t>
+  </si>
+  <si>
     <t>unclejay22@yahoo.com</t>
   </si>
   <si>
     <t>rural2009@gmail.com</t>
   </si>
   <si>
-    <t>hornofhope66@gmail.com</t>
+    <t>kenlois2005@yahoo.com</t>
+  </si>
+  <si>
+    <t>fpnyameh1@yahoo.com</t>
+  </si>
+  <si>
+    <t>kasimbala69@gmail.com</t>
+  </si>
+  <si>
+    <t>cosfon2005@yahoo.com</t>
+  </si>
+  <si>
+    <t>msheliawayutabirma34@gmail.com</t>
+  </si>
+  <si>
+    <t>wakasociety2004@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">mohdmara0@gmail.com </t>
-  </si>
-  <si>
-    <t>msheliawayutabirma34@gmail.com</t>
-  </si>
-  <si>
-    <t>wakasociety2004@gmail.com</t>
-  </si>
-  <si>
-    <t>barko.ibrahim@yahoo.com</t>
-  </si>
-  <si>
-    <t>abualiyu30@gmail.com</t>
-  </si>
-  <si>
-    <t>zakaraliyu745@gmail.com</t>
-  </si>
-  <si>
-    <t>saveourlandsol2017@gmail.com</t>
-  </si>
-  <si>
-    <t>cleannation29@gmail.com</t>
-  </si>
-  <si>
-    <t>jdpmc2009@gmail.com</t>
-  </si>
-  <si>
-    <t>dardau58@gmail.com</t>
-  </si>
-  <si>
-    <t>andybako.60@gmail.com</t>
-  </si>
-  <si>
-    <t>protectionsurvival@gmail.com</t>
-  </si>
-  <si>
-    <t>mothercareforum1@gmail.com</t>
-  </si>
-  <si>
-    <t>fpnyameh1@yahoo.com</t>
-  </si>
-  <si>
-    <t>kasimbala69@gmail.com</t>
-  </si>
-  <si>
-    <t>cosfon2005@yahoo.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4155,6 +4155,13 @@
       <color theme="1"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -4184,7 +4191,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -4192,8 +4199,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4536,13 +4543,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L209"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C179" sqref="C179"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="C127" sqref="C127"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="26.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="6" width="26.25" style="1"/>
+    <col min="2" max="2" width="62.625" customWidth="1"/>
+    <col min="3" max="3" width="43.875" customWidth="1"/>
+    <col min="5" max="5" width="12" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -4655,7 +4665,7 @@
         <v>15</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>1351</v>
+        <v>1336</v>
       </c>
       <c r="G4" t="s">
         <v>27</v>
@@ -4684,7 +4694,7 @@
         <v>15</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>1351</v>
+        <v>1336</v>
       </c>
       <c r="G5" t="s">
         <v>32</v>
@@ -5109,5538 +5119,5553 @@
       <c r="B20" t="s">
         <v>124</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="3" t="s">
+        <v>1337</v>
+      </c>
+      <c r="D20" t="s">
         <v>125</v>
-      </c>
-      <c r="D20" t="s">
-        <v>126</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>113</v>
       </c>
       <c r="F20" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G20" t="s">
         <v>127</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>128</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
+        <v>128</v>
+      </c>
+      <c r="J20" t="s">
         <v>129</v>
-      </c>
-      <c r="I20" t="s">
-        <v>129</v>
-      </c>
-      <c r="J20" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
+        <v>130</v>
+      </c>
+      <c r="C21" t="s">
         <v>131</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>132</v>
-      </c>
-      <c r="D21" t="s">
-        <v>133</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>113</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G21" t="s">
+        <v>133</v>
+      </c>
+      <c r="H21" t="s">
         <v>134</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
+        <v>134</v>
+      </c>
+      <c r="J21" t="s">
         <v>135</v>
-      </c>
-      <c r="I21" t="s">
-        <v>135</v>
-      </c>
-      <c r="J21" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
+        <v>136</v>
+      </c>
+      <c r="C22" t="s">
         <v>137</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>138</v>
-      </c>
-      <c r="D22" t="s">
-        <v>139</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>113</v>
       </c>
       <c r="F22" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G22" t="s">
         <v>140</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>141</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
+        <v>141</v>
+      </c>
+      <c r="J22" t="s">
         <v>142</v>
-      </c>
-      <c r="I22" t="s">
-        <v>142</v>
-      </c>
-      <c r="J22" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
+        <v>143</v>
+      </c>
+      <c r="C23" t="s">
         <v>144</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>145</v>
-      </c>
-      <c r="D23" t="s">
-        <v>146</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>113</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G23" t="s">
+        <v>146</v>
+      </c>
+      <c r="H23" t="s">
         <v>147</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
+        <v>147</v>
+      </c>
+      <c r="J23" t="s">
         <v>148</v>
-      </c>
-      <c r="I23" t="s">
-        <v>148</v>
-      </c>
-      <c r="J23" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
+        <v>149</v>
+      </c>
+      <c r="C24" t="s">
         <v>150</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>151</v>
-      </c>
-      <c r="D24" t="s">
-        <v>152</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>113</v>
       </c>
       <c r="F24" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G24" t="s">
         <v>153</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>154</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
+        <v>154</v>
+      </c>
+      <c r="J24" t="s">
         <v>155</v>
-      </c>
-      <c r="I24" t="s">
-        <v>155</v>
-      </c>
-      <c r="J24" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
+        <v>156</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>1338</v>
+      </c>
+      <c r="D25" t="s">
         <v>157</v>
-      </c>
-      <c r="C25" t="s">
-        <v>158</v>
-      </c>
-      <c r="D25" t="s">
-        <v>159</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>113</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G25" t="s">
+        <v>158</v>
+      </c>
+      <c r="H25" t="s">
+        <v>159</v>
+      </c>
+      <c r="I25" t="s">
+        <v>159</v>
+      </c>
+      <c r="J25" t="s">
         <v>160</v>
-      </c>
-      <c r="H25" t="s">
-        <v>161</v>
-      </c>
-      <c r="I25" t="s">
-        <v>161</v>
-      </c>
-      <c r="J25" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
+        <v>161</v>
+      </c>
+      <c r="C26" t="s">
+        <v>162</v>
+      </c>
+      <c r="D26" t="s">
         <v>163</v>
-      </c>
-      <c r="C26" t="s">
-        <v>164</v>
-      </c>
-      <c r="D26" t="s">
-        <v>165</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>113</v>
       </c>
       <c r="F26" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G26" t="s">
+        <v>165</v>
+      </c>
+      <c r="H26" t="s">
         <v>166</v>
       </c>
-      <c r="G26" t="s">
+      <c r="I26" t="s">
+        <v>166</v>
+      </c>
+      <c r="J26" t="s">
         <v>167</v>
-      </c>
-      <c r="H26" t="s">
-        <v>168</v>
-      </c>
-      <c r="I26" t="s">
-        <v>168</v>
-      </c>
-      <c r="J26" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
+        <v>168</v>
+      </c>
+      <c r="C27" t="s">
+        <v>169</v>
+      </c>
+      <c r="D27" t="s">
         <v>170</v>
-      </c>
-      <c r="C27" t="s">
-        <v>171</v>
-      </c>
-      <c r="D27" t="s">
-        <v>172</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>113</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G27" t="s">
+        <v>171</v>
+      </c>
+      <c r="H27" t="s">
+        <v>172</v>
+      </c>
+      <c r="I27" t="s">
+        <v>172</v>
+      </c>
+      <c r="J27" t="s">
         <v>173</v>
-      </c>
-      <c r="H27" t="s">
-        <v>174</v>
-      </c>
-      <c r="I27" t="s">
-        <v>174</v>
-      </c>
-      <c r="J27" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
+        <v>174</v>
+      </c>
+      <c r="C28" t="s">
+        <v>175</v>
+      </c>
+      <c r="D28" t="s">
         <v>176</v>
-      </c>
-      <c r="C28" t="s">
-        <v>177</v>
-      </c>
-      <c r="D28" t="s">
-        <v>178</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>113</v>
       </c>
       <c r="F28" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="G28" t="s">
+        <v>178</v>
+      </c>
+      <c r="H28" t="s">
         <v>179</v>
       </c>
-      <c r="G28" t="s">
+      <c r="I28" t="s">
+        <v>179</v>
+      </c>
+      <c r="J28" t="s">
         <v>180</v>
-      </c>
-      <c r="H28" t="s">
-        <v>181</v>
-      </c>
-      <c r="I28" t="s">
-        <v>181</v>
-      </c>
-      <c r="J28" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
+        <v>181</v>
+      </c>
+      <c r="C29" t="s">
+        <v>182</v>
+      </c>
+      <c r="D29" t="s">
         <v>183</v>
-      </c>
-      <c r="C29" t="s">
-        <v>184</v>
-      </c>
-      <c r="D29" t="s">
-        <v>185</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>113</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G29" t="s">
+        <v>184</v>
+      </c>
+      <c r="H29" t="s">
+        <v>185</v>
+      </c>
+      <c r="I29" t="s">
+        <v>185</v>
+      </c>
+      <c r="J29" t="s">
         <v>186</v>
-      </c>
-      <c r="H29" t="s">
-        <v>187</v>
-      </c>
-      <c r="I29" t="s">
-        <v>187</v>
-      </c>
-      <c r="J29" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
+        <v>187</v>
+      </c>
+      <c r="C30" t="s">
+        <v>188</v>
+      </c>
+      <c r="D30" t="s">
         <v>189</v>
-      </c>
-      <c r="C30" t="s">
-        <v>190</v>
-      </c>
-      <c r="D30" t="s">
-        <v>191</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>113</v>
       </c>
       <c r="F30" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="G30" t="s">
+        <v>191</v>
+      </c>
+      <c r="H30" t="s">
         <v>192</v>
       </c>
-      <c r="G30" t="s">
+      <c r="I30" t="s">
+        <v>192</v>
+      </c>
+      <c r="J30" t="s">
         <v>193</v>
-      </c>
-      <c r="H30" t="s">
-        <v>194</v>
-      </c>
-      <c r="I30" t="s">
-        <v>194</v>
-      </c>
-      <c r="J30" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
+        <v>194</v>
+      </c>
+      <c r="C31" t="s">
+        <v>195</v>
+      </c>
+      <c r="D31" t="s">
         <v>196</v>
-      </c>
-      <c r="C31" t="s">
-        <v>197</v>
-      </c>
-      <c r="D31" t="s">
-        <v>198</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>113</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G31" t="s">
+        <v>197</v>
+      </c>
+      <c r="H31" t="s">
+        <v>198</v>
+      </c>
+      <c r="I31" t="s">
+        <v>198</v>
+      </c>
+      <c r="J31" t="s">
         <v>199</v>
-      </c>
-      <c r="H31" t="s">
-        <v>200</v>
-      </c>
-      <c r="I31" t="s">
-        <v>200</v>
-      </c>
-      <c r="J31" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
+        <v>200</v>
+      </c>
+      <c r="C32" t="s">
+        <v>201</v>
+      </c>
+      <c r="D32" t="s">
         <v>202</v>
-      </c>
-      <c r="C32" t="s">
-        <v>203</v>
-      </c>
-      <c r="D32" t="s">
-        <v>204</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>113</v>
       </c>
       <c r="F32" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G32" t="s">
+        <v>204</v>
+      </c>
+      <c r="H32" t="s">
         <v>205</v>
       </c>
-      <c r="G32" t="s">
+      <c r="I32" t="s">
+        <v>205</v>
+      </c>
+      <c r="J32" t="s">
         <v>206</v>
-      </c>
-      <c r="H32" t="s">
-        <v>207</v>
-      </c>
-      <c r="I32" t="s">
-        <v>207</v>
-      </c>
-      <c r="J32" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>209</v>
-      </c>
-      <c r="C33" t="s">
-        <v>210</v>
+        <v>207</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>1339</v>
       </c>
       <c r="D33" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>113</v>
       </c>
       <c r="F33" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G33" t="s">
+        <v>210</v>
+      </c>
+      <c r="H33" t="s">
+        <v>211</v>
+      </c>
+      <c r="I33" t="s">
+        <v>211</v>
+      </c>
+      <c r="J33" t="s">
         <v>212</v>
-      </c>
-      <c r="G33" t="s">
-        <v>213</v>
-      </c>
-      <c r="H33" t="s">
-        <v>214</v>
-      </c>
-      <c r="I33" t="s">
-        <v>214</v>
-      </c>
-      <c r="J33" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
+        <v>213</v>
+      </c>
+      <c r="C34" t="s">
+        <v>214</v>
+      </c>
+      <c r="D34" t="s">
+        <v>215</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="C34" t="s">
+      <c r="F34" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="D34" t="s">
+      <c r="G34" t="s">
         <v>218</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="H34" t="s">
         <v>219</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="I34" t="s">
+        <v>219</v>
+      </c>
+      <c r="J34" t="s">
         <v>220</v>
-      </c>
-      <c r="G34" t="s">
-        <v>221</v>
-      </c>
-      <c r="H34" t="s">
-        <v>222</v>
-      </c>
-      <c r="I34" t="s">
-        <v>222</v>
-      </c>
-      <c r="J34" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
+        <v>221</v>
+      </c>
+      <c r="C35" t="s">
+        <v>222</v>
+      </c>
+      <c r="D35" t="s">
+        <v>223</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="G35" t="s">
         <v>224</v>
       </c>
-      <c r="C35" t="s">
+      <c r="H35" t="s">
         <v>225</v>
       </c>
-      <c r="D35" t="s">
+      <c r="I35" t="s">
+        <v>225</v>
+      </c>
+      <c r="J35" t="s">
         <v>226</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="G35" t="s">
-        <v>227</v>
-      </c>
-      <c r="H35" t="s">
-        <v>228</v>
-      </c>
-      <c r="I35" t="s">
-        <v>228</v>
-      </c>
-      <c r="J35" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
+        <v>227</v>
+      </c>
+      <c r="C36" t="s">
+        <v>228</v>
+      </c>
+      <c r="D36" t="s">
+        <v>229</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F36" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="C36" t="s">
+      <c r="G36" t="s">
         <v>231</v>
       </c>
-      <c r="D36" t="s">
+      <c r="H36" t="s">
         <v>232</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="F36" s="1" t="s">
+      <c r="I36" t="s">
+        <v>232</v>
+      </c>
+      <c r="J36" t="s">
         <v>233</v>
-      </c>
-      <c r="G36" t="s">
-        <v>234</v>
-      </c>
-      <c r="H36" t="s">
-        <v>235</v>
-      </c>
-      <c r="I36" t="s">
-        <v>235</v>
-      </c>
-      <c r="J36" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
+        <v>234</v>
+      </c>
+      <c r="C37" t="s">
+        <v>235</v>
+      </c>
+      <c r="D37" t="s">
+        <v>236</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="G37" t="s">
         <v>237</v>
       </c>
-      <c r="C37" t="s">
+      <c r="H37" t="s">
         <v>238</v>
       </c>
-      <c r="D37" t="s">
+      <c r="I37" t="s">
+        <v>238</v>
+      </c>
+      <c r="J37" t="s">
         <v>239</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="G37" t="s">
-        <v>240</v>
-      </c>
-      <c r="H37" t="s">
-        <v>241</v>
-      </c>
-      <c r="I37" t="s">
-        <v>241</v>
-      </c>
-      <c r="J37" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
+        <v>240</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D38" t="s">
+        <v>241</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="G38" t="s">
         <v>243</v>
       </c>
-      <c r="C38" t="s">
+      <c r="H38" t="s">
         <v>244</v>
       </c>
-      <c r="D38" t="s">
+      <c r="I38" t="s">
+        <v>244</v>
+      </c>
+      <c r="J38" t="s">
         <v>245</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="G38" t="s">
-        <v>247</v>
-      </c>
-      <c r="H38" t="s">
-        <v>248</v>
-      </c>
-      <c r="I38" t="s">
-        <v>248</v>
-      </c>
-      <c r="J38" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
+        <v>246</v>
+      </c>
+      <c r="C39" t="s">
+        <v>247</v>
+      </c>
+      <c r="D39" t="s">
+        <v>248</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="G39" t="s">
+        <v>249</v>
+      </c>
+      <c r="H39" t="s">
         <v>250</v>
       </c>
-      <c r="C39" t="s">
+      <c r="I39" t="s">
+        <v>250</v>
+      </c>
+      <c r="J39" t="s">
         <v>251</v>
-      </c>
-      <c r="D39" t="s">
-        <v>252</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="G39" t="s">
-        <v>253</v>
-      </c>
-      <c r="H39" t="s">
-        <v>254</v>
-      </c>
-      <c r="I39" t="s">
-        <v>254</v>
-      </c>
-      <c r="J39" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
+        <v>252</v>
+      </c>
+      <c r="C40" t="s">
+        <v>253</v>
+      </c>
+      <c r="D40" t="s">
+        <v>254</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="G40" t="s">
         <v>256</v>
       </c>
-      <c r="C40" t="s">
+      <c r="H40" t="s">
         <v>257</v>
       </c>
-      <c r="D40" t="s">
+      <c r="I40" t="s">
+        <v>257</v>
+      </c>
+      <c r="J40" t="s">
         <v>258</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="G40" t="s">
-        <v>260</v>
-      </c>
-      <c r="H40" t="s">
-        <v>261</v>
-      </c>
-      <c r="I40" t="s">
-        <v>261</v>
-      </c>
-      <c r="J40" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
+        <v>259</v>
+      </c>
+      <c r="C41" t="s">
+        <v>260</v>
+      </c>
+      <c r="D41" t="s">
+        <v>261</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="G41" t="s">
+        <v>262</v>
+      </c>
+      <c r="H41" t="s">
         <v>263</v>
       </c>
-      <c r="C41" t="s">
+      <c r="I41" t="s">
+        <v>263</v>
+      </c>
+      <c r="J41" t="s">
         <v>264</v>
-      </c>
-      <c r="D41" t="s">
-        <v>265</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="G41" t="s">
-        <v>266</v>
-      </c>
-      <c r="H41" t="s">
-        <v>267</v>
-      </c>
-      <c r="I41" t="s">
-        <v>267</v>
-      </c>
-      <c r="J41" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
+        <v>265</v>
+      </c>
+      <c r="C42" t="s">
+        <v>266</v>
+      </c>
+      <c r="D42" t="s">
+        <v>267</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="G42" t="s">
         <v>269</v>
       </c>
-      <c r="C42" t="s">
+      <c r="H42" t="s">
         <v>270</v>
       </c>
-      <c r="D42" t="s">
+      <c r="I42" t="s">
+        <v>270</v>
+      </c>
+      <c r="J42" t="s">
         <v>271</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="G42" t="s">
-        <v>273</v>
-      </c>
-      <c r="H42" t="s">
-        <v>274</v>
-      </c>
-      <c r="I42" t="s">
-        <v>274</v>
-      </c>
-      <c r="J42" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
+        <v>272</v>
+      </c>
+      <c r="C43" t="s">
+        <v>273</v>
+      </c>
+      <c r="D43" t="s">
+        <v>274</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="G43" t="s">
+        <v>275</v>
+      </c>
+      <c r="H43" t="s">
         <v>276</v>
       </c>
-      <c r="C43" t="s">
+      <c r="I43" t="s">
+        <v>276</v>
+      </c>
+      <c r="J43" t="s">
         <v>277</v>
-      </c>
-      <c r="D43" t="s">
-        <v>278</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="G43" t="s">
-        <v>279</v>
-      </c>
-      <c r="H43" t="s">
-        <v>280</v>
-      </c>
-      <c r="I43" t="s">
-        <v>280</v>
-      </c>
-      <c r="J43" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
+        <v>278</v>
+      </c>
+      <c r="C44" t="s">
+        <v>279</v>
+      </c>
+      <c r="D44" t="s">
+        <v>280</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="G44" t="s">
         <v>282</v>
       </c>
-      <c r="C44" t="s">
+      <c r="H44" t="s">
         <v>283</v>
       </c>
-      <c r="D44" t="s">
+      <c r="I44" t="s">
+        <v>283</v>
+      </c>
+      <c r="J44" t="s">
         <v>284</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="G44" t="s">
-        <v>286</v>
-      </c>
-      <c r="H44" t="s">
-        <v>287</v>
-      </c>
-      <c r="I44" t="s">
-        <v>287</v>
-      </c>
-      <c r="J44" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
+        <v>285</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>1341</v>
+      </c>
+      <c r="D45" t="s">
+        <v>286</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="G45" t="s">
+        <v>288</v>
+      </c>
+      <c r="H45" t="s">
         <v>289</v>
       </c>
-      <c r="C45" s="3" t="s">
-        <v>1352</v>
-      </c>
-      <c r="D45" t="s">
+      <c r="I45" t="s">
+        <v>289</v>
+      </c>
+      <c r="J45" t="s">
         <v>290</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="G45" t="s">
-        <v>292</v>
-      </c>
-      <c r="H45" t="s">
-        <v>293</v>
-      </c>
-      <c r="I45" t="s">
-        <v>293</v>
-      </c>
-      <c r="J45" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
+        <v>291</v>
+      </c>
+      <c r="C46" t="s">
+        <v>292</v>
+      </c>
+      <c r="D46" t="s">
+        <v>293</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="G46" t="s">
         <v>295</v>
       </c>
-      <c r="C46" t="s">
+      <c r="H46" t="s">
         <v>296</v>
       </c>
-      <c r="D46" t="s">
+      <c r="I46" t="s">
+        <v>296</v>
+      </c>
+      <c r="J46" t="s">
         <v>297</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="G46" t="s">
-        <v>299</v>
-      </c>
-      <c r="H46" t="s">
-        <v>300</v>
-      </c>
-      <c r="I46" t="s">
-        <v>300</v>
-      </c>
-      <c r="J46" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
+        <v>298</v>
+      </c>
+      <c r="C47" t="s">
+        <v>299</v>
+      </c>
+      <c r="D47" t="s">
+        <v>300</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="G47" t="s">
+        <v>301</v>
+      </c>
+      <c r="H47" t="s">
         <v>302</v>
       </c>
-      <c r="C47" t="s">
+      <c r="I47" t="s">
+        <v>302</v>
+      </c>
+      <c r="J47" t="s">
         <v>303</v>
-      </c>
-      <c r="D47" t="s">
-        <v>304</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="G47" t="s">
-        <v>305</v>
-      </c>
-      <c r="H47" t="s">
-        <v>306</v>
-      </c>
-      <c r="I47" t="s">
-        <v>306</v>
-      </c>
-      <c r="J47" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
+        <v>304</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>1342</v>
+      </c>
+      <c r="D48" t="s">
+        <v>305</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="G48" t="s">
+        <v>307</v>
+      </c>
+      <c r="H48" t="s">
         <v>308</v>
       </c>
-      <c r="C48" t="s">
+      <c r="I48" t="s">
+        <v>308</v>
+      </c>
+      <c r="J48" t="s">
         <v>309</v>
-      </c>
-      <c r="D48" t="s">
-        <v>310</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="G48" t="s">
-        <v>312</v>
-      </c>
-      <c r="H48" t="s">
-        <v>313</v>
-      </c>
-      <c r="I48" t="s">
-        <v>313</v>
-      </c>
-      <c r="J48" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>315</v>
-      </c>
-      <c r="C49" t="s">
-        <v>316</v>
+        <v>310</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>1343</v>
       </c>
       <c r="D49" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="G49" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="H49" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="I49" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="J49" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
+        <v>315</v>
+      </c>
+      <c r="C50" t="s">
+        <v>316</v>
+      </c>
+      <c r="D50" t="s">
+        <v>317</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="G50" t="s">
+        <v>320</v>
+      </c>
+      <c r="H50" t="s">
         <v>321</v>
       </c>
-      <c r="C50" t="s">
+      <c r="I50" t="s">
+        <v>321</v>
+      </c>
+      <c r="J50" t="s">
         <v>322</v>
-      </c>
-      <c r="D50" t="s">
-        <v>323</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="G50" t="s">
-        <v>326</v>
-      </c>
-      <c r="H50" t="s">
-        <v>327</v>
-      </c>
-      <c r="I50" t="s">
-        <v>327</v>
-      </c>
-      <c r="J50" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="C51" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="D51" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="G51" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H51" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="I51" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="J51" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
+        <v>329</v>
+      </c>
+      <c r="C52" t="s">
+        <v>330</v>
+      </c>
+      <c r="D52" t="s">
+        <v>331</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="G52" t="s">
+        <v>333</v>
+      </c>
+      <c r="H52" t="s">
+        <v>334</v>
+      </c>
+      <c r="I52" t="s">
+        <v>334</v>
+      </c>
+      <c r="J52" t="s">
         <v>335</v>
-      </c>
-      <c r="C52" t="s">
-        <v>336</v>
-      </c>
-      <c r="D52" t="s">
-        <v>337</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="G52" t="s">
-        <v>339</v>
-      </c>
-      <c r="H52" t="s">
-        <v>340</v>
-      </c>
-      <c r="I52" t="s">
-        <v>340</v>
-      </c>
-      <c r="J52" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="C53" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="D53" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="G53" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="H53" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="I53" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="J53" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
+        <v>342</v>
+      </c>
+      <c r="C54" t="s">
+        <v>343</v>
+      </c>
+      <c r="D54" t="s">
+        <v>344</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="G54" t="s">
+        <v>346</v>
+      </c>
+      <c r="H54" t="s">
+        <v>347</v>
+      </c>
+      <c r="I54" t="s">
+        <v>347</v>
+      </c>
+      <c r="J54" t="s">
         <v>348</v>
-      </c>
-      <c r="C54" t="s">
-        <v>349</v>
-      </c>
-      <c r="D54" t="s">
-        <v>350</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="G54" t="s">
-        <v>352</v>
-      </c>
-      <c r="H54" t="s">
-        <v>353</v>
-      </c>
-      <c r="I54" t="s">
-        <v>353</v>
-      </c>
-      <c r="J54" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="C55" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="D55" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="G55" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="H55" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="I55" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="J55" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
+        <v>355</v>
+      </c>
+      <c r="C56" t="s">
+        <v>356</v>
+      </c>
+      <c r="D56" t="s">
+        <v>357</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="G56" t="s">
+        <v>359</v>
+      </c>
+      <c r="H56" t="s">
+        <v>360</v>
+      </c>
+      <c r="I56" t="s">
+        <v>360</v>
+      </c>
+      <c r="J56" t="s">
         <v>361</v>
-      </c>
-      <c r="C56" t="s">
-        <v>362</v>
-      </c>
-      <c r="D56" t="s">
-        <v>363</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="G56" t="s">
-        <v>365</v>
-      </c>
-      <c r="H56" t="s">
-        <v>366</v>
-      </c>
-      <c r="I56" t="s">
-        <v>366</v>
-      </c>
-      <c r="J56" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>368</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>1364</v>
+        <v>362</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>1344</v>
       </c>
       <c r="D57" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="F57" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="G57" t="s">
         <v>364</v>
       </c>
-      <c r="G57" t="s">
-        <v>370</v>
-      </c>
       <c r="H57" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="I57" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="J57" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>373</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>1363</v>
+        <v>367</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>1345</v>
       </c>
       <c r="D58" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="G58" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="H58" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="I58" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="J58" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="C59" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="D59" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="G59" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="H59" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="I59" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="J59" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
+        <v>379</v>
+      </c>
+      <c r="C60" t="s">
+        <v>380</v>
+      </c>
+      <c r="D60" t="s">
+        <v>381</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="G60" t="s">
+        <v>383</v>
+      </c>
+      <c r="H60" t="s">
+        <v>384</v>
+      </c>
+      <c r="I60" t="s">
+        <v>384</v>
+      </c>
+      <c r="J60" t="s">
         <v>385</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>1362</v>
-      </c>
-      <c r="D60" t="s">
-        <v>386</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="G60" t="s">
-        <v>388</v>
-      </c>
-      <c r="H60" t="s">
-        <v>389</v>
-      </c>
-      <c r="I60" t="s">
-        <v>389</v>
-      </c>
-      <c r="J60" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
+        <v>386</v>
+      </c>
+      <c r="C61" t="s">
+        <v>387</v>
+      </c>
+      <c r="D61" t="s">
+        <v>388</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="G61" t="s">
+        <v>389</v>
+      </c>
+      <c r="H61" t="s">
+        <v>390</v>
+      </c>
+      <c r="I61" t="s">
+        <v>390</v>
+      </c>
+      <c r="J61" t="s">
         <v>391</v>
-      </c>
-      <c r="C61" t="s">
-        <v>392</v>
-      </c>
-      <c r="D61" t="s">
-        <v>393</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="G61" t="s">
-        <v>394</v>
-      </c>
-      <c r="H61" t="s">
-        <v>395</v>
-      </c>
-      <c r="I61" t="s">
-        <v>395</v>
-      </c>
-      <c r="J61" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
+        <v>392</v>
+      </c>
+      <c r="C62" t="s">
+        <v>393</v>
+      </c>
+      <c r="D62" t="s">
+        <v>394</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="G62" t="s">
+        <v>396</v>
+      </c>
+      <c r="H62" t="s">
         <v>397</v>
       </c>
-      <c r="C62" t="s">
+      <c r="I62" t="s">
+        <v>397</v>
+      </c>
+      <c r="J62" t="s">
         <v>398</v>
-      </c>
-      <c r="D62" t="s">
-        <v>399</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="G62" t="s">
-        <v>401</v>
-      </c>
-      <c r="H62" t="s">
-        <v>402</v>
-      </c>
-      <c r="I62" t="s">
-        <v>402</v>
-      </c>
-      <c r="J62" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
+        <v>399</v>
+      </c>
+      <c r="C63" t="s">
+        <v>400</v>
+      </c>
+      <c r="D63" t="s">
+        <v>401</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="G63" t="s">
+        <v>402</v>
+      </c>
+      <c r="H63" t="s">
+        <v>403</v>
+      </c>
+      <c r="I63" t="s">
+        <v>403</v>
+      </c>
+      <c r="J63" t="s">
         <v>404</v>
-      </c>
-      <c r="C63" t="s">
-        <v>405</v>
-      </c>
-      <c r="D63" t="s">
-        <v>406</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="G63" t="s">
-        <v>407</v>
-      </c>
-      <c r="H63" t="s">
-        <v>408</v>
-      </c>
-      <c r="I63" t="s">
-        <v>408</v>
-      </c>
-      <c r="J63" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
+        <v>405</v>
+      </c>
+      <c r="C64" t="s">
+        <v>406</v>
+      </c>
+      <c r="D64" t="s">
+        <v>407</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="G64" t="s">
+        <v>409</v>
+      </c>
+      <c r="H64" t="s">
         <v>410</v>
       </c>
-      <c r="C64" t="s">
+      <c r="I64" t="s">
+        <v>410</v>
+      </c>
+      <c r="J64" t="s">
         <v>411</v>
-      </c>
-      <c r="D64" t="s">
-        <v>412</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="G64" t="s">
-        <v>414</v>
-      </c>
-      <c r="H64" t="s">
-        <v>415</v>
-      </c>
-      <c r="I64" t="s">
-        <v>415</v>
-      </c>
-      <c r="J64" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
+        <v>412</v>
+      </c>
+      <c r="C65" t="s">
+        <v>413</v>
+      </c>
+      <c r="D65" t="s">
+        <v>414</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="G65" t="s">
+        <v>415</v>
+      </c>
+      <c r="H65" t="s">
+        <v>416</v>
+      </c>
+      <c r="I65" t="s">
+        <v>416</v>
+      </c>
+      <c r="J65" t="s">
         <v>417</v>
-      </c>
-      <c r="C65" t="s">
-        <v>418</v>
-      </c>
-      <c r="D65" t="s">
-        <v>419</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="G65" t="s">
-        <v>420</v>
-      </c>
-      <c r="H65" t="s">
-        <v>421</v>
-      </c>
-      <c r="I65" t="s">
-        <v>421</v>
-      </c>
-      <c r="J65" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
+        <v>418</v>
+      </c>
+      <c r="C66" t="s">
+        <v>419</v>
+      </c>
+      <c r="D66" t="s">
+        <v>420</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="G66" t="s">
         <v>423</v>
       </c>
-      <c r="C66" t="s">
+      <c r="H66" t="s">
         <v>424</v>
       </c>
-      <c r="D66" t="s">
+      <c r="I66" t="s">
+        <v>424</v>
+      </c>
+      <c r="J66" t="s">
         <v>425</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="G66" t="s">
-        <v>428</v>
-      </c>
-      <c r="H66" t="s">
-        <v>429</v>
-      </c>
-      <c r="I66" t="s">
-        <v>429</v>
-      </c>
-      <c r="J66" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
+        <v>426</v>
+      </c>
+      <c r="C67" t="s">
+        <v>427</v>
+      </c>
+      <c r="D67" t="s">
+        <v>428</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="G67" t="s">
+        <v>429</v>
+      </c>
+      <c r="H67" t="s">
+        <v>430</v>
+      </c>
+      <c r="I67" t="s">
+        <v>430</v>
+      </c>
+      <c r="J67" t="s">
         <v>431</v>
-      </c>
-      <c r="C67" t="s">
-        <v>432</v>
-      </c>
-      <c r="D67" t="s">
-        <v>433</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="G67" t="s">
-        <v>434</v>
-      </c>
-      <c r="H67" t="s">
-        <v>435</v>
-      </c>
-      <c r="I67" t="s">
-        <v>435</v>
-      </c>
-      <c r="J67" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
+        <v>432</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>1346</v>
+      </c>
+      <c r="D68" t="s">
+        <v>433</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="G68" t="s">
+        <v>435</v>
+      </c>
+      <c r="H68" t="s">
+        <v>436</v>
+      </c>
+      <c r="I68" t="s">
+        <v>436</v>
+      </c>
+      <c r="J68" t="s">
         <v>437</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>1359</v>
-      </c>
-      <c r="D68" t="s">
-        <v>438</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="G68" t="s">
-        <v>440</v>
-      </c>
-      <c r="H68" t="s">
-        <v>441</v>
-      </c>
-      <c r="I68" t="s">
-        <v>441</v>
-      </c>
-      <c r="J68" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
+        <v>438</v>
+      </c>
+      <c r="C69" t="s">
+        <v>439</v>
+      </c>
+      <c r="D69" t="s">
+        <v>440</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="G69" t="s">
+        <v>441</v>
+      </c>
+      <c r="H69" t="s">
+        <v>442</v>
+      </c>
+      <c r="I69" t="s">
+        <v>442</v>
+      </c>
+      <c r="J69" t="s">
         <v>443</v>
-      </c>
-      <c r="C69" t="s">
-        <v>444</v>
-      </c>
-      <c r="D69" t="s">
-        <v>445</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="G69" t="s">
-        <v>446</v>
-      </c>
-      <c r="H69" t="s">
-        <v>447</v>
-      </c>
-      <c r="I69" t="s">
-        <v>447</v>
-      </c>
-      <c r="J69" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
+        <v>444</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>1347</v>
+      </c>
+      <c r="D70" t="s">
+        <v>445</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="G70" t="s">
+        <v>447</v>
+      </c>
+      <c r="H70" t="s">
+        <v>448</v>
+      </c>
+      <c r="I70" t="s">
+        <v>448</v>
+      </c>
+      <c r="J70" t="s">
         <v>449</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>1360</v>
-      </c>
-      <c r="D70" t="s">
-        <v>450</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="G70" t="s">
-        <v>452</v>
-      </c>
-      <c r="H70" t="s">
-        <v>453</v>
-      </c>
-      <c r="I70" t="s">
-        <v>453</v>
-      </c>
-      <c r="J70" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
+        <v>450</v>
+      </c>
+      <c r="C71" t="s">
+        <v>451</v>
+      </c>
+      <c r="D71" t="s">
+        <v>452</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="G71" t="s">
+        <v>453</v>
+      </c>
+      <c r="H71" t="s">
+        <v>454</v>
+      </c>
+      <c r="I71" t="s">
+        <v>454</v>
+      </c>
+      <c r="J71" t="s">
         <v>455</v>
-      </c>
-      <c r="C71" t="s">
-        <v>456</v>
-      </c>
-      <c r="D71" t="s">
-        <v>457</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="G71" t="s">
-        <v>458</v>
-      </c>
-      <c r="H71" t="s">
-        <v>459</v>
-      </c>
-      <c r="I71" t="s">
-        <v>459</v>
-      </c>
-      <c r="J71" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
+        <v>456</v>
+      </c>
+      <c r="C72" t="s">
+        <v>457</v>
+      </c>
+      <c r="D72" t="s">
+        <v>458</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="G72" t="s">
+        <v>460</v>
+      </c>
+      <c r="H72" t="s">
         <v>461</v>
       </c>
-      <c r="C72" t="s">
+      <c r="I72" t="s">
+        <v>461</v>
+      </c>
+      <c r="J72" t="s">
         <v>462</v>
-      </c>
-      <c r="D72" t="s">
-        <v>463</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="G72" t="s">
-        <v>465</v>
-      </c>
-      <c r="H72" t="s">
-        <v>466</v>
-      </c>
-      <c r="I72" t="s">
-        <v>466</v>
-      </c>
-      <c r="J72" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>468</v>
-      </c>
-      <c r="C73" t="s">
-        <v>469</v>
+        <v>463</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>1349</v>
       </c>
       <c r="D73" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="G73" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H73" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="I73" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="J73" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>474</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>1361</v>
+        <v>468</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>1348</v>
       </c>
       <c r="D74" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="G74" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="H74" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="I74" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="J74" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="C75" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="D75" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="G75" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="H75" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="I75" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="J75" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
+        <v>480</v>
+      </c>
+      <c r="C76" t="s">
+        <v>481</v>
+      </c>
+      <c r="D76" t="s">
+        <v>482</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="G76" t="s">
+        <v>484</v>
+      </c>
+      <c r="H76" t="s">
+        <v>485</v>
+      </c>
+      <c r="I76" t="s">
+        <v>485</v>
+      </c>
+      <c r="J76" t="s">
         <v>486</v>
-      </c>
-      <c r="C76" t="s">
-        <v>487</v>
-      </c>
-      <c r="D76" t="s">
-        <v>488</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="G76" t="s">
-        <v>490</v>
-      </c>
-      <c r="H76" t="s">
-        <v>491</v>
-      </c>
-      <c r="I76" t="s">
-        <v>491</v>
-      </c>
-      <c r="J76" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="C77" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="D77" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="G77" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="H77" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="I77" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="J77" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
+        <v>493</v>
+      </c>
+      <c r="C78" t="s">
+        <v>494</v>
+      </c>
+      <c r="D78" t="s">
+        <v>495</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G78" t="s">
+        <v>497</v>
+      </c>
+      <c r="H78" t="s">
+        <v>498</v>
+      </c>
+      <c r="I78" t="s">
+        <v>498</v>
+      </c>
+      <c r="J78" t="s">
         <v>499</v>
-      </c>
-      <c r="C78" t="s">
-        <v>500</v>
-      </c>
-      <c r="D78" t="s">
-        <v>501</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="G78" t="s">
-        <v>503</v>
-      </c>
-      <c r="H78" t="s">
-        <v>504</v>
-      </c>
-      <c r="I78" t="s">
-        <v>504</v>
-      </c>
-      <c r="J78" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="C79" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="D79" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="G79" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="H79" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="I79" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="J79" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
+        <v>506</v>
+      </c>
+      <c r="C80" t="s">
+        <v>507</v>
+      </c>
+      <c r="D80" t="s">
+        <v>508</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="G80" t="s">
+        <v>510</v>
+      </c>
+      <c r="H80" t="s">
+        <v>511</v>
+      </c>
+      <c r="I80" t="s">
+        <v>511</v>
+      </c>
+      <c r="J80" t="s">
         <v>512</v>
-      </c>
-      <c r="C80" t="s">
-        <v>513</v>
-      </c>
-      <c r="D80" t="s">
-        <v>514</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="G80" t="s">
-        <v>516</v>
-      </c>
-      <c r="H80" t="s">
-        <v>517</v>
-      </c>
-      <c r="I80" t="s">
-        <v>517</v>
-      </c>
-      <c r="J80" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>519</v>
-      </c>
-      <c r="C81" t="s">
-        <v>520</v>
+        <v>513</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>1350</v>
       </c>
       <c r="D81" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="F81" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="G81" t="s">
         <v>515</v>
       </c>
-      <c r="G81" t="s">
-        <v>522</v>
-      </c>
       <c r="H81" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="I81" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="J81" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
+        <v>518</v>
+      </c>
+      <c r="C82" t="s">
+        <v>519</v>
+      </c>
+      <c r="D82" t="s">
+        <v>520</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G82" t="s">
+        <v>523</v>
+      </c>
+      <c r="H82" t="s">
+        <v>524</v>
+      </c>
+      <c r="I82" t="s">
+        <v>524</v>
+      </c>
+      <c r="J82" t="s">
         <v>525</v>
-      </c>
-      <c r="C82" t="s">
-        <v>526</v>
-      </c>
-      <c r="D82" t="s">
-        <v>527</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="G82" t="s">
-        <v>530</v>
-      </c>
-      <c r="H82" t="s">
-        <v>531</v>
-      </c>
-      <c r="I82" t="s">
-        <v>531</v>
-      </c>
-      <c r="J82" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="C83" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="D83" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="F83" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G83" t="s">
         <v>529</v>
       </c>
-      <c r="G83" t="s">
-        <v>536</v>
-      </c>
       <c r="H83" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="I83" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="J83" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="C84" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="D84" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="G84" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="H84" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="I84" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="J84" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="C85" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="D85" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="F85" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="G85" t="s">
         <v>542</v>
       </c>
-      <c r="G85" t="s">
-        <v>549</v>
-      </c>
       <c r="H85" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="I85" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="J85" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="C86" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="D86" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="G86" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="H86" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="I86" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="J86" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>559</v>
-      </c>
-      <c r="C87" t="s">
-        <v>560</v>
+        <v>552</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>1351</v>
       </c>
       <c r="D87" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="F87" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="G87" t="s">
+        <v>554</v>
+      </c>
+      <c r="H87" t="s">
         <v>555</v>
       </c>
-      <c r="G87" t="s">
-        <v>562</v>
-      </c>
-      <c r="H87" t="s">
-        <v>563</v>
-      </c>
       <c r="I87" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="J87" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="C88" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="D88" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="G88" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="H88" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="I88" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="J88" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>572</v>
-      </c>
-      <c r="C89" t="s">
-        <v>573</v>
+        <v>564</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>1352</v>
       </c>
       <c r="D89" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="F89" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="G89" t="s">
+        <v>566</v>
+      </c>
+      <c r="H89" t="s">
+        <v>567</v>
+      </c>
+      <c r="I89" t="s">
+        <v>567</v>
+      </c>
+      <c r="J89" t="s">
         <v>568</v>
-      </c>
-      <c r="G89" t="s">
-        <v>575</v>
-      </c>
-      <c r="H89" t="s">
-        <v>576</v>
-      </c>
-      <c r="I89" t="s">
-        <v>576</v>
-      </c>
-      <c r="J89" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="C90" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="D90" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="G90" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="H90" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="I90" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="J90" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="C91" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="D91" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="F91" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="G91" t="s">
+        <v>579</v>
+      </c>
+      <c r="H91" t="s">
+        <v>580</v>
+      </c>
+      <c r="I91" t="s">
+        <v>580</v>
+      </c>
+      <c r="J91" t="s">
         <v>581</v>
-      </c>
-      <c r="G91" t="s">
-        <v>588</v>
-      </c>
-      <c r="H91" t="s">
-        <v>589</v>
-      </c>
-      <c r="I91" t="s">
-        <v>589</v>
-      </c>
-      <c r="J91" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>591</v>
-      </c>
-      <c r="C92" t="s">
-        <v>592</v>
+        <v>582</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>1353</v>
       </c>
       <c r="D92" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
       <c r="G92" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="H92" t="s">
-        <v>596</v>
+        <v>586</v>
       </c>
       <c r="I92" t="s">
-        <v>596</v>
+        <v>586</v>
       </c>
       <c r="J92" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
       <c r="C93" t="s">
-        <v>599</v>
+        <v>589</v>
       </c>
       <c r="D93" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
       <c r="G93" t="s">
-        <v>601</v>
+        <v>591</v>
       </c>
       <c r="H93" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="I93" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="J93" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>604</v>
-      </c>
-      <c r="C94" t="s">
-        <v>605</v>
+        <v>594</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>1354</v>
       </c>
       <c r="D94" t="s">
-        <v>606</v>
+        <v>595</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>607</v>
+        <v>596</v>
       </c>
       <c r="G94" t="s">
-        <v>608</v>
+        <v>597</v>
       </c>
       <c r="H94" t="s">
-        <v>609</v>
+        <v>598</v>
       </c>
       <c r="I94" t="s">
-        <v>609</v>
+        <v>598</v>
       </c>
       <c r="J94" t="s">
-        <v>610</v>
+        <v>599</v>
       </c>
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>611</v>
+        <v>600</v>
       </c>
       <c r="C95" t="s">
-        <v>612</v>
+        <v>601</v>
       </c>
       <c r="D95" t="s">
-        <v>613</v>
+        <v>602</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>607</v>
+        <v>596</v>
       </c>
       <c r="G95" t="s">
-        <v>614</v>
+        <v>603</v>
       </c>
       <c r="H95" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
       <c r="I95" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
       <c r="J95" t="s">
-        <v>616</v>
+        <v>605</v>
       </c>
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
-        <v>617</v>
+        <v>606</v>
       </c>
       <c r="C96" t="s">
-        <v>618</v>
+        <v>607</v>
       </c>
       <c r="D96" t="s">
-        <v>619</v>
+        <v>608</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>620</v>
+        <v>609</v>
       </c>
       <c r="G96" t="s">
-        <v>621</v>
+        <v>610</v>
       </c>
       <c r="H96" t="s">
-        <v>622</v>
+        <v>611</v>
       </c>
       <c r="I96" t="s">
-        <v>622</v>
+        <v>611</v>
       </c>
       <c r="J96" t="s">
-        <v>623</v>
+        <v>612</v>
       </c>
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
-        <v>624</v>
+        <v>613</v>
       </c>
       <c r="C97" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
       <c r="D97" t="s">
-        <v>626</v>
+        <v>615</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>620</v>
+        <v>609</v>
       </c>
       <c r="G97" t="s">
-        <v>627</v>
+        <v>616</v>
       </c>
       <c r="H97" t="s">
-        <v>628</v>
+        <v>617</v>
       </c>
       <c r="I97" t="s">
-        <v>628</v>
+        <v>617</v>
       </c>
       <c r="J97" t="s">
-        <v>629</v>
+        <v>618</v>
       </c>
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>630</v>
-      </c>
-      <c r="C98" t="s">
-        <v>631</v>
+        <v>619</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>1355</v>
       </c>
       <c r="D98" t="s">
-        <v>632</v>
+        <v>620</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>633</v>
+        <v>621</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>634</v>
+        <v>622</v>
       </c>
       <c r="G98" t="s">
-        <v>635</v>
+        <v>623</v>
       </c>
       <c r="H98" t="s">
-        <v>636</v>
+        <v>624</v>
       </c>
       <c r="I98" t="s">
-        <v>636</v>
+        <v>624</v>
       </c>
       <c r="J98" t="s">
-        <v>637</v>
+        <v>625</v>
       </c>
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
-        <v>638</v>
+        <v>626</v>
       </c>
       <c r="C99" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="D99" t="s">
-        <v>640</v>
+        <v>628</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>633</v>
+        <v>621</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>634</v>
+        <v>622</v>
       </c>
       <c r="G99" t="s">
-        <v>641</v>
+        <v>629</v>
       </c>
       <c r="H99" t="s">
-        <v>642</v>
+        <v>630</v>
       </c>
       <c r="I99" t="s">
-        <v>642</v>
+        <v>630</v>
       </c>
       <c r="J99" t="s">
-        <v>643</v>
+        <v>631</v>
       </c>
     </row>
     <row r="100" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
-        <v>644</v>
+        <v>632</v>
       </c>
       <c r="C100" t="s">
-        <v>645</v>
+        <v>633</v>
       </c>
       <c r="D100" t="s">
-        <v>646</v>
+        <v>634</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>633</v>
+        <v>621</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>647</v>
+        <v>635</v>
       </c>
       <c r="G100" t="s">
-        <v>648</v>
+        <v>636</v>
       </c>
       <c r="H100" t="s">
-        <v>649</v>
+        <v>637</v>
       </c>
       <c r="I100" t="s">
-        <v>649</v>
+        <v>637</v>
       </c>
       <c r="J100" t="s">
-        <v>650</v>
+        <v>638</v>
       </c>
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>651</v>
+        <v>639</v>
       </c>
       <c r="C101" t="s">
-        <v>652</v>
+        <v>640</v>
       </c>
       <c r="D101" t="s">
-        <v>653</v>
+        <v>641</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>633</v>
+        <v>621</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>647</v>
+        <v>635</v>
       </c>
       <c r="G101" t="s">
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="H101" t="s">
-        <v>655</v>
+        <v>643</v>
       </c>
       <c r="I101" t="s">
-        <v>655</v>
+        <v>643</v>
       </c>
       <c r="J101" t="s">
-        <v>656</v>
+        <v>644</v>
       </c>
     </row>
     <row r="102" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>657</v>
+        <v>645</v>
       </c>
       <c r="C102" t="s">
-        <v>658</v>
+        <v>646</v>
       </c>
       <c r="D102" t="s">
-        <v>659</v>
+        <v>647</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>633</v>
+        <v>621</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>660</v>
+        <v>648</v>
       </c>
       <c r="G102" t="s">
-        <v>661</v>
+        <v>649</v>
       </c>
       <c r="H102" t="s">
-        <v>662</v>
+        <v>650</v>
       </c>
       <c r="I102" t="s">
-        <v>662</v>
+        <v>650</v>
       </c>
       <c r="J102" t="s">
-        <v>663</v>
+        <v>651</v>
       </c>
     </row>
     <row r="103" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
-        <v>664</v>
+        <v>652</v>
       </c>
       <c r="C103" t="s">
-        <v>665</v>
+        <v>653</v>
       </c>
       <c r="D103" t="s">
-        <v>666</v>
+        <v>654</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>633</v>
+        <v>621</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>660</v>
+        <v>648</v>
       </c>
       <c r="G103" t="s">
-        <v>667</v>
+        <v>655</v>
       </c>
       <c r="H103" t="s">
-        <v>668</v>
+        <v>656</v>
       </c>
       <c r="I103" t="s">
-        <v>668</v>
+        <v>656</v>
       </c>
       <c r="J103" t="s">
-        <v>669</v>
+        <v>657</v>
       </c>
     </row>
     <row r="104" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
-        <v>670</v>
+        <v>658</v>
       </c>
       <c r="C104" t="s">
-        <v>671</v>
+        <v>659</v>
       </c>
       <c r="D104" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>633</v>
+        <v>621</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>673</v>
+        <v>661</v>
       </c>
       <c r="G104" t="s">
-        <v>674</v>
+        <v>662</v>
       </c>
       <c r="H104" t="s">
-        <v>675</v>
+        <v>663</v>
       </c>
       <c r="I104" t="s">
-        <v>675</v>
+        <v>663</v>
       </c>
       <c r="J104" t="s">
-        <v>676</v>
+        <v>664</v>
       </c>
     </row>
     <row r="105" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
-        <v>677</v>
+        <v>665</v>
       </c>
       <c r="C105" t="s">
-        <v>678</v>
+        <v>666</v>
       </c>
       <c r="D105" t="s">
-        <v>679</v>
+        <v>667</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>633</v>
+        <v>621</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>673</v>
+        <v>661</v>
       </c>
       <c r="G105" t="s">
-        <v>680</v>
+        <v>668</v>
       </c>
       <c r="H105" t="s">
-        <v>681</v>
+        <v>669</v>
       </c>
       <c r="I105" t="s">
-        <v>681</v>
+        <v>669</v>
       </c>
       <c r="J105" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
     </row>
     <row r="106" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>683</v>
+        <v>671</v>
       </c>
       <c r="C106" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="D106" t="s">
-        <v>685</v>
+        <v>673</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>633</v>
+        <v>621</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>686</v>
+        <v>674</v>
       </c>
       <c r="G106" t="s">
-        <v>687</v>
+        <v>675</v>
       </c>
       <c r="H106" t="s">
-        <v>688</v>
+        <v>676</v>
       </c>
       <c r="I106" t="s">
-        <v>688</v>
+        <v>676</v>
       </c>
       <c r="J106" t="s">
-        <v>689</v>
+        <v>677</v>
       </c>
     </row>
     <row r="107" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
-        <v>690</v>
+        <v>678</v>
       </c>
       <c r="C107" t="s">
-        <v>691</v>
+        <v>679</v>
       </c>
       <c r="D107" t="s">
-        <v>692</v>
+        <v>680</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>633</v>
+        <v>621</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>686</v>
+        <v>674</v>
       </c>
       <c r="G107" t="s">
-        <v>693</v>
+        <v>681</v>
       </c>
       <c r="H107" t="s">
-        <v>694</v>
+        <v>682</v>
       </c>
       <c r="I107" t="s">
-        <v>694</v>
+        <v>682</v>
       </c>
       <c r="J107" t="s">
-        <v>695</v>
+        <v>683</v>
       </c>
     </row>
     <row r="108" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="C108" t="s">
-        <v>697</v>
+        <v>685</v>
       </c>
       <c r="D108" t="s">
-        <v>698</v>
+        <v>686</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>633</v>
+        <v>621</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>699</v>
+        <v>687</v>
       </c>
       <c r="G108" t="s">
-        <v>700</v>
+        <v>688</v>
       </c>
       <c r="H108" t="s">
-        <v>701</v>
+        <v>689</v>
       </c>
       <c r="I108" t="s">
-        <v>701</v>
+        <v>689</v>
       </c>
       <c r="J108" t="s">
-        <v>702</v>
+        <v>690</v>
       </c>
     </row>
     <row r="109" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
-        <v>703</v>
+        <v>691</v>
       </c>
       <c r="C109" t="s">
-        <v>704</v>
+        <v>692</v>
       </c>
       <c r="D109" t="s">
-        <v>705</v>
+        <v>693</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>633</v>
+        <v>621</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>699</v>
+        <v>687</v>
       </c>
       <c r="G109" t="s">
-        <v>706</v>
+        <v>694</v>
       </c>
       <c r="H109" t="s">
-        <v>707</v>
+        <v>695</v>
       </c>
       <c r="I109" t="s">
-        <v>707</v>
+        <v>695</v>
       </c>
       <c r="J109" t="s">
-        <v>708</v>
+        <v>696</v>
       </c>
     </row>
     <row r="110" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
-        <v>709</v>
+        <v>697</v>
       </c>
       <c r="C110" t="s">
-        <v>710</v>
+        <v>698</v>
       </c>
       <c r="D110" t="s">
-        <v>711</v>
+        <v>699</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>633</v>
+        <v>621</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>712</v>
+        <v>700</v>
       </c>
       <c r="G110" t="s">
-        <v>713</v>
+        <v>701</v>
       </c>
       <c r="H110" t="s">
-        <v>714</v>
+        <v>702</v>
       </c>
       <c r="I110" t="s">
-        <v>714</v>
+        <v>702</v>
       </c>
       <c r="J110" t="s">
-        <v>715</v>
+        <v>703</v>
       </c>
     </row>
     <row r="111" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
-        <v>716</v>
+        <v>704</v>
       </c>
       <c r="C111" t="s">
-        <v>717</v>
+        <v>705</v>
       </c>
       <c r="D111" t="s">
-        <v>718</v>
+        <v>706</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>633</v>
+        <v>621</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>712</v>
+        <v>700</v>
       </c>
       <c r="G111" t="s">
-        <v>719</v>
+        <v>707</v>
       </c>
       <c r="H111" t="s">
-        <v>720</v>
+        <v>708</v>
       </c>
       <c r="I111" t="s">
-        <v>720</v>
+        <v>708</v>
       </c>
       <c r="J111" t="s">
-        <v>721</v>
+        <v>709</v>
       </c>
     </row>
     <row r="112" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
-        <v>722</v>
-      </c>
-      <c r="C112" s="4" t="s">
-        <v>1365</v>
+        <v>710</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>1356</v>
       </c>
       <c r="D112" t="s">
-        <v>723</v>
+        <v>711</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>633</v>
+        <v>621</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>724</v>
+        <v>712</v>
       </c>
       <c r="G112" t="s">
-        <v>725</v>
+        <v>713</v>
       </c>
       <c r="H112" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="I112" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="J112" t="s">
-        <v>727</v>
+        <v>715</v>
       </c>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
-        <v>728</v>
+        <v>716</v>
       </c>
       <c r="C113" t="s">
-        <v>729</v>
+        <v>717</v>
       </c>
       <c r="D113" t="s">
-        <v>730</v>
+        <v>718</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>633</v>
+        <v>621</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>724</v>
+        <v>712</v>
       </c>
       <c r="G113" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="H113" t="s">
-        <v>732</v>
+        <v>720</v>
       </c>
       <c r="I113" t="s">
-        <v>732</v>
+        <v>720</v>
       </c>
       <c r="J113" t="s">
-        <v>733</v>
+        <v>721</v>
       </c>
     </row>
     <row r="114" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="C114" t="s">
-        <v>735</v>
+        <v>723</v>
       </c>
       <c r="D114" t="s">
-        <v>736</v>
+        <v>724</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>737</v>
+        <v>725</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>738</v>
+        <v>726</v>
       </c>
       <c r="G114" t="s">
-        <v>739</v>
+        <v>727</v>
       </c>
       <c r="H114" t="s">
-        <v>740</v>
+        <v>728</v>
       </c>
       <c r="I114" t="s">
-        <v>740</v>
+        <v>728</v>
       </c>
       <c r="J114" t="s">
-        <v>741</v>
+        <v>729</v>
       </c>
     </row>
     <row r="115" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
-        <v>742</v>
-      </c>
-      <c r="C115" s="4" t="s">
-        <v>1366</v>
+        <v>730</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>1357</v>
       </c>
       <c r="D115" t="s">
-        <v>743</v>
+        <v>731</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>737</v>
+        <v>725</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>738</v>
+        <v>726</v>
       </c>
       <c r="G115" t="s">
-        <v>744</v>
+        <v>732</v>
       </c>
       <c r="H115" t="s">
-        <v>745</v>
+        <v>733</v>
       </c>
       <c r="I115" t="s">
-        <v>745</v>
+        <v>733</v>
       </c>
       <c r="J115" t="s">
-        <v>746</v>
+        <v>734</v>
       </c>
     </row>
     <row r="116" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
-        <v>747</v>
-      </c>
-      <c r="C116" s="4" t="s">
-        <v>1367</v>
+        <v>735</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>1358</v>
       </c>
       <c r="D116" t="s">
-        <v>748</v>
+        <v>736</v>
       </c>
       <c r="E116" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="F116" s="1" t="s">
         <v>737</v>
       </c>
-      <c r="F116" s="1" t="s">
-        <v>749</v>
-      </c>
       <c r="G116" t="s">
-        <v>750</v>
+        <v>738</v>
       </c>
       <c r="H116" t="s">
-        <v>751</v>
+        <v>739</v>
       </c>
       <c r="I116" t="s">
-        <v>751</v>
+        <v>739</v>
       </c>
       <c r="J116" t="s">
-        <v>752</v>
+        <v>740</v>
       </c>
     </row>
     <row r="117" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="C117" t="s">
-        <v>754</v>
+        <v>742</v>
       </c>
       <c r="D117" t="s">
-        <v>755</v>
+        <v>743</v>
       </c>
       <c r="E117" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="F117" s="1" t="s">
         <v>737</v>
       </c>
-      <c r="F117" s="1" t="s">
-        <v>749</v>
-      </c>
       <c r="G117" t="s">
-        <v>756</v>
+        <v>744</v>
       </c>
       <c r="H117" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="I117" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="J117" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="118" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
-        <v>759</v>
+        <v>747</v>
       </c>
       <c r="C118" t="s">
-        <v>760</v>
+        <v>748</v>
       </c>
       <c r="D118" t="s">
-        <v>761</v>
+        <v>749</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>737</v>
+        <v>725</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>762</v>
+        <v>750</v>
       </c>
       <c r="G118" t="s">
-        <v>763</v>
+        <v>751</v>
       </c>
       <c r="H118" t="s">
-        <v>764</v>
+        <v>752</v>
       </c>
       <c r="I118" t="s">
-        <v>764</v>
+        <v>752</v>
       </c>
       <c r="J118" t="s">
-        <v>765</v>
+        <v>753</v>
       </c>
     </row>
     <row r="119" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
-        <v>766</v>
-      </c>
-      <c r="C119" s="4" t="s">
-        <v>1368</v>
+        <v>754</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>1359</v>
       </c>
       <c r="D119" t="s">
-        <v>767</v>
+        <v>755</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>737</v>
+        <v>725</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>762</v>
+        <v>750</v>
       </c>
       <c r="G119" t="s">
-        <v>768</v>
+        <v>756</v>
       </c>
       <c r="H119" t="s">
-        <v>769</v>
+        <v>757</v>
       </c>
       <c r="I119" t="s">
-        <v>769</v>
+        <v>757</v>
       </c>
       <c r="J119" t="s">
-        <v>770</v>
+        <v>758</v>
       </c>
     </row>
     <row r="120" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
-        <v>771</v>
+        <v>759</v>
       </c>
       <c r="C120" t="s">
-        <v>772</v>
+        <v>760</v>
       </c>
       <c r="D120" t="s">
-        <v>773</v>
+        <v>761</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>737</v>
+        <v>725</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>774</v>
+        <v>762</v>
       </c>
       <c r="G120" t="s">
-        <v>775</v>
+        <v>763</v>
       </c>
       <c r="H120" t="s">
-        <v>776</v>
+        <v>764</v>
       </c>
       <c r="I120" t="s">
-        <v>776</v>
+        <v>764</v>
       </c>
       <c r="J120" t="s">
-        <v>777</v>
+        <v>765</v>
       </c>
     </row>
     <row r="121" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
-        <v>778</v>
+        <v>766</v>
       </c>
       <c r="C121" t="s">
-        <v>779</v>
+        <v>767</v>
       </c>
       <c r="D121" t="s">
-        <v>780</v>
+        <v>768</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>737</v>
+        <v>725</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>774</v>
+        <v>762</v>
       </c>
       <c r="G121" t="s">
-        <v>781</v>
+        <v>769</v>
       </c>
       <c r="H121" t="s">
-        <v>782</v>
+        <v>770</v>
       </c>
       <c r="I121" t="s">
-        <v>782</v>
+        <v>770</v>
       </c>
       <c r="J121" t="s">
-        <v>783</v>
+        <v>771</v>
       </c>
     </row>
     <row r="122" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
-        <v>784</v>
+        <v>772</v>
       </c>
       <c r="C122" t="s">
-        <v>785</v>
+        <v>773</v>
       </c>
       <c r="D122" t="s">
-        <v>786</v>
+        <v>774</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>737</v>
+        <v>725</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>787</v>
+        <v>775</v>
       </c>
       <c r="G122" t="s">
-        <v>788</v>
+        <v>776</v>
       </c>
       <c r="H122" t="s">
-        <v>789</v>
+        <v>777</v>
       </c>
       <c r="I122" t="s">
-        <v>789</v>
+        <v>777</v>
       </c>
       <c r="J122" t="s">
-        <v>790</v>
+        <v>778</v>
       </c>
     </row>
     <row r="123" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
-        <v>791</v>
-      </c>
-      <c r="C123" t="s">
-        <v>792</v>
+        <v>779</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>1360</v>
       </c>
       <c r="D123" t="s">
-        <v>793</v>
+        <v>780</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>737</v>
+        <v>725</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>787</v>
+        <v>775</v>
       </c>
       <c r="G123" t="s">
-        <v>794</v>
+        <v>781</v>
       </c>
       <c r="H123" t="s">
-        <v>795</v>
+        <v>782</v>
       </c>
       <c r="I123" t="s">
-        <v>795</v>
+        <v>782</v>
       </c>
       <c r="J123" t="s">
-        <v>796</v>
+        <v>783</v>
       </c>
     </row>
     <row r="124" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
-        <v>797</v>
-      </c>
-      <c r="C124" t="s">
-        <v>798</v>
+        <v>784</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>1361</v>
       </c>
       <c r="D124" t="s">
-        <v>799</v>
+        <v>785</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>737</v>
+        <v>725</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>800</v>
+        <v>786</v>
       </c>
       <c r="G124" t="s">
-        <v>801</v>
+        <v>787</v>
       </c>
       <c r="H124" t="s">
-        <v>802</v>
+        <v>788</v>
       </c>
       <c r="I124" t="s">
-        <v>802</v>
+        <v>788</v>
       </c>
       <c r="J124" t="s">
-        <v>803</v>
+        <v>789</v>
       </c>
     </row>
     <row r="125" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
-        <v>804</v>
+        <v>790</v>
       </c>
       <c r="C125" t="s">
-        <v>805</v>
+        <v>791</v>
       </c>
       <c r="D125" t="s">
-        <v>806</v>
+        <v>792</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>737</v>
+        <v>725</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>800</v>
+        <v>786</v>
       </c>
       <c r="G125" t="s">
-        <v>807</v>
+        <v>793</v>
       </c>
       <c r="H125" t="s">
-        <v>808</v>
+        <v>794</v>
       </c>
       <c r="I125" t="s">
-        <v>808</v>
+        <v>794</v>
       </c>
       <c r="J125" t="s">
-        <v>809</v>
+        <v>795</v>
       </c>
     </row>
     <row r="126" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
-        <v>810</v>
+        <v>796</v>
       </c>
       <c r="C126" t="s">
-        <v>811</v>
+        <v>797</v>
       </c>
       <c r="D126" t="s">
-        <v>812</v>
+        <v>798</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>737</v>
+        <v>725</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>813</v>
+        <v>799</v>
       </c>
       <c r="G126" t="s">
-        <v>814</v>
+        <v>800</v>
       </c>
       <c r="H126" t="s">
-        <v>815</v>
+        <v>801</v>
       </c>
       <c r="I126" t="s">
-        <v>815</v>
+        <v>801</v>
       </c>
       <c r="J126" t="s">
-        <v>816</v>
+        <v>802</v>
       </c>
     </row>
     <row r="127" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
-        <v>817</v>
+        <v>803</v>
       </c>
       <c r="C127" t="s">
-        <v>818</v>
+        <v>804</v>
       </c>
       <c r="D127" t="s">
-        <v>819</v>
+        <v>805</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>737</v>
+        <v>725</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>813</v>
+        <v>799</v>
       </c>
       <c r="G127" t="s">
-        <v>820</v>
+        <v>806</v>
       </c>
       <c r="H127" t="s">
-        <v>821</v>
+        <v>807</v>
       </c>
       <c r="I127" t="s">
-        <v>821</v>
+        <v>807</v>
       </c>
       <c r="J127" t="s">
-        <v>822</v>
+        <v>808</v>
       </c>
     </row>
     <row r="128" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
-        <v>823</v>
+        <v>809</v>
       </c>
       <c r="C128" t="s">
-        <v>824</v>
+        <v>810</v>
       </c>
       <c r="D128" t="s">
-        <v>825</v>
+        <v>811</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>737</v>
+        <v>725</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>826</v>
+        <v>812</v>
       </c>
       <c r="G128" t="s">
-        <v>827</v>
+        <v>813</v>
       </c>
       <c r="H128" t="s">
-        <v>828</v>
+        <v>814</v>
       </c>
       <c r="I128" t="s">
-        <v>828</v>
+        <v>814</v>
       </c>
       <c r="J128" t="s">
-        <v>829</v>
+        <v>815</v>
       </c>
     </row>
     <row r="129" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
-        <v>830</v>
+        <v>816</v>
       </c>
       <c r="C129" t="s">
-        <v>831</v>
+        <v>817</v>
       </c>
       <c r="D129" t="s">
-        <v>832</v>
+        <v>818</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>737</v>
+        <v>725</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>826</v>
+        <v>812</v>
       </c>
       <c r="G129" t="s">
-        <v>833</v>
+        <v>819</v>
       </c>
       <c r="H129" t="s">
-        <v>834</v>
+        <v>820</v>
       </c>
       <c r="I129" t="s">
-        <v>834</v>
+        <v>820</v>
       </c>
       <c r="J129" t="s">
-        <v>835</v>
+        <v>821</v>
       </c>
     </row>
     <row r="130" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
-        <v>836</v>
+        <v>822</v>
       </c>
       <c r="C130" t="s">
-        <v>837</v>
+        <v>823</v>
       </c>
       <c r="D130" t="s">
-        <v>838</v>
+        <v>824</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>839</v>
+        <v>825</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>840</v>
+        <v>826</v>
       </c>
       <c r="G130" t="s">
-        <v>841</v>
+        <v>827</v>
       </c>
       <c r="H130" t="s">
-        <v>842</v>
+        <v>828</v>
       </c>
       <c r="I130" t="s">
-        <v>842</v>
+        <v>828</v>
       </c>
       <c r="J130" t="s">
-        <v>843</v>
+        <v>829</v>
       </c>
     </row>
     <row r="131" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
-        <v>844</v>
+        <v>830</v>
       </c>
       <c r="C131" t="s">
-        <v>845</v>
+        <v>831</v>
       </c>
       <c r="D131" t="s">
-        <v>846</v>
+        <v>832</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>839</v>
+        <v>825</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>840</v>
+        <v>826</v>
       </c>
       <c r="G131" t="s">
-        <v>847</v>
+        <v>833</v>
       </c>
       <c r="H131" t="s">
-        <v>848</v>
+        <v>834</v>
       </c>
       <c r="I131" t="s">
-        <v>848</v>
+        <v>834</v>
       </c>
       <c r="J131" t="s">
-        <v>849</v>
+        <v>835</v>
       </c>
     </row>
     <row r="132" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
-        <v>850</v>
+        <v>836</v>
       </c>
       <c r="C132" t="s">
-        <v>851</v>
+        <v>837</v>
       </c>
       <c r="D132" t="s">
-        <v>852</v>
+        <v>838</v>
       </c>
       <c r="E132" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="F132" s="1" t="s">
         <v>839</v>
       </c>
-      <c r="F132" s="1" t="s">
-        <v>853</v>
-      </c>
       <c r="G132" t="s">
-        <v>854</v>
+        <v>840</v>
       </c>
       <c r="H132" t="s">
-        <v>855</v>
+        <v>841</v>
       </c>
       <c r="I132" t="s">
-        <v>855</v>
+        <v>841</v>
       </c>
       <c r="J132" t="s">
-        <v>856</v>
+        <v>842</v>
       </c>
     </row>
     <row r="133" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
-        <v>857</v>
+        <v>843</v>
       </c>
       <c r="C133" t="s">
-        <v>858</v>
+        <v>844</v>
       </c>
       <c r="D133" t="s">
-        <v>859</v>
+        <v>845</v>
       </c>
       <c r="E133" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="F133" s="1" t="s">
         <v>839</v>
       </c>
-      <c r="F133" s="1" t="s">
-        <v>853</v>
-      </c>
       <c r="G133" t="s">
-        <v>860</v>
+        <v>846</v>
       </c>
       <c r="H133" t="s">
-        <v>861</v>
+        <v>847</v>
       </c>
       <c r="I133" t="s">
-        <v>861</v>
+        <v>847</v>
       </c>
       <c r="J133" t="s">
-        <v>862</v>
+        <v>848</v>
       </c>
     </row>
     <row r="134" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
-        <v>863</v>
+        <v>849</v>
       </c>
       <c r="C134" t="s">
-        <v>864</v>
+        <v>850</v>
       </c>
       <c r="D134" t="s">
-        <v>865</v>
+        <v>851</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>839</v>
+        <v>825</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>866</v>
+        <v>852</v>
       </c>
       <c r="G134" t="s">
-        <v>867</v>
+        <v>853</v>
       </c>
       <c r="H134" t="s">
-        <v>868</v>
+        <v>854</v>
       </c>
       <c r="I134" t="s">
-        <v>868</v>
+        <v>854</v>
       </c>
       <c r="J134" t="s">
-        <v>869</v>
+        <v>855</v>
       </c>
     </row>
     <row r="135" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
-        <v>870</v>
+        <v>856</v>
       </c>
       <c r="C135" t="s">
-        <v>871</v>
+        <v>857</v>
       </c>
       <c r="D135" t="s">
-        <v>872</v>
+        <v>858</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>839</v>
+        <v>825</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>866</v>
+        <v>852</v>
       </c>
       <c r="G135" t="s">
-        <v>873</v>
+        <v>859</v>
       </c>
       <c r="H135" t="s">
-        <v>874</v>
+        <v>860</v>
       </c>
       <c r="I135" t="s">
-        <v>874</v>
+        <v>860</v>
       </c>
       <c r="J135" t="s">
-        <v>875</v>
+        <v>861</v>
       </c>
     </row>
     <row r="136" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
-        <v>876</v>
+        <v>862</v>
       </c>
       <c r="C136" t="s">
-        <v>877</v>
+        <v>863</v>
       </c>
       <c r="D136" t="s">
-        <v>878</v>
+        <v>864</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>839</v>
+        <v>825</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>879</v>
+        <v>865</v>
       </c>
       <c r="G136" t="s">
-        <v>880</v>
+        <v>866</v>
       </c>
       <c r="H136" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I136" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="J136" t="s">
-        <v>882</v>
+        <v>868</v>
       </c>
     </row>
     <row r="137" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
-        <v>883</v>
+        <v>869</v>
       </c>
       <c r="C137" t="s">
-        <v>884</v>
+        <v>870</v>
       </c>
       <c r="D137" t="s">
-        <v>885</v>
+        <v>871</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>839</v>
+        <v>825</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>879</v>
+        <v>865</v>
       </c>
       <c r="G137" t="s">
-        <v>886</v>
+        <v>872</v>
       </c>
       <c r="H137" t="s">
-        <v>887</v>
+        <v>873</v>
       </c>
       <c r="I137" t="s">
-        <v>887</v>
+        <v>873</v>
       </c>
       <c r="J137" t="s">
-        <v>888</v>
+        <v>874</v>
       </c>
     </row>
     <row r="138" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
-        <v>889</v>
+        <v>875</v>
       </c>
       <c r="C138" t="s">
-        <v>890</v>
+        <v>876</v>
       </c>
       <c r="D138" t="s">
-        <v>891</v>
+        <v>877</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>839</v>
+        <v>825</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>892</v>
+        <v>878</v>
       </c>
       <c r="G138" t="s">
-        <v>893</v>
+        <v>879</v>
       </c>
       <c r="H138" t="s">
-        <v>894</v>
+        <v>880</v>
       </c>
       <c r="I138" t="s">
-        <v>894</v>
+        <v>880</v>
       </c>
       <c r="J138" t="s">
-        <v>895</v>
+        <v>881</v>
       </c>
     </row>
     <row r="139" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
-        <v>896</v>
+        <v>882</v>
       </c>
       <c r="C139" t="s">
-        <v>897</v>
+        <v>883</v>
       </c>
       <c r="D139" t="s">
-        <v>898</v>
+        <v>884</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>839</v>
+        <v>825</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>892</v>
+        <v>878</v>
       </c>
       <c r="G139" t="s">
-        <v>899</v>
+        <v>885</v>
       </c>
       <c r="H139" t="s">
-        <v>900</v>
+        <v>886</v>
       </c>
       <c r="I139" t="s">
-        <v>900</v>
+        <v>886</v>
       </c>
       <c r="J139" t="s">
-        <v>901</v>
+        <v>887</v>
       </c>
     </row>
     <row r="140" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
-        <v>902</v>
+        <v>888</v>
       </c>
       <c r="C140" t="s">
-        <v>903</v>
+        <v>889</v>
       </c>
       <c r="D140" t="s">
-        <v>904</v>
+        <v>890</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>839</v>
+        <v>825</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>905</v>
+        <v>891</v>
       </c>
       <c r="G140" t="s">
-        <v>906</v>
+        <v>892</v>
       </c>
       <c r="H140" t="s">
-        <v>907</v>
+        <v>893</v>
       </c>
       <c r="I140" t="s">
-        <v>907</v>
+        <v>893</v>
       </c>
       <c r="J140" t="s">
-        <v>908</v>
+        <v>894</v>
       </c>
     </row>
     <row r="141" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
-        <v>909</v>
+        <v>895</v>
       </c>
       <c r="C141" t="s">
-        <v>910</v>
+        <v>896</v>
       </c>
       <c r="D141" t="s">
-        <v>911</v>
+        <v>897</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>839</v>
+        <v>825</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>905</v>
+        <v>891</v>
       </c>
       <c r="G141" t="s">
-        <v>912</v>
+        <v>898</v>
       </c>
       <c r="H141" t="s">
-        <v>913</v>
+        <v>899</v>
       </c>
       <c r="I141" t="s">
-        <v>913</v>
+        <v>899</v>
       </c>
       <c r="J141" t="s">
-        <v>914</v>
+        <v>900</v>
       </c>
     </row>
     <row r="142" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
-        <v>915</v>
+        <v>901</v>
       </c>
       <c r="C142" t="s">
-        <v>916</v>
+        <v>902</v>
       </c>
       <c r="D142" t="s">
-        <v>917</v>
+        <v>903</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>839</v>
+        <v>825</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>918</v>
+        <v>904</v>
       </c>
       <c r="G142" t="s">
-        <v>919</v>
+        <v>905</v>
       </c>
       <c r="H142" t="s">
-        <v>920</v>
+        <v>906</v>
       </c>
       <c r="I142" t="s">
-        <v>920</v>
+        <v>906</v>
       </c>
       <c r="J142" t="s">
-        <v>921</v>
+        <v>907</v>
       </c>
     </row>
     <row r="143" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
-        <v>922</v>
+        <v>908</v>
       </c>
       <c r="C143" t="s">
-        <v>923</v>
+        <v>909</v>
       </c>
       <c r="D143" t="s">
-        <v>924</v>
+        <v>910</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>839</v>
+        <v>825</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>918</v>
+        <v>904</v>
       </c>
       <c r="G143" t="s">
-        <v>925</v>
+        <v>911</v>
       </c>
       <c r="H143" t="s">
-        <v>926</v>
+        <v>912</v>
       </c>
       <c r="I143" t="s">
-        <v>926</v>
+        <v>912</v>
       </c>
       <c r="J143" t="s">
-        <v>927</v>
+        <v>913</v>
       </c>
     </row>
     <row r="144" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
-        <v>928</v>
+        <v>914</v>
       </c>
       <c r="C144" t="s">
-        <v>929</v>
+        <v>915</v>
       </c>
       <c r="D144" t="s">
-        <v>930</v>
+        <v>916</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>839</v>
+        <v>825</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>931</v>
+        <v>917</v>
       </c>
       <c r="G144" t="s">
-        <v>932</v>
+        <v>918</v>
       </c>
       <c r="H144" t="s">
-        <v>933</v>
+        <v>919</v>
       </c>
       <c r="I144" t="s">
-        <v>933</v>
+        <v>919</v>
       </c>
       <c r="J144" t="s">
-        <v>934</v>
+        <v>920</v>
       </c>
     </row>
     <row r="145" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
-        <v>935</v>
+        <v>921</v>
       </c>
       <c r="C145" t="s">
-        <v>936</v>
+        <v>922</v>
       </c>
       <c r="D145" t="s">
-        <v>937</v>
+        <v>923</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>839</v>
+        <v>825</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>931</v>
+        <v>917</v>
       </c>
       <c r="G145" t="s">
-        <v>938</v>
+        <v>924</v>
       </c>
       <c r="H145" t="s">
-        <v>939</v>
+        <v>925</v>
       </c>
       <c r="I145" t="s">
-        <v>939</v>
+        <v>925</v>
       </c>
       <c r="J145" t="s">
-        <v>940</v>
+        <v>926</v>
       </c>
     </row>
     <row r="146" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
-        <v>941</v>
+        <v>927</v>
       </c>
       <c r="C146" t="s">
-        <v>942</v>
+        <v>928</v>
       </c>
       <c r="D146" t="s">
-        <v>943</v>
+        <v>929</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>944</v>
+        <v>930</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>945</v>
+        <v>931</v>
       </c>
       <c r="G146" t="s">
-        <v>946</v>
+        <v>932</v>
       </c>
       <c r="H146" t="s">
-        <v>947</v>
+        <v>933</v>
       </c>
       <c r="I146" t="s">
-        <v>947</v>
+        <v>933</v>
       </c>
       <c r="J146" t="s">
-        <v>948</v>
+        <v>934</v>
       </c>
     </row>
     <row r="147" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
-        <v>949</v>
+        <v>935</v>
       </c>
       <c r="C147" t="s">
-        <v>950</v>
+        <v>936</v>
       </c>
       <c r="D147" t="s">
-        <v>951</v>
+        <v>937</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>944</v>
+        <v>930</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>945</v>
+        <v>931</v>
       </c>
       <c r="G147" t="s">
-        <v>952</v>
+        <v>938</v>
       </c>
       <c r="H147" t="s">
-        <v>953</v>
+        <v>939</v>
       </c>
       <c r="I147" t="s">
-        <v>953</v>
+        <v>939</v>
       </c>
       <c r="J147" t="s">
-        <v>954</v>
+        <v>940</v>
       </c>
     </row>
     <row r="148" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
-        <v>955</v>
+        <v>941</v>
       </c>
       <c r="C148" t="s">
-        <v>956</v>
+        <v>942</v>
       </c>
       <c r="D148" t="s">
-        <v>957</v>
+        <v>943</v>
       </c>
       <c r="E148" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="F148" s="1" t="s">
         <v>944</v>
       </c>
-      <c r="F148" s="1" t="s">
-        <v>958</v>
-      </c>
       <c r="G148" t="s">
-        <v>959</v>
+        <v>945</v>
       </c>
       <c r="H148" t="s">
-        <v>960</v>
+        <v>946</v>
       </c>
       <c r="I148" t="s">
-        <v>960</v>
+        <v>946</v>
       </c>
       <c r="J148" t="s">
-        <v>961</v>
+        <v>947</v>
       </c>
     </row>
     <row r="149" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
-        <v>962</v>
+        <v>948</v>
       </c>
       <c r="C149" t="s">
-        <v>963</v>
+        <v>949</v>
       </c>
       <c r="D149" t="s">
-        <v>964</v>
+        <v>950</v>
       </c>
       <c r="E149" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="F149" s="1" t="s">
         <v>944</v>
       </c>
-      <c r="F149" s="1" t="s">
-        <v>958</v>
-      </c>
       <c r="G149" t="s">
-        <v>965</v>
+        <v>951</v>
       </c>
       <c r="H149" t="s">
-        <v>966</v>
+        <v>952</v>
       </c>
       <c r="I149" t="s">
-        <v>966</v>
+        <v>952</v>
       </c>
       <c r="J149" t="s">
-        <v>967</v>
+        <v>953</v>
       </c>
     </row>
     <row r="150" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
-        <v>968</v>
+        <v>954</v>
       </c>
       <c r="C150" t="s">
-        <v>969</v>
+        <v>955</v>
       </c>
       <c r="D150" t="s">
-        <v>970</v>
+        <v>956</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>944</v>
+        <v>930</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>1350</v>
+        <v>1335</v>
       </c>
       <c r="G150" t="s">
-        <v>971</v>
+        <v>957</v>
       </c>
       <c r="H150" t="s">
-        <v>972</v>
+        <v>958</v>
       </c>
       <c r="I150" t="s">
-        <v>972</v>
+        <v>958</v>
       </c>
       <c r="J150" t="s">
-        <v>973</v>
+        <v>959</v>
       </c>
     </row>
     <row r="151" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
-        <v>974</v>
+        <v>960</v>
       </c>
       <c r="C151" t="s">
-        <v>975</v>
+        <v>961</v>
       </c>
       <c r="D151" t="s">
-        <v>976</v>
+        <v>962</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>944</v>
+        <v>930</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>1350</v>
+        <v>1335</v>
       </c>
       <c r="G151" t="s">
-        <v>977</v>
+        <v>963</v>
       </c>
       <c r="H151" t="s">
-        <v>978</v>
+        <v>964</v>
       </c>
       <c r="I151" t="s">
-        <v>978</v>
+        <v>964</v>
       </c>
       <c r="J151" t="s">
-        <v>979</v>
+        <v>965</v>
       </c>
     </row>
     <row r="152" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
-        <v>980</v>
+        <v>966</v>
       </c>
       <c r="C152" t="s">
-        <v>981</v>
+        <v>967</v>
       </c>
       <c r="D152" t="s">
-        <v>982</v>
+        <v>968</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>944</v>
+        <v>930</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>983</v>
+        <v>969</v>
       </c>
       <c r="G152" t="s">
-        <v>984</v>
+        <v>970</v>
       </c>
       <c r="H152" t="s">
-        <v>985</v>
+        <v>971</v>
       </c>
       <c r="I152" t="s">
-        <v>985</v>
+        <v>971</v>
       </c>
       <c r="J152" t="s">
-        <v>986</v>
+        <v>972</v>
       </c>
     </row>
     <row r="153" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
-        <v>987</v>
+        <v>973</v>
       </c>
       <c r="C153" t="s">
-        <v>988</v>
+        <v>974</v>
       </c>
       <c r="D153" t="s">
-        <v>989</v>
+        <v>975</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>944</v>
+        <v>930</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>983</v>
+        <v>969</v>
       </c>
       <c r="G153" t="s">
-        <v>990</v>
+        <v>976</v>
       </c>
       <c r="H153" t="s">
-        <v>991</v>
+        <v>977</v>
       </c>
       <c r="I153" t="s">
-        <v>991</v>
+        <v>977</v>
       </c>
       <c r="J153" t="s">
-        <v>992</v>
+        <v>978</v>
       </c>
     </row>
     <row r="154" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
-        <v>993</v>
+        <v>979</v>
       </c>
       <c r="C154" t="s">
-        <v>994</v>
+        <v>980</v>
       </c>
       <c r="D154" t="s">
-        <v>995</v>
+        <v>981</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>944</v>
+        <v>930</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>996</v>
+        <v>982</v>
       </c>
       <c r="G154" t="s">
-        <v>997</v>
+        <v>983</v>
       </c>
       <c r="H154" t="s">
-        <v>998</v>
+        <v>984</v>
       </c>
       <c r="I154" t="s">
-        <v>998</v>
+        <v>984</v>
       </c>
       <c r="J154" t="s">
-        <v>999</v>
+        <v>985</v>
       </c>
     </row>
     <row r="155" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
-        <v>1000</v>
+        <v>986</v>
       </c>
       <c r="C155" t="s">
-        <v>1001</v>
+        <v>987</v>
       </c>
       <c r="D155" t="s">
-        <v>1002</v>
+        <v>988</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>944</v>
+        <v>930</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>996</v>
+        <v>982</v>
       </c>
       <c r="G155" t="s">
-        <v>1003</v>
+        <v>989</v>
       </c>
       <c r="H155" t="s">
-        <v>1004</v>
+        <v>990</v>
       </c>
       <c r="I155" t="s">
-        <v>1004</v>
+        <v>990</v>
       </c>
       <c r="J155" t="s">
-        <v>1005</v>
+        <v>991</v>
       </c>
     </row>
     <row r="156" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
-        <v>1006</v>
-      </c>
-      <c r="C156" s="4" t="s">
-        <v>1355</v>
+        <v>992</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>1362</v>
       </c>
       <c r="D156" t="s">
-        <v>1007</v>
+        <v>993</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>944</v>
+        <v>930</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>1008</v>
+        <v>994</v>
       </c>
       <c r="G156" t="s">
-        <v>1009</v>
+        <v>995</v>
       </c>
       <c r="H156" t="s">
-        <v>1010</v>
+        <v>996</v>
       </c>
       <c r="I156" t="s">
-        <v>1010</v>
+        <v>996</v>
       </c>
       <c r="J156" t="s">
-        <v>1011</v>
+        <v>997</v>
       </c>
     </row>
     <row r="157" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
-        <v>1012</v>
+        <v>998</v>
       </c>
       <c r="C157" t="s">
-        <v>1013</v>
+        <v>999</v>
       </c>
       <c r="D157" t="s">
-        <v>1014</v>
+        <v>1000</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>944</v>
+        <v>930</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>1008</v>
+        <v>994</v>
       </c>
       <c r="G157" t="s">
-        <v>1015</v>
+        <v>1001</v>
       </c>
       <c r="H157" t="s">
-        <v>1016</v>
+        <v>1002</v>
       </c>
       <c r="I157" t="s">
-        <v>1016</v>
+        <v>1002</v>
       </c>
       <c r="J157" t="s">
-        <v>1017</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="158" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
-        <v>1018</v>
+        <v>1004</v>
       </c>
       <c r="C158" t="s">
-        <v>1019</v>
+        <v>1005</v>
       </c>
       <c r="D158" t="s">
-        <v>1020</v>
+        <v>1006</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>944</v>
+        <v>930</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
       <c r="G158" t="s">
-        <v>1022</v>
+        <v>1008</v>
       </c>
       <c r="H158" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
       <c r="I158" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
       <c r="J158" t="s">
-        <v>1024</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="159" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
-        <v>1025</v>
+        <v>1011</v>
       </c>
       <c r="C159" t="s">
-        <v>1026</v>
+        <v>1012</v>
       </c>
       <c r="D159" t="s">
-        <v>1027</v>
+        <v>1013</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>944</v>
+        <v>930</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
       <c r="G159" t="s">
-        <v>1028</v>
+        <v>1014</v>
       </c>
       <c r="H159" t="s">
-        <v>1029</v>
+        <v>1015</v>
       </c>
       <c r="I159" t="s">
-        <v>1029</v>
+        <v>1015</v>
       </c>
       <c r="J159" t="s">
-        <v>1030</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="160" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
-        <v>1031</v>
+        <v>1017</v>
       </c>
       <c r="C160" t="s">
-        <v>1032</v>
+        <v>1018</v>
       </c>
       <c r="D160" t="s">
-        <v>1033</v>
+        <v>1019</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>944</v>
+        <v>930</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>1034</v>
+        <v>1020</v>
       </c>
       <c r="G160" t="s">
-        <v>1035</v>
+        <v>1021</v>
       </c>
       <c r="H160" t="s">
-        <v>1036</v>
+        <v>1022</v>
       </c>
       <c r="I160" t="s">
-        <v>1036</v>
+        <v>1022</v>
       </c>
       <c r="J160" t="s">
-        <v>1037</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="161" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
-        <v>1038</v>
+        <v>1024</v>
       </c>
       <c r="C161" t="s">
-        <v>1039</v>
+        <v>1025</v>
       </c>
       <c r="D161" t="s">
-        <v>1040</v>
+        <v>1026</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>944</v>
+        <v>930</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>1034</v>
+        <v>1020</v>
       </c>
       <c r="G161" t="s">
-        <v>1041</v>
+        <v>1027</v>
       </c>
       <c r="H161" t="s">
-        <v>1042</v>
+        <v>1028</v>
       </c>
       <c r="I161" t="s">
-        <v>1042</v>
+        <v>1028</v>
       </c>
       <c r="J161" t="s">
-        <v>1043</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="162" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B162" t="s">
-        <v>1044</v>
-      </c>
-      <c r="C162" s="4" t="s">
-        <v>1353</v>
+        <v>1030</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>1363</v>
       </c>
       <c r="D162" t="s">
-        <v>1045</v>
+        <v>1031</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>1046</v>
+        <v>1032</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>1047</v>
+        <v>1033</v>
       </c>
       <c r="G162" t="s">
-        <v>1048</v>
+        <v>1034</v>
       </c>
       <c r="H162" t="s">
-        <v>1049</v>
+        <v>1035</v>
       </c>
       <c r="I162" t="s">
-        <v>1049</v>
+        <v>1035</v>
       </c>
       <c r="J162" t="s">
-        <v>1050</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="163" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
-        <v>1051</v>
-      </c>
-      <c r="C163" s="4" t="s">
-        <v>1354</v>
+        <v>1037</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>1364</v>
       </c>
       <c r="D163" t="s">
-        <v>1052</v>
+        <v>1038</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>1046</v>
+        <v>1032</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>1047</v>
+        <v>1033</v>
       </c>
       <c r="G163" t="s">
-        <v>1053</v>
+        <v>1039</v>
       </c>
       <c r="H163" t="s">
-        <v>1054</v>
+        <v>1040</v>
       </c>
       <c r="I163" t="s">
-        <v>1054</v>
+        <v>1040</v>
       </c>
       <c r="J163" t="s">
-        <v>1055</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="164" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
-        <v>1056</v>
+        <v>1042</v>
       </c>
       <c r="C164" t="s">
-        <v>1057</v>
+        <v>1043</v>
       </c>
       <c r="D164" t="s">
-        <v>1058</v>
+        <v>1044</v>
       </c>
       <c r="E164" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="G164" t="s">
         <v>1046</v>
       </c>
-      <c r="F164" s="1" t="s">
-        <v>1059</v>
-      </c>
-      <c r="G164" t="s">
-        <v>1060</v>
-      </c>
       <c r="H164" t="s">
-        <v>1061</v>
+        <v>1047</v>
       </c>
       <c r="I164" t="s">
-        <v>1061</v>
+        <v>1047</v>
       </c>
       <c r="J164" t="s">
-        <v>1062</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="165" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B165" t="s">
-        <v>968</v>
+        <v>954</v>
       </c>
       <c r="C165" t="s">
-        <v>1063</v>
+        <v>1049</v>
       </c>
       <c r="D165" t="s">
-        <v>1064</v>
+        <v>1050</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>1046</v>
+        <v>1032</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>1065</v>
+        <v>1051</v>
       </c>
       <c r="G165" t="s">
-        <v>1066</v>
+        <v>1052</v>
       </c>
       <c r="H165" t="s">
-        <v>1067</v>
+        <v>1053</v>
       </c>
       <c r="I165" t="s">
-        <v>1067</v>
+        <v>1053</v>
       </c>
       <c r="J165" t="s">
-        <v>1068</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="166" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
-        <v>1069</v>
+        <v>1055</v>
       </c>
       <c r="C166" t="s">
-        <v>1070</v>
+        <v>1056</v>
       </c>
       <c r="D166" t="s">
-        <v>1071</v>
+        <v>1057</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>1046</v>
+        <v>1032</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>1072</v>
+        <v>1058</v>
       </c>
       <c r="G166" t="s">
-        <v>1073</v>
+        <v>1059</v>
       </c>
       <c r="H166" t="s">
-        <v>1074</v>
+        <v>1060</v>
       </c>
       <c r="I166" t="s">
-        <v>1074</v>
+        <v>1060</v>
       </c>
       <c r="J166" t="s">
-        <v>1075</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="167" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
-        <v>1076</v>
+        <v>1062</v>
       </c>
       <c r="C167" t="s">
-        <v>1077</v>
+        <v>1063</v>
       </c>
       <c r="D167" t="s">
-        <v>1078</v>
+        <v>1064</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>1046</v>
+        <v>1032</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>1079</v>
+        <v>1065</v>
       </c>
       <c r="G167" t="s">
-        <v>1080</v>
+        <v>1066</v>
       </c>
       <c r="H167" t="s">
-        <v>1081</v>
+        <v>1067</v>
       </c>
       <c r="I167" t="s">
-        <v>1081</v>
+        <v>1067</v>
       </c>
       <c r="J167" t="s">
-        <v>1082</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="168" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B168" t="s">
-        <v>1083</v>
+        <v>1069</v>
       </c>
       <c r="C168" t="s">
-        <v>1084</v>
+        <v>1070</v>
       </c>
       <c r="D168" t="s">
-        <v>1085</v>
+        <v>1071</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>1046</v>
+        <v>1032</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>1086</v>
+        <v>1072</v>
       </c>
       <c r="G168" t="s">
-        <v>1087</v>
+        <v>1073</v>
       </c>
       <c r="H168" t="s">
-        <v>1088</v>
+        <v>1074</v>
       </c>
       <c r="I168" t="s">
-        <v>1088</v>
+        <v>1074</v>
       </c>
       <c r="J168" t="s">
-        <v>1089</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="169" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B169" t="s">
-        <v>1090</v>
+        <v>1076</v>
       </c>
       <c r="C169" t="s">
-        <v>1091</v>
+        <v>1077</v>
       </c>
       <c r="D169" t="s">
-        <v>1092</v>
+        <v>1078</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>1046</v>
+        <v>1032</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>1086</v>
+        <v>1072</v>
       </c>
       <c r="G169" t="s">
-        <v>1093</v>
+        <v>1079</v>
       </c>
       <c r="H169" t="s">
-        <v>1094</v>
+        <v>1080</v>
       </c>
       <c r="I169" t="s">
-        <v>1094</v>
+        <v>1080</v>
       </c>
       <c r="J169" t="s">
-        <v>1095</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="170" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B170" t="s">
-        <v>1096</v>
-      </c>
-      <c r="C170" t="s">
-        <v>1097</v>
+        <v>1082</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>1365</v>
       </c>
       <c r="D170" t="s">
-        <v>1098</v>
+        <v>1083</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>1046</v>
+        <v>1032</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>1099</v>
+        <v>1084</v>
       </c>
       <c r="G170" t="s">
-        <v>1100</v>
+        <v>1085</v>
       </c>
       <c r="H170" t="s">
-        <v>1101</v>
+        <v>1086</v>
       </c>
       <c r="I170" t="s">
-        <v>1101</v>
+        <v>1086</v>
       </c>
       <c r="J170" t="s">
-        <v>1102</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="171" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B171" t="s">
-        <v>1103</v>
+        <v>1088</v>
       </c>
       <c r="C171" t="s">
-        <v>1104</v>
+        <v>1089</v>
       </c>
       <c r="D171" t="s">
-        <v>1105</v>
+        <v>1090</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>1046</v>
+        <v>1032</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>1099</v>
+        <v>1084</v>
       </c>
       <c r="G171" t="s">
-        <v>1106</v>
+        <v>1091</v>
       </c>
       <c r="H171" t="s">
-        <v>1107</v>
+        <v>1092</v>
       </c>
       <c r="I171" t="s">
-        <v>1107</v>
+        <v>1092</v>
       </c>
       <c r="J171" t="s">
-        <v>1108</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="172" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B172" t="s">
-        <v>1109</v>
+        <v>1094</v>
       </c>
       <c r="C172" t="s">
-        <v>1110</v>
+        <v>1095</v>
       </c>
       <c r="D172" t="s">
-        <v>1111</v>
+        <v>1096</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>1046</v>
+        <v>1032</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>1112</v>
+        <v>1097</v>
       </c>
       <c r="G172" t="s">
-        <v>1113</v>
+        <v>1098</v>
       </c>
       <c r="H172" t="s">
-        <v>1114</v>
+        <v>1099</v>
       </c>
       <c r="I172" t="s">
-        <v>1114</v>
+        <v>1099</v>
       </c>
       <c r="J172" t="s">
-        <v>1115</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="173" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B173" t="s">
-        <v>1116</v>
+        <v>1101</v>
       </c>
       <c r="C173" t="s">
-        <v>1117</v>
+        <v>1102</v>
       </c>
       <c r="D173" t="s">
-        <v>1118</v>
+        <v>1103</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>1046</v>
+        <v>1032</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>1112</v>
+        <v>1097</v>
       </c>
       <c r="G173" t="s">
-        <v>1119</v>
+        <v>1104</v>
       </c>
       <c r="H173" t="s">
-        <v>1120</v>
+        <v>1105</v>
       </c>
       <c r="I173" t="s">
-        <v>1120</v>
+        <v>1105</v>
       </c>
       <c r="J173" t="s">
-        <v>1121</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="174" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B174" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C174" t="s">
-        <v>1122</v>
+        <v>1107</v>
       </c>
       <c r="D174" t="s">
-        <v>1123</v>
+        <v>1108</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>1046</v>
+        <v>1032</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>1124</v>
+        <v>1109</v>
       </c>
       <c r="G174" t="s">
-        <v>1125</v>
+        <v>1110</v>
       </c>
       <c r="H174" t="s">
-        <v>1126</v>
+        <v>1111</v>
       </c>
       <c r="I174" t="s">
-        <v>1126</v>
+        <v>1111</v>
       </c>
       <c r="J174" t="s">
-        <v>1127</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="175" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B175" t="s">
-        <v>1128</v>
+        <v>1113</v>
       </c>
       <c r="C175" t="s">
-        <v>1129</v>
+        <v>1114</v>
       </c>
       <c r="D175" t="s">
-        <v>1130</v>
+        <v>1115</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>1046</v>
+        <v>1032</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>1124</v>
+        <v>1109</v>
       </c>
       <c r="G175" t="s">
-        <v>1131</v>
+        <v>1116</v>
       </c>
       <c r="H175" t="s">
-        <v>1132</v>
+        <v>1117</v>
       </c>
       <c r="I175" t="s">
-        <v>1132</v>
+        <v>1117</v>
       </c>
       <c r="J175" t="s">
-        <v>1133</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="176" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B176" t="s">
-        <v>1134</v>
-      </c>
-      <c r="C176" s="4" t="s">
-        <v>1369</v>
+        <v>1119</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>1366</v>
       </c>
       <c r="D176" t="s">
-        <v>1135</v>
+        <v>1120</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>1046</v>
+        <v>1032</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>1136</v>
+        <v>1121</v>
       </c>
       <c r="G176" t="s">
-        <v>1137</v>
+        <v>1122</v>
       </c>
       <c r="H176" t="s">
-        <v>1138</v>
+        <v>1123</v>
       </c>
       <c r="I176" t="s">
-        <v>1138</v>
+        <v>1123</v>
       </c>
       <c r="J176" t="s">
-        <v>1139</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="177" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B177" t="s">
-        <v>1140</v>
+        <v>1125</v>
       </c>
       <c r="C177" t="s">
-        <v>1141</v>
+        <v>1126</v>
       </c>
       <c r="D177" t="s">
-        <v>1142</v>
+        <v>1127</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>1046</v>
+        <v>1032</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>1136</v>
+        <v>1121</v>
       </c>
       <c r="G177" t="s">
-        <v>1143</v>
+        <v>1128</v>
       </c>
       <c r="H177" t="s">
-        <v>1144</v>
+        <v>1129</v>
       </c>
       <c r="I177" t="s">
-        <v>1144</v>
+        <v>1129</v>
       </c>
       <c r="J177" t="s">
-        <v>1145</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="178" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B178" t="s">
-        <v>1146</v>
-      </c>
-      <c r="C178" s="4" t="s">
-        <v>1370</v>
+        <v>1131</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>1367</v>
       </c>
       <c r="D178" t="s">
-        <v>1147</v>
+        <v>1132</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>1148</v>
+        <v>1133</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>1149</v>
+        <v>1134</v>
       </c>
       <c r="G178" t="s">
-        <v>1150</v>
+        <v>1135</v>
       </c>
       <c r="H178" t="s">
-        <v>1151</v>
+        <v>1136</v>
       </c>
       <c r="I178" t="s">
-        <v>1151</v>
+        <v>1136</v>
       </c>
       <c r="J178" t="s">
-        <v>1152</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="179" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B179" t="s">
-        <v>1153</v>
-      </c>
-      <c r="C179" s="4" t="s">
-        <v>1371</v>
+        <v>1138</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>1368</v>
       </c>
       <c r="D179" t="s">
-        <v>1154</v>
+        <v>1139</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>1148</v>
+        <v>1133</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>1149</v>
+        <v>1134</v>
       </c>
       <c r="G179" t="s">
-        <v>1155</v>
+        <v>1140</v>
       </c>
       <c r="H179" t="s">
-        <v>1156</v>
+        <v>1141</v>
       </c>
       <c r="I179" t="s">
-        <v>1156</v>
+        <v>1141</v>
       </c>
       <c r="J179" t="s">
-        <v>1157</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="180" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B180" t="s">
-        <v>1158</v>
+        <v>1143</v>
       </c>
       <c r="C180" t="s">
-        <v>1159</v>
+        <v>1144</v>
       </c>
       <c r="D180" t="s">
-        <v>1160</v>
+        <v>1145</v>
       </c>
       <c r="E180" s="1" t="s">
+        <v>1133</v>
+      </c>
+      <c r="F180" s="1" t="s">
+        <v>1146</v>
+      </c>
+      <c r="G180" t="s">
+        <v>1147</v>
+      </c>
+      <c r="H180" t="s">
         <v>1148</v>
       </c>
-      <c r="F180" s="1" t="s">
-        <v>1161</v>
-      </c>
-      <c r="G180" t="s">
-        <v>1162</v>
-      </c>
-      <c r="H180" t="s">
-        <v>1163</v>
-      </c>
       <c r="I180" t="s">
-        <v>1163</v>
+        <v>1148</v>
       </c>
       <c r="J180" t="s">
-        <v>1164</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="181" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B181" t="s">
-        <v>1165</v>
+        <v>1150</v>
       </c>
       <c r="C181" t="s">
-        <v>1166</v>
+        <v>1151</v>
       </c>
       <c r="D181" t="s">
-        <v>1167</v>
+        <v>1152</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>1148</v>
+        <v>1133</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>1161</v>
+        <v>1146</v>
       </c>
       <c r="G181" t="s">
-        <v>1168</v>
+        <v>1153</v>
       </c>
       <c r="H181" t="s">
-        <v>1169</v>
+        <v>1154</v>
       </c>
       <c r="I181" t="s">
-        <v>1169</v>
+        <v>1154</v>
       </c>
       <c r="J181" t="s">
-        <v>1170</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="182" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B182" t="s">
-        <v>1171</v>
+        <v>1156</v>
       </c>
       <c r="C182" t="s">
-        <v>1172</v>
+        <v>1157</v>
       </c>
       <c r="D182" t="s">
-        <v>1173</v>
+        <v>1158</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>1148</v>
+        <v>1133</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>1174</v>
+        <v>1159</v>
       </c>
       <c r="G182" t="s">
-        <v>1175</v>
+        <v>1160</v>
       </c>
       <c r="H182" t="s">
-        <v>1176</v>
+        <v>1161</v>
       </c>
       <c r="I182" t="s">
-        <v>1176</v>
+        <v>1161</v>
       </c>
       <c r="J182" t="s">
-        <v>1177</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="183" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B183" t="s">
-        <v>1178</v>
+        <v>1163</v>
       </c>
       <c r="C183" t="s">
-        <v>1179</v>
+        <v>1164</v>
       </c>
       <c r="D183" t="s">
-        <v>1180</v>
+        <v>1165</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>1148</v>
+        <v>1133</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>1174</v>
+        <v>1159</v>
       </c>
       <c r="G183" t="s">
-        <v>1181</v>
+        <v>1166</v>
       </c>
       <c r="H183" t="s">
-        <v>1182</v>
+        <v>1167</v>
       </c>
       <c r="I183" t="s">
-        <v>1182</v>
+        <v>1167</v>
       </c>
       <c r="J183" t="s">
-        <v>1183</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="184" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B184" t="s">
-        <v>1184</v>
+        <v>1169</v>
       </c>
       <c r="C184" t="s">
-        <v>1185</v>
+        <v>1170</v>
       </c>
       <c r="D184" t="s">
-        <v>1186</v>
+        <v>1171</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>1148</v>
+        <v>1133</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>1187</v>
+        <v>1172</v>
       </c>
       <c r="G184" t="s">
-        <v>1188</v>
+        <v>1173</v>
       </c>
       <c r="H184" t="s">
-        <v>1189</v>
+        <v>1174</v>
       </c>
       <c r="I184" t="s">
-        <v>1189</v>
+        <v>1174</v>
       </c>
       <c r="J184" t="s">
-        <v>1190</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="185" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B185" t="s">
-        <v>1191</v>
-      </c>
-      <c r="C185" s="4" t="s">
-        <v>1357</v>
+        <v>1176</v>
+      </c>
+      <c r="C185" s="3" t="s">
+        <v>1369</v>
       </c>
       <c r="D185" t="s">
-        <v>1192</v>
+        <v>1177</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>1148</v>
+        <v>1133</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>1187</v>
+        <v>1172</v>
       </c>
       <c r="G185" t="s">
-        <v>1193</v>
+        <v>1178</v>
       </c>
       <c r="H185" t="s">
-        <v>1194</v>
+        <v>1179</v>
       </c>
       <c r="I185" t="s">
-        <v>1194</v>
+        <v>1179</v>
       </c>
       <c r="J185" t="s">
-        <v>1195</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="186" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B186" t="s">
-        <v>1196</v>
+        <v>1181</v>
       </c>
       <c r="C186" t="s">
-        <v>1197</v>
+        <v>1182</v>
       </c>
       <c r="D186" t="s">
-        <v>1198</v>
+        <v>1183</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>1148</v>
+        <v>1133</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>1199</v>
+        <v>1184</v>
       </c>
       <c r="G186" t="s">
-        <v>1200</v>
+        <v>1185</v>
       </c>
       <c r="H186" t="s">
-        <v>1201</v>
+        <v>1186</v>
       </c>
       <c r="I186" t="s">
-        <v>1201</v>
+        <v>1186</v>
       </c>
       <c r="J186" t="s">
-        <v>1202</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="187" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B187" t="s">
-        <v>1203</v>
-      </c>
-      <c r="C187" s="4" t="s">
-        <v>1358</v>
+        <v>1188</v>
+      </c>
+      <c r="C187" s="3" t="s">
+        <v>1370</v>
       </c>
       <c r="D187" t="s">
-        <v>1204</v>
+        <v>1189</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>1148</v>
+        <v>1133</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>1199</v>
+        <v>1184</v>
       </c>
       <c r="G187" t="s">
-        <v>1205</v>
+        <v>1190</v>
       </c>
       <c r="H187" t="s">
-        <v>1206</v>
+        <v>1191</v>
       </c>
       <c r="I187" t="s">
-        <v>1206</v>
+        <v>1191</v>
       </c>
       <c r="J187" t="s">
-        <v>1207</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="188" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B188" t="s">
-        <v>1208</v>
+        <v>1193</v>
       </c>
       <c r="C188" t="s">
-        <v>1209</v>
+        <v>1194</v>
       </c>
       <c r="D188" t="s">
-        <v>1210</v>
+        <v>1195</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>1148</v>
+        <v>1133</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>1211</v>
+        <v>1196</v>
       </c>
       <c r="G188" t="s">
-        <v>1212</v>
+        <v>1197</v>
       </c>
       <c r="H188" t="s">
-        <v>1213</v>
+        <v>1198</v>
       </c>
       <c r="I188" t="s">
-        <v>1213</v>
+        <v>1198</v>
       </c>
       <c r="J188" t="s">
-        <v>1214</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="189" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B189" t="s">
-        <v>1215</v>
+        <v>1200</v>
       </c>
       <c r="C189" t="s">
-        <v>1216</v>
+        <v>1201</v>
       </c>
       <c r="D189" t="s">
-        <v>1217</v>
+        <v>1202</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>1148</v>
+        <v>1133</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>1211</v>
+        <v>1196</v>
       </c>
       <c r="G189" t="s">
-        <v>1218</v>
+        <v>1203</v>
       </c>
       <c r="H189" t="s">
-        <v>1219</v>
+        <v>1204</v>
       </c>
       <c r="I189" t="s">
-        <v>1219</v>
+        <v>1204</v>
       </c>
       <c r="J189" t="s">
-        <v>1220</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="190" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B190" t="s">
-        <v>1221</v>
+        <v>1206</v>
       </c>
       <c r="C190" t="s">
-        <v>1222</v>
+        <v>1207</v>
       </c>
       <c r="D190" t="s">
-        <v>1223</v>
+        <v>1208</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>1148</v>
+        <v>1133</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>1224</v>
+        <v>1209</v>
       </c>
       <c r="G190" t="s">
-        <v>1225</v>
+        <v>1210</v>
       </c>
       <c r="H190" t="s">
-        <v>1226</v>
+        <v>1211</v>
       </c>
       <c r="I190" t="s">
-        <v>1226</v>
+        <v>1211</v>
       </c>
       <c r="J190" t="s">
-        <v>1227</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="191" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B191" t="s">
-        <v>1228</v>
+        <v>1213</v>
       </c>
       <c r="C191" t="s">
-        <v>1229</v>
+        <v>1214</v>
       </c>
       <c r="D191" t="s">
-        <v>1230</v>
+        <v>1215</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>1148</v>
+        <v>1133</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>1224</v>
+        <v>1209</v>
       </c>
       <c r="G191" t="s">
-        <v>1231</v>
+        <v>1216</v>
       </c>
       <c r="H191" t="s">
-        <v>1232</v>
+        <v>1217</v>
       </c>
       <c r="I191" t="s">
-        <v>1232</v>
+        <v>1217</v>
       </c>
       <c r="J191" t="s">
-        <v>1233</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="192" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B192" t="s">
-        <v>1234</v>
-      </c>
-      <c r="C192" s="4" t="s">
-        <v>1356</v>
+        <v>1219</v>
+      </c>
+      <c r="C192" s="3" t="s">
+        <v>1371</v>
       </c>
       <c r="D192" t="s">
-        <v>1235</v>
+        <v>1220</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>1148</v>
+        <v>1133</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>1236</v>
+        <v>1221</v>
       </c>
       <c r="G192" t="s">
-        <v>1237</v>
+        <v>1222</v>
       </c>
       <c r="H192" t="s">
-        <v>1238</v>
+        <v>1223</v>
       </c>
       <c r="I192" t="s">
-        <v>1238</v>
+        <v>1223</v>
       </c>
       <c r="J192" t="s">
-        <v>1239</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="193" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B193" t="s">
-        <v>1240</v>
+        <v>1225</v>
       </c>
       <c r="C193" t="s">
-        <v>1241</v>
+        <v>1226</v>
       </c>
       <c r="D193" t="s">
-        <v>1242</v>
+        <v>1227</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>1148</v>
+        <v>1133</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>1236</v>
+        <v>1221</v>
       </c>
       <c r="G193" t="s">
-        <v>1243</v>
+        <v>1228</v>
       </c>
       <c r="H193" t="s">
-        <v>1244</v>
+        <v>1229</v>
       </c>
       <c r="I193" t="s">
-        <v>1244</v>
+        <v>1229</v>
       </c>
       <c r="J193" t="s">
-        <v>1245</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="194" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B194" t="s">
-        <v>1246</v>
+        <v>1231</v>
       </c>
       <c r="C194" t="s">
-        <v>1247</v>
+        <v>1232</v>
       </c>
       <c r="D194" t="s">
-        <v>1248</v>
+        <v>1233</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>1249</v>
+        <v>1234</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>1250</v>
+        <v>1235</v>
       </c>
       <c r="G194" t="s">
-        <v>1251</v>
+        <v>1236</v>
       </c>
       <c r="H194" t="s">
-        <v>1252</v>
+        <v>1237</v>
       </c>
       <c r="I194" t="s">
-        <v>1252</v>
+        <v>1237</v>
       </c>
       <c r="J194" t="s">
-        <v>1253</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="195" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B195" t="s">
-        <v>1254</v>
+        <v>1239</v>
       </c>
       <c r="C195" t="s">
-        <v>1255</v>
+        <v>1240</v>
       </c>
       <c r="D195" t="s">
-        <v>1256</v>
+        <v>1241</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>1249</v>
+        <v>1234</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>1250</v>
+        <v>1235</v>
       </c>
       <c r="G195" t="s">
-        <v>1257</v>
+        <v>1242</v>
       </c>
       <c r="H195" t="s">
-        <v>1258</v>
+        <v>1243</v>
       </c>
       <c r="I195" t="s">
-        <v>1258</v>
+        <v>1243</v>
       </c>
       <c r="J195" t="s">
-        <v>1259</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="196" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B196" t="s">
-        <v>1260</v>
+        <v>1245</v>
       </c>
       <c r="C196" t="s">
-        <v>1261</v>
+        <v>1246</v>
       </c>
       <c r="D196" t="s">
-        <v>1262</v>
+        <v>1247</v>
       </c>
       <c r="E196" s="1" t="s">
+        <v>1234</v>
+      </c>
+      <c r="F196" s="1" t="s">
+        <v>1248</v>
+      </c>
+      <c r="G196" t="s">
         <v>1249</v>
       </c>
-      <c r="F196" s="1" t="s">
-        <v>1263</v>
-      </c>
-      <c r="G196" t="s">
-        <v>1264</v>
-      </c>
       <c r="H196" t="s">
-        <v>1265</v>
+        <v>1250</v>
       </c>
       <c r="I196" t="s">
-        <v>1265</v>
+        <v>1250</v>
       </c>
       <c r="J196" t="s">
-        <v>1266</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="197" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B197" t="s">
-        <v>1267</v>
+        <v>1252</v>
       </c>
       <c r="C197" t="s">
-        <v>1268</v>
+        <v>1253</v>
       </c>
       <c r="D197" t="s">
-        <v>1269</v>
+        <v>1254</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>1249</v>
+        <v>1234</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>1263</v>
+        <v>1248</v>
       </c>
       <c r="G197" t="s">
-        <v>1270</v>
+        <v>1255</v>
       </c>
       <c r="H197" t="s">
-        <v>1271</v>
+        <v>1256</v>
       </c>
       <c r="I197" t="s">
-        <v>1271</v>
+        <v>1256</v>
       </c>
       <c r="J197" t="s">
-        <v>1272</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="198" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B198" t="s">
-        <v>1273</v>
+        <v>1258</v>
       </c>
       <c r="C198" t="s">
-        <v>1274</v>
+        <v>1259</v>
       </c>
       <c r="D198" t="s">
-        <v>1275</v>
+        <v>1260</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>1249</v>
+        <v>1234</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>1276</v>
+        <v>1261</v>
       </c>
       <c r="G198" t="s">
-        <v>1277</v>
+        <v>1262</v>
       </c>
       <c r="H198" t="s">
-        <v>1278</v>
+        <v>1263</v>
       </c>
       <c r="I198" t="s">
-        <v>1278</v>
+        <v>1263</v>
       </c>
       <c r="J198" t="s">
-        <v>1279</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="199" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B199" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C199" t="s">
-        <v>1280</v>
+        <v>1265</v>
       </c>
       <c r="D199" t="s">
-        <v>1281</v>
+        <v>1266</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>1249</v>
+        <v>1234</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>1276</v>
+        <v>1261</v>
       </c>
       <c r="G199" t="s">
-        <v>1282</v>
+        <v>1267</v>
       </c>
       <c r="H199" t="s">
-        <v>1283</v>
+        <v>1268</v>
       </c>
       <c r="I199" t="s">
-        <v>1283</v>
+        <v>1268</v>
       </c>
       <c r="J199" t="s">
-        <v>1284</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="200" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B200" t="s">
-        <v>1285</v>
+        <v>1270</v>
       </c>
       <c r="C200" t="s">
-        <v>1286</v>
+        <v>1271</v>
       </c>
       <c r="D200" t="s">
-        <v>1287</v>
+        <v>1272</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>1249</v>
+        <v>1234</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>1288</v>
+        <v>1273</v>
       </c>
       <c r="G200" t="s">
-        <v>1289</v>
+        <v>1274</v>
       </c>
       <c r="H200" t="s">
-        <v>1290</v>
+        <v>1275</v>
       </c>
       <c r="I200" t="s">
-        <v>1290</v>
+        <v>1275</v>
       </c>
       <c r="J200" t="s">
-        <v>1291</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="201" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B201" t="s">
-        <v>1292</v>
+        <v>1277</v>
       </c>
       <c r="C201" t="s">
-        <v>1293</v>
+        <v>1278</v>
       </c>
       <c r="D201" t="s">
-        <v>1294</v>
+        <v>1279</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>1249</v>
+        <v>1234</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>1288</v>
+        <v>1273</v>
       </c>
       <c r="G201" t="s">
-        <v>1295</v>
+        <v>1280</v>
       </c>
       <c r="H201" t="s">
-        <v>1296</v>
+        <v>1281</v>
       </c>
       <c r="I201" t="s">
-        <v>1296</v>
+        <v>1281</v>
       </c>
       <c r="J201" t="s">
-        <v>1297</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="202" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B202" t="s">
-        <v>1298</v>
+        <v>1283</v>
       </c>
       <c r="C202" t="s">
-        <v>1299</v>
+        <v>1284</v>
       </c>
       <c r="D202" t="s">
-        <v>1300</v>
+        <v>1285</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>1249</v>
+        <v>1234</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>1301</v>
+        <v>1286</v>
       </c>
       <c r="G202" t="s">
-        <v>1302</v>
+        <v>1287</v>
       </c>
       <c r="H202" t="s">
-        <v>1303</v>
+        <v>1288</v>
       </c>
       <c r="I202" t="s">
-        <v>1303</v>
+        <v>1288</v>
       </c>
       <c r="J202" t="s">
-        <v>1304</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="203" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B203" t="s">
-        <v>1305</v>
+        <v>1290</v>
       </c>
       <c r="C203" t="s">
-        <v>1306</v>
+        <v>1291</v>
       </c>
       <c r="D203" t="s">
-        <v>1307</v>
+        <v>1292</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>1249</v>
+        <v>1234</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>1301</v>
+        <v>1286</v>
       </c>
       <c r="G203" t="s">
-        <v>1308</v>
+        <v>1293</v>
       </c>
       <c r="H203" t="s">
-        <v>1309</v>
+        <v>1294</v>
       </c>
       <c r="I203" t="s">
-        <v>1309</v>
+        <v>1294</v>
       </c>
       <c r="J203" t="s">
-        <v>1310</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="204" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B204" t="s">
-        <v>1311</v>
+        <v>1296</v>
       </c>
       <c r="C204" t="s">
-        <v>1312</v>
+        <v>1297</v>
       </c>
       <c r="D204" t="s">
-        <v>1313</v>
+        <v>1298</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>1249</v>
+        <v>1234</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>1314</v>
+        <v>1299</v>
       </c>
       <c r="G204" t="s">
-        <v>1315</v>
+        <v>1300</v>
       </c>
       <c r="H204" t="s">
-        <v>1316</v>
+        <v>1301</v>
       </c>
       <c r="I204" t="s">
-        <v>1316</v>
+        <v>1301</v>
       </c>
       <c r="J204" t="s">
-        <v>1317</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="205" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B205" t="s">
-        <v>1318</v>
+        <v>1303</v>
       </c>
       <c r="C205" t="s">
-        <v>1319</v>
+        <v>1304</v>
       </c>
       <c r="D205" t="s">
-        <v>1320</v>
+        <v>1305</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>1249</v>
+        <v>1234</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>1314</v>
+        <v>1299</v>
       </c>
       <c r="G205" t="s">
-        <v>1321</v>
+        <v>1306</v>
       </c>
       <c r="H205" t="s">
-        <v>1322</v>
+        <v>1307</v>
       </c>
       <c r="I205" t="s">
-        <v>1322</v>
+        <v>1307</v>
       </c>
       <c r="J205" t="s">
-        <v>1323</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="206" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B206" t="s">
-        <v>1324</v>
+        <v>1309</v>
       </c>
       <c r="C206" t="s">
-        <v>1325</v>
+        <v>1310</v>
       </c>
       <c r="D206" t="s">
-        <v>1326</v>
+        <v>1311</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>1249</v>
+        <v>1234</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>1327</v>
+        <v>1312</v>
       </c>
       <c r="G206" t="s">
-        <v>1328</v>
+        <v>1313</v>
       </c>
       <c r="H206" t="s">
-        <v>1329</v>
+        <v>1314</v>
       </c>
       <c r="I206" t="s">
-        <v>1329</v>
+        <v>1314</v>
       </c>
       <c r="J206" t="s">
-        <v>1330</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="207" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B207" t="s">
-        <v>1331</v>
+        <v>1316</v>
       </c>
       <c r="C207" t="s">
-        <v>1332</v>
+        <v>1317</v>
       </c>
       <c r="D207" t="s">
-        <v>1333</v>
+        <v>1318</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>1249</v>
+        <v>1234</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>1327</v>
+        <v>1312</v>
       </c>
       <c r="G207" t="s">
-        <v>1334</v>
+        <v>1319</v>
       </c>
       <c r="H207" t="s">
-        <v>1335</v>
+        <v>1320</v>
       </c>
       <c r="I207" t="s">
-        <v>1335</v>
+        <v>1320</v>
       </c>
       <c r="J207" t="s">
-        <v>1336</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="208" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B208" t="s">
-        <v>1337</v>
+        <v>1322</v>
       </c>
       <c r="C208" t="s">
-        <v>1338</v>
+        <v>1323</v>
       </c>
       <c r="D208" t="s">
-        <v>1339</v>
+        <v>1324</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>1249</v>
+        <v>1234</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>1340</v>
+        <v>1325</v>
       </c>
       <c r="G208" t="s">
-        <v>1341</v>
+        <v>1326</v>
       </c>
       <c r="H208" t="s">
-        <v>1342</v>
+        <v>1327</v>
       </c>
       <c r="I208" t="s">
-        <v>1342</v>
+        <v>1327</v>
       </c>
       <c r="J208" t="s">
-        <v>1343</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="209" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B209" t="s">
-        <v>1344</v>
+        <v>1329</v>
       </c>
       <c r="C209" t="s">
-        <v>1345</v>
+        <v>1330</v>
       </c>
       <c r="D209" t="s">
-        <v>1346</v>
+        <v>1331</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>1249</v>
+        <v>1234</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>1340</v>
+        <v>1325</v>
       </c>
       <c r="G209" t="s">
-        <v>1347</v>
+        <v>1332</v>
       </c>
       <c r="H209" t="s">
-        <v>1348</v>
+        <v>1333</v>
       </c>
       <c r="I209" t="s">
-        <v>1348</v>
+        <v>1333</v>
       </c>
       <c r="J209" t="s">
-        <v>1349</v>
+        <v>1334</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C162" r:id="rId1" xr:uid="{8AE79B23-2EB4-4D45-A92D-BDDD4F6C762A}"/>
-    <hyperlink ref="C163" r:id="rId2" xr:uid="{411C2598-DDD3-4B4C-A106-EE1EA9D2D599}"/>
-    <hyperlink ref="C156" r:id="rId3" xr:uid="{81677797-E4CE-4CE9-9BF5-1993DDD4EAFD}"/>
-    <hyperlink ref="C192" r:id="rId4" xr:uid="{3CDDC43B-AE88-4B36-ACE2-A531879C5E77}"/>
-    <hyperlink ref="C185" r:id="rId5" xr:uid="{44744F01-CA07-4A97-9861-69A856446E0B}"/>
-    <hyperlink ref="C187" r:id="rId6" xr:uid="{758AB693-C33C-486F-B2CA-3C9A3948C9CD}"/>
-    <hyperlink ref="C68" r:id="rId7" xr:uid="{073CC6EC-630C-4D87-BDAC-AE5A2AD22D04}"/>
-    <hyperlink ref="C70" r:id="rId8" xr:uid="{65B269D3-894B-42B2-B411-BB15CB2F56AC}"/>
-    <hyperlink ref="C74" r:id="rId9" xr:uid="{F6D59A00-C6C7-47EB-8977-BAE5FF5B025D}"/>
-    <hyperlink ref="C60" r:id="rId10" xr:uid="{FA7C7F0B-E1DF-444B-9CEE-8E673405961C}"/>
-    <hyperlink ref="C58" r:id="rId11" xr:uid="{A1BA1C01-E787-4D15-A4D6-9D1D591CFA29}"/>
-    <hyperlink ref="C57" r:id="rId12" xr:uid="{485476FA-F6F1-46BF-9248-B880C191D8E4}"/>
-    <hyperlink ref="C112" r:id="rId13" xr:uid="{2E465482-2D58-459D-9190-AA320A617E6F}"/>
-    <hyperlink ref="C115" r:id="rId14" xr:uid="{1214356F-F592-48C0-A6DD-07F55DB7AB91}"/>
-    <hyperlink ref="C116" r:id="rId15" xr:uid="{589F4422-D767-4CDC-BCF8-D4CC7429CFDF}"/>
-    <hyperlink ref="C119" r:id="rId16" xr:uid="{8036D51D-8CF1-4863-963F-C0E4758F9E08}"/>
-    <hyperlink ref="C176" r:id="rId17" xr:uid="{DD544DBE-E6C8-4F5B-B8A3-568FB0A5AF7F}"/>
-    <hyperlink ref="C178" r:id="rId18" xr:uid="{97E2424D-4A17-489D-B4EE-6E03C76D9066}"/>
-    <hyperlink ref="C179" r:id="rId19" xr:uid="{2703CDA3-B6DE-4DA7-8940-FA469FAACEAA}"/>
+    <hyperlink ref="C20" r:id="rId1" xr:uid="{C1EE6CA6-41FA-4629-8A97-6B3A00BA3F8D}"/>
+    <hyperlink ref="C25" r:id="rId2" xr:uid="{BA76D383-33D9-4D01-9047-AA85AF9F667A}"/>
+    <hyperlink ref="C33" r:id="rId3" xr:uid="{E00BAA33-78F6-4F83-877C-6D2136ACB8AE}"/>
+    <hyperlink ref="C38" r:id="rId4" xr:uid="{B1D07BED-1AA5-490B-A161-C5E3C38DCE0E}"/>
+    <hyperlink ref="C48" r:id="rId5" xr:uid="{11486444-71CE-46D0-8485-A4DA30DE5CAA}"/>
+    <hyperlink ref="C49" r:id="rId6" xr:uid="{14146393-A040-4968-ABFE-1556E572CF4E}"/>
+    <hyperlink ref="C57" r:id="rId7" xr:uid="{C27092F9-9787-4E9C-BB1D-6520C226A8B3}"/>
+    <hyperlink ref="C58" r:id="rId8" xr:uid="{FF90EDBC-6894-4131-AC5F-62E57D14A59E}"/>
+    <hyperlink ref="C68" r:id="rId9" xr:uid="{B01A0505-35E3-4D4E-AFBB-FDD96211E74C}"/>
+    <hyperlink ref="C70" r:id="rId10" xr:uid="{EDF80C58-54B6-42CF-86F8-744C6127B419}"/>
+    <hyperlink ref="C74" r:id="rId11" xr:uid="{11AD2189-ABE8-42D6-A3E5-5AC8DAD9AA5A}"/>
+    <hyperlink ref="C73" r:id="rId12" xr:uid="{A6DB095D-C699-4E0C-9546-C3B74111E612}"/>
+    <hyperlink ref="C81" r:id="rId13" xr:uid="{ED4C63E7-101D-4A87-8696-227BD62D721D}"/>
+    <hyperlink ref="C87" r:id="rId14" xr:uid="{193AE289-0A11-4F5E-8CC1-5E40FECD5018}"/>
+    <hyperlink ref="C89" r:id="rId15" xr:uid="{DE6DBC93-CA48-40D5-920C-0255C06BEB2D}"/>
+    <hyperlink ref="C92" r:id="rId16" xr:uid="{74850982-37E8-4F9C-96FD-56E62E39FE36}"/>
+    <hyperlink ref="C94" r:id="rId17" xr:uid="{184E608E-28EB-4A9C-AFD4-A5D758E616F1}"/>
+    <hyperlink ref="C98" r:id="rId18" xr:uid="{24E903A7-7C83-43A4-A9B1-DB945C1DFBBF}"/>
+    <hyperlink ref="C112" r:id="rId19" xr:uid="{DC79D75A-3244-4A53-AD15-45CD75071D10}"/>
+    <hyperlink ref="C115" r:id="rId20" xr:uid="{17245AA8-C839-4B26-AE13-FDDED793D9DC}"/>
+    <hyperlink ref="C116" r:id="rId21" xr:uid="{2F84F517-25DB-4894-A6C6-515D18F06BD8}"/>
+    <hyperlink ref="C119" r:id="rId22" xr:uid="{F2C6885E-F2D2-48D0-837F-73FEC41DD6E4}"/>
+    <hyperlink ref="C123" r:id="rId23" xr:uid="{42DB89A5-FABF-432A-8222-716C9E36AEC1}"/>
+    <hyperlink ref="C124" r:id="rId24" xr:uid="{89AD75A7-D3F2-4666-B429-D148EFB64C7F}"/>
+    <hyperlink ref="C156" r:id="rId25" xr:uid="{B4AB8414-B2AF-45A1-BDED-FD4B93DB0F6B}"/>
+    <hyperlink ref="C162" r:id="rId26" xr:uid="{E12E8942-CFD1-4856-BC1F-F15E0D444892}"/>
+    <hyperlink ref="C163" r:id="rId27" xr:uid="{C781BAD1-E25C-479E-96EC-A59A96F5A0F5}"/>
+    <hyperlink ref="C170" r:id="rId28" xr:uid="{0C22C3BF-C4D7-4B95-BBBB-F263845F3356}"/>
+    <hyperlink ref="C176" r:id="rId29" xr:uid="{0CCA02AC-852E-4719-96F1-D981EE90AC58}"/>
+    <hyperlink ref="C178" r:id="rId30" xr:uid="{2CE1ACBD-7B84-4C02-BB28-A55801EA1D15}"/>
+    <hyperlink ref="C179" r:id="rId31" xr:uid="{0088D209-E9A9-48CB-8995-28C69812580D}"/>
+    <hyperlink ref="C185" r:id="rId32" xr:uid="{EC258EF6-1F70-428A-A276-EFAD8F3DA149}"/>
+    <hyperlink ref="C187" r:id="rId33" xr:uid="{F593CCDC-A9AE-4685-A960-1DDB438CCAAA}"/>
+    <hyperlink ref="C192" r:id="rId34" xr:uid="{D86D230F-C8B0-4DA3-BF5D-12FFEA50022C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId20"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId35"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:L3 A107:L111 A105:D105 F105:L105 A106:D106 F106:L106 A152:L155 A150:E150 G150:L150 A151:E151 G151:L151 A6:L44 A4:E4 G4:L4 A5:E5 G5:L5 A46:L56 A45:B45 D45:L45 A164:L175 A162:B162 D162:L162 A163:B163 D163:L163 A157:L161 A156:B156 D156:L156 A193:L209 A192:B192 D192:L192 A186:L186 A185:B185 D185:L185 A188:L191 A187:B187 D187:L187 A69:L69 A68:B68 D68:L68 A71:L73 A70:B70 D70:L70 A75:L104 A74:B74 D74:L74 A61:L67 A60:B60 D60:L60 A59:L59 A58:B58 D58:L58 A57:B57 D57:L57 A113:L114 A112:B112 D112:L112 A117:L118 A115:B115 D115:L115 A116:B116 D116:L116 A120:L149 A119:B119 D119:L119 A177:L177 A176:B176 D176:L176 A180:L184 A178:B178 D178:L178 A179:B179 D179:L179" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:L3 A107:L111 A105:D105 F105:L105 A106:D106 F106:L106 A152:L155 A150:E150 G150:L150 A151:E151 G151:L151 A6:L19 A4:E4 G4:L4 A5:E5 G5:L5 A21:L24 A20:B20 D20:L20 A26:L32 A25:B25 D25:L25 A34:L37 A33:B33 D33:L33 A39:L44 A38:B38 D38:L38 A46:L47 A45:B45 D45:L45 A50:L56 A48:B48 D48:L48 A49:B49 D49:L49 A59:L67 A57:B57 D57:L57 A58:B58 D58:L58 A69:L69 A68:B68 D68:L68 A71:L72 A70:B70 D70:L70 A75:L80 A74:B74 D74:L74 A73:B73 D73:L73 A82:L86 A81:B81 D81:L81 A88:L88 A87:B87 D87:L87 A90:L91 A89:B89 D89:L89 A93:L93 A92:B92 D92:L92 A95:L97 A94:B94 D94:L94 A99:L104 A98:B98 D98:L98 A113:L114 A112:B112 D112:L112 A117:L118 A115:B115 D115:L115 A116:B116 D116:L116 A120:L122 A119:B119 D119:L119 A125:L149 A123:B123 D123:L123 A124:B124 D124:L124 A157:L161 A156:B156 D156:L156 A164:L169 A162:B162 D162:L162 A163:B163 D163:L163 A171:L175 A170:B170 D170:L170 A177:L177 A176:B176 D176:L176 A180:L184 A178:B178 D178:L178 A179:B179 D179:L179 A186:L186 A185:B185 D185:L185 A188:L191 A187:B187 D187:L187 A193:L209 A192:B192 D192:L192" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>